--- a/actual.xlsx
+++ b/actual.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Errored Files" sheetId="1" r:id="rId1"/>
     <sheet name="US Paystub" sheetId="2" r:id="rId2"/>
+    <sheet name="Other" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="1204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="1250">
   <si>
     <t>file_name</t>
   </si>
@@ -245,9 +246,6 @@
     <t>APPELF__4492-000000009045800-44922831_&amp;I100PYSTB_20191010145715_30800014-09045800-44922831-001_23_.pdf_0</t>
   </si>
   <si>
-    <t>APPELF__4497-000000009019170-44972741_&amp;I100PYSTB_20191001202924_30800027-09019170-44972741-001_2_.pdf_0</t>
-  </si>
-  <si>
     <t>APPELF__4500-000000009029290-45002991_&amp;I100PYSTB_20191028172937_30800035-09029290-45002991-003_18_.pdf_0</t>
   </si>
   <si>
@@ -482,9 +480,6 @@
     <t>Teresa Ann Gibbons</t>
   </si>
   <si>
-    <t>DNA.Il</t>
-  </si>
-  <si>
     <t>Robert Leininger</t>
   </si>
   <si>
@@ -570,9 +565,6 @@
   </si>
   <si>
     <t>Francesca Vazquez</t>
-  </si>
-  <si>
-    <t>EMILSY GONZALEZ</t>
   </si>
   <si>
     <t>Cinthie R Castor</t>
@@ -778,8 +770,7 @@
 Brighton, MI 48116</t>
   </si>
   <si>
-    <t>605  N  East  St
-Fenton,MI    48430</t>
+    <t>605 N East St, Fenton, MI 48430</t>
   </si>
   <si>
     <t>9070 Minock St
@@ -793,15 +784,13 @@
   </si>
   <si>
     <t>6211 Eastbrooke
-W  Bloomfield, MI 48322</t>
-  </si>
-  <si>
-    <t>3037 SEEBALDT AVE
-WATERFORD TWP MI 48329</t>
-  </si>
-  <si>
-    <t>910 N ADAMS RD #5
-BIRMINGHAM, MI 48009</t>
+W Bloomfield, MI 48322</t>
+  </si>
+  <si>
+    <t>3037 SEEBALDT AVE WATERFORD TWP MI 48329</t>
+  </si>
+  <si>
+    <t>910 N ADAMS RD #5, BIRMINGHAM, MI 48009</t>
   </si>
   <si>
     <t>50553 BILLENCA DR, NOVI, MI 48374</t>
@@ -811,20 +800,15 @@
 Lansing, MI  48910</t>
   </si>
   <si>
-    <t>4316 Devonshire Ave</t>
+    <t>4316 Devonshire Ave
+Lansing. MI 48910</t>
   </si>
   <si>
     <t>1302 9th Ave Ne
-Brainerd MN   56401</t>
-  </si>
-  <si>
-    <t>16625 cherry hill dr</t>
+Brainerd MN 56401</t>
   </si>
   <si>
     <t>16625 cherry hill dr apt 2 Brookfield WI 53005</t>
-  </si>
-  <si>
-    <t>16625 cherry hill dr apt 2</t>
   </si>
   <si>
     <t>4036 Upper 69th St E
@@ -834,8 +818,7 @@
     <t>4036 Upper 69th St E, Inver Grove Heights, MN 55076</t>
   </si>
   <si>
-    <t>201 Heritage Blvd NW
-Isanti, MN 55040</t>
+    <t>201 Heritage Blvd NW, Isanti, MN 55040</t>
   </si>
   <si>
     <t>2022 NORTHGATE CT NW, ROCHESTER MN 55901</t>
@@ -844,8 +827,7 @@
     <t>12120 Highway 10_East, Clinton MT 59825</t>
   </si>
   <si>
-    <t>2810 Avenue L #12
-Kearney, NE</t>
+    <t>2810 Avenue L #12 Kearney, NE</t>
   </si>
   <si>
     <t>64R LOWELL ROAD HUDSON, NH 03051</t>
@@ -861,12 +843,10 @@
     <t>411 Woodman Rd, Sanbornton, NH 03269</t>
   </si>
   <si>
-    <t>411 WOODMAN RD, SANBORNTON, NH 03269</t>
-  </si>
-  <si>
-    <t>3300 Biscayne Blvd.
-C1
-Miami FL 33137</t>
+    <t>411 WOODMAN RD SANBORNTON, NH 03269</t>
+  </si>
+  <si>
+    <t>3300 Biscayne Blvd. C1 Miami FL 33137</t>
   </si>
   <si>
     <t>4 Viking Court
@@ -876,8 +856,8 @@
     <t>4 Viking Court, Randolph, NJ 07869</t>
   </si>
   <si>
-    <t>27 Anthony   Way
-Jackson,  NJ 08527</t>
+    <t>27 Anthony Way
+Jackson, NJ 08527</t>
   </si>
   <si>
     <t>43 Putnam  St
@@ -897,37 +877,32 @@
     <t>1221 BALSAM AVE APT 10 TOMAH, WI 54660</t>
   </si>
   <si>
-    <t>410 kamehameha  hwy
-eiwa HI 96712</t>
-  </si>
-  <si>
-    <t>59-410 KAM   HWY   APT  C2
-HALEIWA,   HI 96712</t>
-  </si>
-  <si>
-    <t>122-A Aoloa Loop
-Kahului, HI 96732</t>
-  </si>
-  <si>
-    <t>912 Desert Oak Ct #C, Las Vegas, NV 89145</t>
+    <t>410 kamehameha  hwy eiwa HI 96712</t>
+  </si>
+  <si>
+    <t>59-410 KAM HWY APT C2 HALEIWA, HI 96712</t>
+  </si>
+  <si>
+    <t>122-A Aoloa Loop Kahului, HI 96732</t>
+  </si>
+  <si>
+    <t>912 Desert Oak Ct #C Las Vegas, NV 89145</t>
   </si>
   <si>
     <t>5025 Calumet Point Dr, NORTH LAS VEGAS, NV 89081</t>
   </si>
   <si>
-    <t>1317 W REUNION AVE, SOUTH JORDAN, UT 84095</t>
-  </si>
-  <si>
-    <t>1807 Runners Way
-North Lauderdale, FL 33068</t>
+    <t>1317 W REUNION AVE SOUTH JORDAN, UT 84095</t>
+  </si>
+  <si>
+    <t>1807 Runners Way, North Lauderdale, FL 33068</t>
   </si>
   <si>
     <t>922 NW 114th Ave
 Coral Springs, FL 33071</t>
   </si>
   <si>
-    <t>7499 Tam  Oshanter  Blvd
-North Lauderdale  FL 33068</t>
+    <t>7499 Tam Oshanter Blvd, North Lauderdale FL 33068</t>
   </si>
   <si>
     <t>950 Meridian Ave APT 35 San Jose, CA 95126</t>
@@ -943,14 +918,10 @@
     <t>2100 Valley View Parkway #524 El Dorado Hills CA 95762</t>
   </si>
   <si>
-    <t>356 Golfcrest Drive
-Conyers, GA  30094</t>
-  </si>
-  <si>
     <t>356 Golfcrest Drive, Conyers, GA 30094</t>
   </si>
   <si>
-    <t>5455 AMBER COVE WAY, FLOWERY BRANCH, GA 30542</t>
+    <t>5455 AMBER COVE WAY FLOWERY BRANCH, GA 30542</t>
   </si>
   <si>
     <t>1681 WAKEFIELD WAY SACRAMENTO, CA 95822</t>
@@ -962,8 +933,7 @@
     <t>7661 Trask Ave Apt 16 Westminster, CA 92683</t>
   </si>
   <si>
-    <t>233 N. Hamilton Ave
-Hemet, CA 92543</t>
+    <t>233 N. Hamilton Ave Hemet, CA 92543</t>
   </si>
   <si>
     <t>233 N. Hamilton Ave
@@ -976,19 +946,13 @@
     <t>12715 SW 136 ST APT 2202 MIAMI, FL 33186</t>
   </si>
   <si>
-    <t>1441 West Newport Center Drive Deerfield Beach, FL 33442</t>
-  </si>
-  <si>
-    <t>6411 Birch Lane</t>
+    <t>6411 Birch Lane, Lantana, FL 33462 US</t>
   </si>
   <si>
     <t>1110 NE Juanita Place Cape Coral FL 33909</t>
   </si>
   <si>
     <t>59 brick kiln loop Clayton, NC 27520</t>
-  </si>
-  <si>
-    <t>59 brick kiln loop</t>
   </si>
   <si>
     <t>19 CARLISLE COURT, CLAYTON, NC 27520</t>
@@ -1005,13 +969,13 @@
 Carlsbad, CA 92008</t>
   </si>
   <si>
-    <t>370 CENTER LAKE LANE</t>
-  </si>
-  <si>
-    <t>12221 E Colonial Drive</t>
-  </si>
-  <si>
-    <t>39931 N Zampino St</t>
+    <t>370 CENTER LAKE LANE APT 4018 Oviedo, FL 32765</t>
+  </si>
+  <si>
+    <t>12221 E Colonial Drive, 4412, Orlando, FL 32826</t>
+  </si>
+  <si>
+    <t>39931 N Zampino St, San Tan Valley, AZ 85140</t>
   </si>
   <si>
     <t>3236 E. Chandler Blvd. Unit 1023 Phoenix, AZ 85048</t>
@@ -1044,8 +1008,7 @@
     <t>Department of Transportation</t>
   </si>
   <si>
-    <t>UNIVERSITY OF MARYLAND MEDICAL      CENTER
-UNIVERSITY OF MARYLAND MEDICINE</t>
+    <t>UNIVERSITY OF MARYLAND MEDICAL CENTER</t>
   </si>
   <si>
     <t>Baltimore City Public Schools</t>
@@ -1072,7 +1035,7 @@
     <t>2015 Global Employment Solutions, Inc.</t>
   </si>
   <si>
-    <t>GLOBAL EMPLOYMENT SOLUTIONS</t>
+    <t>GLOBAL Employment Solutions</t>
   </si>
   <si>
     <t>VARIETY FOODSERVICES INC.</t>
@@ -1081,7 +1044,7 @@
     <t>PLANNED PARENTHOOD OF MICHIGAN</t>
   </si>
   <si>
-    <t>FIAT CHRYSLER  AUTOMOBILES</t>
+    <t>FCA  US  LLC</t>
   </si>
   <si>
     <t>DPS Community District</t>
@@ -1102,7 +1065,7 @@
     <t>ACSO   of Michigan, Inc</t>
   </si>
   <si>
-    <t>Cellco  Partnership</t>
+    <t>Cellco Partnership</t>
   </si>
   <si>
     <t>Red Cow</t>
@@ -1123,7 +1086,7 @@
     <t>O'REILLY  AUTO   ENTERPRISES    LLC</t>
   </si>
   <si>
-    <t>TOWN PUMP INC</t>
+    <t>TOWN  PUMP   INC</t>
   </si>
   <si>
     <t>UNITED STATES POSTAL SERVICE</t>
@@ -1147,16 +1110,22 @@
     <t>NEWMARKET SCHOOL DISTRICT</t>
   </si>
   <si>
+    <t>Town of Alton</t>
+  </si>
+  <si>
     <t>Durham D&amp;M LLC</t>
   </si>
   <si>
     <t>DEPT OF ADMINISTRATIVE SERVICES</t>
   </si>
   <si>
+    <t>PointClickCare</t>
+  </si>
+  <si>
     <t>Aisha Holding Corporation</t>
   </si>
   <si>
-    <t>Sprint Back Check Details Company Information Staffing Solutions Southeast, Inc.</t>
+    <t>County   of Morris</t>
   </si>
   <si>
     <t>County of Morris</t>
@@ -1165,13 +1134,13 @@
     <t>CENTER FOR HEALTH MEDICINE AND DENTISTRY</t>
   </si>
   <si>
-    <t>AHS  HOSPITAL   CORP</t>
+    <t>AHS HOSPITAL CORP</t>
   </si>
   <si>
     <t>Sant-Tec Electric, Inc.</t>
   </si>
   <si>
-    <t>WALGREEN CO.</t>
+    <t>WALGREEN    CO.</t>
   </si>
   <si>
     <t>Wal-Mart   Associates, Inc.</t>
@@ -1183,7 +1152,7 @@
     <t>Fastenal Company</t>
   </si>
   <si>
-    <t>NORTHWEST      BUILDERS,     INC.</t>
+    <t>NORTHWEST BUILDERS, INC.</t>
   </si>
   <si>
     <t>BNSF Railway  Company</t>
@@ -1195,9 +1164,6 @@
     <t>Waihuena Farm</t>
   </si>
   <si>
-    <t>MICHAEL M OKANO DDS INC</t>
-  </si>
-  <si>
     <t>State of Hawaii Central Payroll</t>
   </si>
   <si>
@@ -1225,7 +1191,7 @@
     <t>Boutique Billing &amp; Consulting LLC</t>
   </si>
   <si>
-    <t>Kohl's Department Stores Inc.</t>
+    <t>Kohl's</t>
   </si>
   <si>
     <t>COUNTY       OF  SANTA       CLARA</t>
@@ -1234,7 +1200,7 @@
     <t>GPS Services, Inc.</t>
   </si>
   <si>
-    <t>Buckeye  Union  School  District</t>
+    <t>Buckeye Union School District</t>
   </si>
   <si>
     <t>The Anthem Companies, Inc.</t>
@@ -1258,9 +1224,6 @@
     <t>Best Buy Stores, L.P.</t>
   </si>
   <si>
-    <t>Hemet  Eye Care Center  of Optometry</t>
-  </si>
-  <si>
     <t>Hemet Eye Care Center of Optometry</t>
   </si>
   <si>
@@ -1303,19 +1266,19 @@
     <t>BOARD OF COUNTY COMMISSIONERS</t>
   </si>
   <si>
-    <t>Lehigh Hanson Services LLC</t>
+    <t>LEHIGH   HANSON</t>
   </si>
   <si>
     <t>Kyrene Elementary School District No.28</t>
   </si>
   <si>
-    <t>36 Mount Desert Street Bar Harbor, ME 04609</t>
+    <t>36 Mount Desert Street, Bar Harbor, ME 04609</t>
   </si>
   <si>
     <t>PO Box 886, Bucksport, ME 04416</t>
   </si>
   <si>
-    <t>3150 Fairview Park Drive Falls Church, VA 22042</t>
+    <t>3150 Fairview Park Drive, Falls Church, VA 22042</t>
   </si>
   <si>
     <t>4319 Rosedale Ave Bethesda, MD 20814</t>
@@ -1327,27 +1290,28 @@
     <t>9881  Broken  Land  Parkway, Suite 300, Columbia,   MD   21046</t>
   </si>
   <si>
-    <t>4616 CEDELL  PLACE TEMPLE  HILLS, MD 20748</t>
-  </si>
-  <si>
-    <t>22 SOUTH   GREENE   STREET   Crystal C. Jefferson
-BALTIMORE,   MD  21201</t>
-  </si>
-  <si>
-    <t>301 S Beechfield Avenue, Baltimore, MD 21229, US</t>
+    <t>4616 CEDELL  PLACE, TEMPLE  HILLS, MD 20748</t>
+  </si>
+  <si>
+    <t>22 SOUTH GREENE STREET BALTIMORE, MD 21201</t>
+  </si>
+  <si>
+    <t>301 S Beechfield Avenue, Baltimore, MD 21229</t>
   </si>
   <si>
     <t>6901 N Charles Street, Building E, Towson, MD 21204</t>
   </si>
   <si>
-    <t>17574 Laurel Park  Drive North-  Suite 320E
-Livonia, MI 48152</t>
-  </si>
-  <si>
-    <t>29261 Wall Street Wixom, MI  48393</t>
-  </si>
-  <si>
-    <t>Payroll Office, G395 Wolverine Tower Ann Arbor, MI 48109-1279</t>
+    <t>1777 Third Street Detroit, MI 48226 United States of America</t>
+  </si>
+  <si>
+    <t>17574 Laurel Park  Drive North-  Suite 320E, Livonia, MI 48152</t>
+  </si>
+  <si>
+    <t>29261 Wall Street Wixom, MI 48393</t>
+  </si>
+  <si>
+    <t>Payroll Office, G395 Wolverine Tower, Ann Arbor, MI 48109-1279</t>
   </si>
   <si>
     <t>10375 Park Meadows Dr., Suite 475, Littleton, CO 80124</t>
@@ -1356,63 +1320,76 @@
     <t>25235 Hoover Rd. Warren, MI 48089</t>
   </si>
   <si>
-    <t>950 VICTORS WAY 100 ANN ARBOR MI 48108</t>
-  </si>
-  <si>
-    <t>3011 West Grand  Boulevard, Fisher Building, 11th Floor, Detroit, MI 48202</t>
-  </si>
-  <si>
-    <t>26533 EVERGREEN RD SUITE 400 SOUTHFIELD MI 48076</t>
+    <t>950 VICTORS WAY 100, ANN ARBOR MI 48108</t>
+  </si>
+  <si>
+    <t>3176  HIDDEN   TRAIL  , WATERFORD,     MI  48328</t>
+  </si>
+  <si>
+    <t>3011 West Grand Boulevard, Fisher Building, 11th Floor, Detroit, MI 48202</t>
+  </si>
+  <si>
+    <t>26533 EVERGREEN RD SUITE 400, SOUTHFIELD MI 48076</t>
+  </si>
+  <si>
+    <t>910 N ADAMS   RD #5, BIRMINGHAM,   MI 48009</t>
   </si>
   <si>
     <t>135 N. Church Street, Spartanburg, SC 29306</t>
   </si>
   <si>
-    <t>One Verizon Way Basking Ridge NJ  07920</t>
-  </si>
-  <si>
-    <t>DAL Global Services, LLC-980 Virginia Ave.-4th Floor-Atlanta, GA 30354-404-714-9394</t>
-  </si>
-  <si>
-    <t>DAL Global Services, LLC-980  Virginia Ave.-4th Floor-Atlanta,  GA 30354-404-714-9394</t>
+    <t>One Verizon Way, Basking Ridge, NJ 07920</t>
+  </si>
+  <si>
+    <t>DAL Global Services, LLC-980 Virginia Ave.-4th Floor-Atlanta, GA 30354</t>
+  </si>
+  <si>
+    <t>DAL Global Services, LLC-980  Virginia Ave.-4th Floor-Atlanta,  GA 30354</t>
   </si>
   <si>
     <t>DAL  Global Services, LLC-980  Virginia Ave.-4th Floor-Atlanta, GA 30354</t>
   </si>
   <si>
+    <t>4036 Upper 69th St E, Inver Grove Heights, MN 55076-2218</t>
+  </si>
+  <si>
     <t>2124 University Avenue W, Saint Paul, MN 55114</t>
   </si>
   <si>
-    <t>233 S PATTERSON SPRINGFIELD    MO  65802</t>
-  </si>
-  <si>
-    <t>P O BOX 6000 BUTTE, MT 59702</t>
+    <t>1444 Northland Dr Ste 200, Mendota Heights, MN 55120</t>
+  </si>
+  <si>
+    <t>233 S PATTERSON SPRINGFIELD MO 65802</t>
+  </si>
+  <si>
+    <t>TOWN  PUMP   INC P O  BOX  6000 BUTTE,   MT  59702</t>
   </si>
   <si>
     <t>2605 2nd Ave Kearney, NE 68847-4425</t>
   </si>
   <si>
-    <t>20 Library St Hudson NH 03051</t>
+    <t>2605  2nd  Ave Kearney,  NE  68847-4425</t>
+  </si>
+  <si>
+    <t>20 Library St, Hudson, NH 03051</t>
   </si>
   <si>
     <t>Town Main St   03813 Farmington, NH</t>
   </si>
   <si>
-    <t>Town  of Farmington
-356 Main  St
-Farmington,  NH  03835</t>
-  </si>
-  <si>
-    <t>2601 Navistar Drive Lisle IL 60532</t>
-  </si>
-  <si>
-    <t>25 CAPITOL STREET CONCORD, NH 03301-6312</t>
+    <t>Town  of Farmington 356 Main  St Farmington,  NH  03835</t>
+  </si>
+  <si>
+    <t>2601 Navistar Drive, Lisle IL 60532</t>
+  </si>
+  <si>
+    <t>25 CAPITOL STREET, CONCORD, NH 03301-6312</t>
   </si>
   <si>
     <t>100 North Biscayne Blvd. Suite 2001, Miami FL 33132</t>
   </si>
   <si>
-    <t>1040 Crown Pointe Pkwy Ste 1040, Atlanta, GA 30338</t>
+    <t>County  of Morris P.O.Box   900 Morristown,   NJ  07963-0900</t>
   </si>
   <si>
     <t>County of Morris P.O.Box 900 Morristown, NJ 07963-0900</t>
@@ -1421,13 +1398,13 @@
     <t>1771 MADISON AVE, Lakewood, NJ 08701</t>
   </si>
   <si>
-    <t>475 South  Street, P.O. 1905, Morristown,   NJ 07962-1905</t>
-  </si>
-  <si>
-    <t>2017 41St Street North Bergen, NJ 07047-0000 201-865-4100</t>
-  </si>
-  <si>
-    <t>200 WILMOT   RD DEERFIELD,   IL 60015</t>
+    <t>475 South  Street, Morristown, NJ 07962-1905</t>
+  </si>
+  <si>
+    <t>Sant-Tec Electric, Inc. 2017 41St Street North Bergen, NJ 07047-0000 201-865-4100</t>
+  </si>
+  <si>
+    <t>200 WILMOT   RD, DEERFIELD,   IL 60015</t>
   </si>
   <si>
     <t>702 S.W.8th  St., Bentonville, Arkansas 72716</t>
@@ -1436,10 +1413,10 @@
     <t>702 S.W.8th St., Bentonville, Arkansas 72716</t>
   </si>
   <si>
-    <t>2001 Theurer Blvd Winona, MN 55987-0978</t>
-  </si>
-  <si>
-    <t>RICE LAKE,  WISCONSIN    54868</t>
+    <t>2001 Theurer Blvd, Winona, MN 55987-0978</t>
+  </si>
+  <si>
+    <t>NORTHWEST BUILDERS, INC. 121926 RICE LAKE, WISCONSIN 54868</t>
   </si>
   <si>
     <t>BNSF Payroll Dept PO Box 1738 Topeka KS 66601</t>
@@ -1451,19 +1428,22 @@
     <t>1001 KAMOKILA BLVD STE #102, KAPOLEI, HI 96707-0000</t>
   </si>
   <si>
+    <t>P.O. Box 119 Honolulu, HI 96810</t>
+  </si>
+  <si>
     <t>3551 Trousdale Parkway ADM 352 Los Angeles, CA 90089-5013 United States of America</t>
   </si>
   <si>
     <t>601 S Rancho Dr STE C-26, LAS VEGAS, NV 89106</t>
   </si>
   <si>
-    <t>300 Congress Street Suite 407 Quincy, MA 02169</t>
+    <t>300 Congress Street, Suite 407, Quincy, MA 02169</t>
   </si>
   <si>
     <t>2535 Las Vegas Blvd. South, Las Vegas, Nevada 89109</t>
   </si>
   <si>
-    <t>PO BOX  2128 CARSON    CITY  NV  89702    (775) 882-2060</t>
+    <t>PO BOX  2128 CARSON    CITY  NV  89702</t>
   </si>
   <si>
     <t>4800 Deerwood  Campus Parkway, P. O. Box 45055, Jacksonville, FL 32246-6498</t>
@@ -1472,17 +1452,19 @@
     <t>161 Washington Street, Suite 600, Eight Tower Bridge, Conshohocken, PA 19428</t>
   </si>
   <si>
-    <t>6047 Kimberly Blvd Suite T
-North Lauderdale FL 33068</t>
-  </si>
-  <si>
-    <t>N56 W17000 Ridgewood Drive Menomonee Falls, WI 53051</t>
+    <t>6047 Kimberly Blvd Suite T, North Lauderdale FL 33068</t>
+  </si>
+  <si>
+    <t>Kohl's Department Stores Inc. N56 W17000 Ridgewood Drive Menomonee Falls, WI 53051</t>
+  </si>
+  <si>
+    <t>70  W.  Hedding     Street, San Jose,    CA   95110</t>
   </si>
   <si>
     <t>Two Folsom, San Francisco, CA 94105</t>
   </si>
   <si>
-    <t>PLACERVILLE,    CA  95667</t>
+    <t>2100 Valley View Parkway #524, El Dorado Hills, CA 95762</t>
   </si>
   <si>
     <t>220 Virginia Avenue, Indianapolis, IN 46204</t>
@@ -1497,10 +1479,13 @@
     <t>2500 AUBURN BLVD SACRAMENTO, CA 95821</t>
   </si>
   <si>
+    <t>498 Seventh Ave 16th FL New York, NY 10018 US</t>
+  </si>
+  <si>
     <t>7601 Penn Avenue South, Richfield MN 55423</t>
   </si>
   <si>
-    <t>999 E. Morton Place, Hemet,  CA 92543</t>
+    <t>999 E. Morton Place, Hemet, CA 92543</t>
   </si>
   <si>
     <t>999 E. Morton Place, Hemet, CA  92543</t>
@@ -1509,16 +1494,31 @@
     <t>504 Hillsboro Technology Dr, Deerfield Beach, FL 33441</t>
   </si>
   <si>
+    <t>12715 SW 136 ST APT 2202, MIAMI, FL 33186</t>
+  </si>
+  <si>
+    <t>1441 West Newport Center Drive Deerfield Beach, FL 33442</t>
+  </si>
+  <si>
+    <t>138  Professional  Way, Wellington, FL  33414</t>
+  </si>
+  <si>
+    <t>151 S. Warner Road, Suite 100, Wayne, PA 19087</t>
+  </si>
+  <si>
     <t>7701 Legacy Drive, Plano, TX 75024-0000</t>
   </si>
   <si>
     <t>135 S Wilmington Street Raleigh, North Carolina 27601</t>
   </si>
   <si>
+    <t>19 CARLISLE COURT, CLAYTON, NC  27520</t>
+  </si>
+  <si>
     <t>44 S Washington Street, New Bremen, OH  45869-1247</t>
   </si>
   <si>
-    <t>2560 N  1st  Street   Suite  180 San  Jose,  CA  95131</t>
+    <t>2560 N  1st  Street   Suite  180 San  Jose,  CA 95131</t>
   </si>
   <si>
     <t>1010  8th street suite B, coronado,  CA 92118</t>
@@ -1530,7 +1530,10 @@
     <t>201 South Rosalind Avenue, P.O. Box 1393, Orlando, FL 32802</t>
   </si>
   <si>
-    <t>P.O. Box 660225 Dallas, TX 75266</t>
+    <t>Lehigh   Hanson     Services     LLC P.O.  Box   660225 Dallas,    TX    75266</t>
+  </si>
+  <si>
+    <t>8700 South Kyrene Road, Tempe, AZ 85284</t>
   </si>
   <si>
     <t>09/27/2019</t>
@@ -1563,6 +1566,9 @@
     <t>10/11/2019</t>
   </si>
   <si>
+    <t>01/11/2019</t>
+  </si>
+  <si>
     <t>09/26/2019</t>
   </si>
   <si>
@@ -1575,7 +1581,7 @@
     <t>10/15/2019</t>
   </si>
   <si>
-    <t>8/23/2019 - 9/24/2019</t>
+    <t>08/23/2019</t>
   </si>
   <si>
     <t>09/06/2019</t>
@@ -1587,6 +1593,9 @@
     <t>10/16/2019</t>
   </si>
   <si>
+    <t>Oct 25</t>
+  </si>
+  <si>
     <t>10/12/2019</t>
   </si>
   <si>
@@ -1608,15 +1617,18 @@
     <t>08/30/2019</t>
   </si>
   <si>
+    <t>08/26/2019</t>
+  </si>
+  <si>
     <t>09/25/2019</t>
   </si>
   <si>
+    <t>10/29/2019</t>
+  </si>
+  <si>
     <t>09/07/2019</t>
   </si>
   <si>
-    <t>10/29/2019</t>
-  </si>
-  <si>
     <t>09/04/2019</t>
   </si>
   <si>
@@ -1662,9 +1674,6 @@
     <t>10/23/2019</t>
   </si>
   <si>
-    <t>08/26/2019</t>
-  </si>
-  <si>
     <t>09/16/2019</t>
   </si>
   <si>
@@ -1677,6 +1686,9 @@
     <t>09/02/2019</t>
   </si>
   <si>
+    <t>Oct 06</t>
+  </si>
+  <si>
     <t>October 06,201</t>
   </si>
   <si>
@@ -1719,15 +1731,15 @@
     <t>10/20/2019</t>
   </si>
   <si>
-    <t>08/31/2019</t>
-  </si>
-  <si>
     <t>10/26/2019</t>
   </si>
   <si>
     <t>09/11/2019</t>
   </si>
   <si>
+    <t>$2,162.28</t>
+  </si>
+  <si>
     <t>1153.86</t>
   </si>
   <si>
@@ -1800,7 +1812,7 @@
     <t>1,288.18</t>
   </si>
   <si>
-    <t>$1,209.80</t>
+    <t>$429.80</t>
   </si>
   <si>
     <t>2,074.86</t>
@@ -1815,7 +1827,7 @@
     <t>1,211.97</t>
   </si>
   <si>
-    <t>8.223.19</t>
+    <t>1,508.20</t>
   </si>
   <si>
     <t>1,722.53</t>
@@ -1836,6 +1848,9 @@
     <t>1926.60</t>
   </si>
   <si>
+    <t>$1,177.31</t>
+  </si>
+  <si>
     <t>925.71</t>
   </si>
   <si>
@@ -1911,7 +1926,7 @@
     <t>$346.66</t>
   </si>
   <si>
-    <t>$441.35</t>
+    <t>441.35</t>
   </si>
   <si>
     <t>1,870.38</t>
@@ -1941,7 +1956,7 @@
     <t>740.16</t>
   </si>
   <si>
-    <t>$1,633.98</t>
+    <t>1,633.98</t>
   </si>
   <si>
     <t>261.95</t>
@@ -1962,7 +1977,7 @@
     <t>1,969.46</t>
   </si>
   <si>
-    <t>$1,192.39</t>
+    <t>$1,476.53</t>
   </si>
   <si>
     <t>2,206.72</t>
@@ -1986,7 +2001,7 @@
     <t>$ 177.32</t>
   </si>
   <si>
-    <t>3,674.81</t>
+    <t>2,661.69</t>
   </si>
   <si>
     <t>1,521.74</t>
@@ -2052,7 +2067,7 @@
     <t>41,038.08</t>
   </si>
   <si>
-    <t>24231.43</t>
+    <t>50706.37</t>
   </si>
   <si>
     <t>4,864.75</t>
@@ -2067,15 +2082,12 @@
     <t>4.985.39</t>
   </si>
   <si>
-    <t>30,444.79</t>
+    <t>11,253.36</t>
   </si>
   <si>
     <t>9,739.80</t>
   </si>
   <si>
-    <t>8,950.32</t>
-  </si>
-  <si>
     <t>$70,075.50</t>
   </si>
   <si>
@@ -2109,7 +2121,7 @@
     <t>$19,739.95</t>
   </si>
   <si>
-    <t>22683.36</t>
+    <t>22,683.36</t>
   </si>
   <si>
     <t>3,644.56</t>
@@ -2187,6 +2199,9 @@
     <t>43,777.33</t>
   </si>
   <si>
+    <t>$3,861.29</t>
+  </si>
+  <si>
     <t>2975 18</t>
   </si>
   <si>
@@ -2262,7 +2277,7 @@
     <t>$660.00</t>
   </si>
   <si>
-    <t>3,570.66</t>
+    <t>3,570.10</t>
   </si>
   <si>
     <t>1,781.64</t>
@@ -2316,7 +2331,7 @@
     <t>1,367.11</t>
   </si>
   <si>
-    <t>1,965.73</t>
+    <t>1,769.16</t>
   </si>
   <si>
     <t>2,784.63</t>
@@ -2412,7 +2427,7 @@
     <t>$425.00</t>
   </si>
   <si>
-    <t>$493.00</t>
+    <t>493.00</t>
   </si>
   <si>
     <t>2,437.88</t>
@@ -2439,7 +2454,7 @@
     <t>832.00</t>
   </si>
   <si>
-    <t>$2,000.00</t>
+    <t>2,000.00</t>
   </si>
   <si>
     <t>303.74</t>
@@ -2457,7 +2472,7 @@
     <t>2,632.88</t>
   </si>
   <si>
-    <t>$1,666.67</t>
+    <t>$1,936.43</t>
   </si>
   <si>
     <t>2,998.02</t>
@@ -2487,7 +2502,7 @@
     <t>1,866.80</t>
   </si>
   <si>
-    <t>2,109.50</t>
+    <t>2,024.31</t>
   </si>
   <si>
     <t>$2,192.30</t>
@@ -2535,6 +2550,9 @@
     <t>2,089.73</t>
   </si>
   <si>
+    <t>29254.98</t>
+  </si>
+  <si>
     <t>2482</t>
   </si>
   <si>
@@ -2565,7 +2583,7 @@
     <t>$8,084.13</t>
   </si>
   <si>
-    <t>75,586.94</t>
+    <t>70,607.18</t>
   </si>
   <si>
     <t>6.832.30</t>
@@ -2619,6 +2637,12 @@
     <t>48,360.41</t>
   </si>
   <si>
+    <t>11624.06</t>
+  </si>
+  <si>
+    <t>12858.30</t>
+  </si>
+  <si>
     <t>12463.78</t>
   </si>
   <si>
@@ -2628,7 +2652,7 @@
     <t>37912.76</t>
   </si>
   <si>
-    <t>34588 .21</t>
+    <t>34588.21</t>
   </si>
   <si>
     <t>24621.45</t>
@@ -2685,7 +2709,7 @@
     <t>14,766.91</t>
   </si>
   <si>
-    <t>2,024.00</t>
+    <t>12,408.00</t>
   </si>
   <si>
     <t>27,889.00</t>
@@ -2706,15 +2730,12 @@
     <t>36075.29</t>
   </si>
   <si>
-    <t>32,792.67</t>
+    <t>8,409.67</t>
   </si>
   <si>
     <t>$10,725.00</t>
   </si>
   <si>
-    <t>493,00</t>
-  </si>
-  <si>
     <t>49,601.94</t>
   </si>
   <si>
@@ -2736,7 +2757,7 @@
     <t>6598.50</t>
   </si>
   <si>
-    <t>$35,280.00</t>
+    <t>35,280.00</t>
   </si>
   <si>
     <t>2,110.82</t>
@@ -2757,6 +2778,9 @@
     <t>55,901.23</t>
   </si>
   <si>
+    <t>$5,269.77</t>
+  </si>
+  <si>
     <t>10,156.19</t>
   </si>
   <si>
@@ -2829,13 +2853,25 @@
     <t>GIN-Group 1-7 Day FLSA</t>
   </si>
   <si>
+    <t>FV J 00</t>
+  </si>
+  <si>
+    <t>Bi-Week</t>
+  </si>
+  <si>
     <t>GPN-Group 2-28 Day FLSA 171 Hrs</t>
   </si>
   <si>
-    <t>BWC-Regular</t>
-  </si>
-  <si>
-    <t>26P-12 Month  Pay</t>
+    <t>BWC-Regular  Bi-Weekly</t>
+  </si>
+  <si>
+    <t>New York TPS Contingency</t>
+  </si>
+  <si>
+    <t>26P-12 Month Pay</t>
+  </si>
+  <si>
+    <t>GS 11 07</t>
   </si>
   <si>
     <t>M3H-ACSO    of Michigan Hourly</t>
@@ -2850,12 +2886,24 @@
     <t>ALL</t>
   </si>
   <si>
+    <t>4311B</t>
+  </si>
+  <si>
     <t>Morristown   Memorial   Hospital</t>
   </si>
   <si>
     <t>I-BW1</t>
   </si>
   <si>
+    <t>OE</t>
+  </si>
+  <si>
+    <t>101 GOV'T-101-GOV'T</t>
+  </si>
+  <si>
+    <t>Salaried</t>
+  </si>
+  <si>
     <t>BBE-Blue Cross Biweekly Employees</t>
   </si>
   <si>
@@ -2865,36 +2913,36 @@
     <t>67-C1 BW  GPS  Services HQ</t>
   </si>
   <si>
+    <t>Certificated Employees</t>
+  </si>
+  <si>
     <t>WE1-Exempt</t>
   </si>
   <si>
+    <t>Mobility BW Domestic</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
     <t>Bella Empire Bi-Weekly</t>
   </si>
   <si>
+    <t>GS 13 05</t>
+  </si>
+  <si>
     <t>Branch Non-Exempt</t>
   </si>
   <si>
-    <t>31-C2 BW   ON LLC  Stores</t>
+    <t>31-C2 BW ON LLC Stores</t>
   </si>
   <si>
     <t>BWN-BCC 7 day 40 Hour-Non-Exempt</t>
   </si>
   <si>
-    <t>Bi-Week</t>
-  </si>
-  <si>
-    <t>Bi-Weekly</t>
-  </si>
-  <si>
-    <t>BI-WEEKLY</t>
-  </si>
-  <si>
     <t>BIWEEKLY</t>
   </si>
   <si>
-    <t>Hourly</t>
-  </si>
-  <si>
     <t>Biweekly</t>
   </si>
   <si>
@@ -2925,9 +2973,6 @@
     <t>Dort federal credit union</t>
   </si>
   <si>
-    <t>Paycor</t>
-  </si>
-  <si>
     <t>HUNTINGTON NATIONAL BANK</t>
   </si>
   <si>
@@ -2943,6 +2988,9 @@
     <t>DIGITAL EMP FCU</t>
   </si>
   <si>
+    <t>****** 6316</t>
+  </si>
+  <si>
     <t>Profile Bank</t>
   </si>
   <si>
@@ -2979,9 +3027,6 @@
     <t>STATE EMPLOYEES CREDIT UN</t>
   </si>
   <si>
-    <t>Barrett Business Services, Inc.</t>
-  </si>
-  <si>
     <t>JPMORGAN CHASE BANK, N.A.</t>
   </si>
   <si>
@@ -3006,9 +3051,6 @@
     <t>Attendance Agent</t>
   </si>
   <si>
-    <t>GS 11 07</t>
-  </si>
-  <si>
     <t>Center Sales Manager</t>
   </si>
   <si>
@@ -3021,9 +3063,6 @@
     <t>Registered   Nurse</t>
   </si>
   <si>
-    <t>DAYTON BRANCH</t>
-  </si>
-  <si>
     <t>Account Mgmt Spec II</t>
   </si>
   <si>
@@ -3042,18 +3081,12 @@
     <t>Warehouse Supervisor</t>
   </si>
   <si>
-    <t>E51 - ACCOUNTING</t>
+    <t>TECH</t>
   </si>
   <si>
     <t>Server (Bella)</t>
   </si>
   <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>GS 13 05</t>
-  </si>
-  <si>
     <t>Field Service Technician</t>
   </si>
   <si>
@@ -3069,604 +3102,751 @@
     <t>Teacher, Kindergarten</t>
   </si>
   <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["HSA CONTR *", "$195.00", "$15.00"], ["ACCIDENT \u00b7", "$9.52", "$0.68"], ["CO STK CONT", "$21.00", "$1.50"], ["STOCK PURCH", "$140.00", "$10.00"], ["CRIT ILL ARR *", "$6.17", "$0.00"], ["ACCIDENT ARR '", "$0.58", "$0.00"], ["INS VIS \u00b7", "$35.88", "$2.76"], ["VIS ARR", "$5.13", "$0.00"], ["Total", "$2,077.77", "$151.40"], ["NET PAY", "$29,173.25", "$2,162.28"]]</t>
+    <t>[["type", "ytd_amount", "per_amount"], ["HSA CONTR *", "$195.00", "$15.00"], ["ACCIDENT \u00b7", "$9.52", "$0.68"], ["CO STK CONT", "$21.00", "$1.50"], ["STOCK PURCH", "$140.00", "$10.00"], ["INS VIS \u00b7", "$35.88", "$2.76"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Fed (S/2)", "424.18", "91.52"], ["OASDI", "905.00", "21.40"], ["Medicare", "46.00", "46.00"], ["ME (S/2)", "1000.00", "50.00"], ["DD Checking 3", "1153.86", "1153.86"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Weighted 1.5 OT", "373", "143:55"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Fed (M/0) (723.55)", "1671:27", "52.13"], ["OASDI (723.55)", "1539,17", "44.86"], ["Medicare (723.55)", "359,96", "10.49"], ["ME (M/0) (723.55)", "536:00", "18.0"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Fed Tax Withheld - Claiming M-1", "5,663.73", "237.7"], ["Social Security (2019 Limit = $8,239.80)", "3,703.57", "170.51"], ["Medicare (No Dollar Limit)", "866.16", "39.88"], ["MD Withholdng - Claiming M-0", "4,441.05", "204.14"], ["MetLaw", "145.4", "7.27"], ["Pet Insurance", "518.7", "35.71"], ["401K Loan1 Plan 3.5", "700.4", "35.02"], ["401K Loan2 Plan 3.5", "320.2", "16.01"], ["Supplemental Life", "195.62", "9.85"], ["Dep Life - Spouse", "39.4", "1.97"], ["Dep Life - Child", "20.6", "1.03"], ["LTD", "146.12", "7.36"], ["Salary &amp; Other Income", "58,661.58", "2,953.85"], ["Taxable Fringe Benefit", "146.12", "7.36"], ["Other Taxable Income", "5,000.00", "0.00"], ["Pre-tax Deductions", "(4,895.83)", "(242.51)"], ["Taxes Withheld", "(14,674.51)", "(652.23)"], ["After-tax Deductions", "(2,086.44)", "(114.22)"], ["Net Pay", "42,150.92", "1,952.25"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["DENTAL PRETAX", "105.00", "15.0"], ["HSA", "1,000.00", "100.0"], ["LTD", "179.39", "16.25"], ["MEDICAL INS", "675.00", "75.0"], ["STD", "122.88", "11.25"], ["Deductions", "2,082.27", "217.5"], ["FITW", "9,275.50", "1,052.83"], ["MD", "2,865.95", "307.97"], ["MD-MON1", "1,930.74", "207.47"], ["MED", "904.78", "96.73"], ["SS", "3,868.68", "413.60"], ["Taxes", "18,845.65", "2,078.60"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["DC Quality Self Only", "40.40", "2.02"], ["DC Basic Life", "30.25", "1.52"], ["Defined Contribution Plan 5%", "2,580.40", "129.02"], ["Fed Withholdng", "5,178.04", "251.88"], ["Fed MED/EE", "792.68", "38.82"], ["Fed OASDI/EE", "3,389.38", "165.99"], ["MD Withholdng", "4,208.45", "205.96"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["401K EE Contribution", "5,005.33 2", "256.85"], ["401K Loan", "1,657.32", "78.92"], ["GTL Automated", "158.39", "8.39"], ["LTDTXBL", "224.49", "11.63"], ["STDTXBL", "187.16", "9.7"], ["Federal Income Tax", "11,215.36", "657.05"], ["OASDI", "6,216.41", "319.01"], ["Medicare", "1,453.84", "74.61"], ["Maryland SITW", "4,356.60", "228.09"], ["Anne Arundel, MD", "2,206.88", "113.9"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Federal Taxes", "10,990.03", "517.36"], ["Health Benefits - Pretax", "2,630.74", "138.46"], ["TSP Tax Deferred", "400.00", "40"], ["Retirement - FERS", "711.04", "34.2"], ["Medicare Tax", "1,247.99", "59.01"], ["FEGLI - Optional", "6.30", "0.3"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Federal", "7978.09", "326.05"], ["Medicare", "987.56", "43.48"], ["Soc Sec", "4222.67", "185.9"], ["MD W/H", "4293.15", "183.89"], ["CPass", "640", "64.0"], ["VOL-ACC", "291.06", "13.86"], ["VOL-HOSP", "624.96", "29.76"], ["Dental", "446.46", "21.52"], ["H-Gold", "4864", "241.4"], ["EmpReimb", "-357.18", ""], ["SuppLife", "240.66", "11.46"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["BTU Teachers Dues", "95.66", "47.83"], ["State Retirement", "398.98", "203.41"], ["Federal Tax", "940.07", "377.45"], ["Social Security", "459.4", "183.02"], ["Medicare", "107.44", "42.8"], ["MD State Tax", "541.3", "220.32"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["FEDERAL TAX", "$595.24", "$54.20"], ["MARYLAND STATE INCOME TAX", "$512.49", "$44.31"], ["SOCIAL SECURITY TAX", "$501.22", "$40.92"], ["MEDICARE TAX", "$117.22", "$9.57"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["UHC HMO-Choice Plan", "10,105.10", "509.44"], ["DC CIGNA Family", "211.68", "11.76"], ["DC Quality Family", "60.66", "3.37"], ["Union EAP", "161.60", "8.08"], ["Union Robert A Ades Legal Ded", "240.60", "12.03"], ["DC Basic Life", "37.98", "1.99"], ["Medical Admin Fee", "458.00", "22.90"], ["UHC HMO-Choice Plan", "3,368.30", "169.81"], ["Deferred Compensation Plan", "1,500.00", "75.0"], ["AFLAC", "728.06", "36.84"], ["DC Basic Life", "76.94", "3.99"], ["DC Life Option B - 2X", "120.96", "6.30"], ["DC Life - Option A", "8.40", "0.42"], ["MPD Ret-8% W-Med After-Tax", "5,553.17", "275.50"], ["457 Loan Program", "404.20", "20.21"], ["ACH 5 - Allotment Fee", "40.00", "2.00"], ["DU-FOP MPD Labor Committee", "444.16", "22.37"], ["TOTAL:", "6,723.09", "330.79"], ["Fed Withholdng", "901.81", "0.0"], ["Fed MED/EE", "1,047.17", "49.31"], ["MD Withholdng", "3,510.75", "156.75"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["OASDI", "423.60", "110.46"], ["Medicare", "99.07", "25.84"], ["Federal Withholding", "553.57", "169.41"], ["State Tax - MI", "247.23", "68.53"], ["City Tax - DTRT", "160.65", "42.21"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["CPRP401K", "1,282.06", ""], ["FED Withholding Tax", "4,337.19", "166.59"], ["FED EE Medicare Tax", "759.49", "32.25"], ["MI Withholding Tax", "1,972.01", "83.57"], ["Total Tax Deductions", "10,316.16", "420.31"], ["BSIP Pre-tax EE", "5,795.51", "248.63"], ["Total Pre-tax Deductions", "11,555.25", "519.91"], ["Life Insurance - EE", "488.30", "26.65"], ["Dependent Life", "91.56", "4.65"], ["Total Post-tax Deductions", "579.86", "31.30"], ["Net Pay", "", "1,514.82"]]</t>
+  </si>
+  <si>
+    <t>Based on the provided text, there are no explicit details about deductions and taxes. The document primarily contains information about pay summaries and earnings. Therefore, I cannot create a table with the requested headers ("type", "ytd_amount", "per_amount") as there is no data related to deductions and taxes in the provided text.
+If you have another document or additional pages that include the deductions and taxes information, please provide that, and I will be able to assist you further.</t>
+  </si>
+  <si>
+    <t>```plaintext
+| type                | ytd_amount | per_amount |
+|---------------------|------------|------------|
+| Federal Income Tax  |            | $278.08    |
+| Social Security     |            | $132.31    |
+| Medicare            |            | $30.95     |
+| State Worked In: MI |            | $90.70     |
+| M - Health Insuranc |            | $15.87     |</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Salary", "43732.90", "1155.10"], ["PTO", "1119.10", "0.00"], ["Bonus Pay", "812.49", "0.00"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["BCBSM Comm. Blue PPO", "1", "74.5"], ["Dental Option III", "416.52", "23.14"], ["Vision", "117.72", "6.54"], ["Retirement", "2", "108.34"], ["Tiaa-Cref Sra", "1", "75"], ["Health Care Reimbursement", "1", "110.41"], ["BCBSM Comm. Blue PPO", "4", "266.5"], ["Dental Option III", "421.92", "23.44"], ["MHealthy Programs", "71.46", "3.97"], ["MHealthy Rewards", "24.12", "1.34"], ["Enhanced Group Life", "21.96", "1.22"], ["Expanded LTD", "249.82", "14.19"], ["Retirement", "2", "108.34"], ["Retirement", "2", "108.34"], ["Legal", "75.06", "4.17"], ["Optional Group Life", "317.5", "18.03"], ["Dependent Group Life", "2.34", "0.13"], ["TIAA CREF ROTH SRA", "500", "25"], ["PATIENT SERVICES", "521.8", "123.55"], ["Books Are Fun", "91.02", "0"], ["UM Computer Showcase", "643", "0"], ["Fed Withholdng", "5", "250.67"], ["Fed MED/EE", "688.24", "31.79"], ["Fed OASDI/EE", "2", "135.97"], ["MI Withholdng", "1", "85.41"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Deductions", "N/A", "N/A"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["FICA Tax", "322.4", "64.48"], ["FICA Med", "75.4", "15.08"], ["Federal Tax", "256.7", "51.34"], ["State Tax - MICHIGAN", "149.1", "29.82"], ["Total Taxes withheld", "803.6", "160.72"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["401(k) Employee", "300", "25"], ["Employee Medicare", "176.7", "10.28"], ["MI State Withholding", "364.58", "25.8"], ["Federal WH", "575.95", "59.88"], ["Employee OASDI", "755.52", "43.95"], ["DetR", "273.33", "16.14"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["403B", "1,489.60", "74.48"], ["403B LN 2", "261.25", "13.75"], ["403BMatch", "744.80", "37.24"], ["Dental", "100.00", "5.0"], ["Medical", "600.00", "30.0"], ["FITWH", "3,825.44", "194.09"], ["MED", "529.80", "26.49"], ["SOC", "2,265.40", "113.27"], ["MI", "1,489.60", "74.48"], ["MIDETR", "840.08", "42.06"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Health Savings Account", "$1,800.00", "$200.00"], ["Flex Deducts", "$3,142.62", "$349.18"], ["Total", "$4,942.62", "$549.18"], ["Savings - Loan 1", "$1,058.85", "$117.65"], ["Savings - Loan 2", "$2,019.51", "$224.39"], ["Savings - Loan 3", "$106.52", "$26.63"], ["Lease Vehicle Rent", "$5,204.32", "$619.32"], ["Lease Vehicle Insurance", "$1,297.34", "$140.00"], ["Total", "$9,686.54", "$1,127.99"], ["Net Pay", "$70,075.50", "$6,740.84"], ["Federal Withholding Tax", "$17,220.94", "$1,582.46"], ["Social Security", "$6,852.77", "$668.15"], ["Medicare Withholding Tax", "$1,602.66", "$156.26"], ["Michigan", "$4,248.41", "$407.28"], ["Total", "$29,924.78", "$2,814.15"], ["Flex Medical", "$68.00", "$0.00"], ["Flex Dental", "$5.50", "$0.00"], ["Flex Life", "$52.16", "$52.16"], ["Flex Vacation Buy", "$213.52", "$0.00"], ["Flex Wellness Credits", "$0.00", "$40.00"], ["Flex Voluntary Group", "$10.00", "$0.00"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["H2015 1", "$1,284.64", "$65.59"], ["T1005 1", "$243.49", "$12.43"], ["", "$1,041.15", "$53.16"], ["", "$161.76", "$10.29"], ["H2015 1", "$0.00", "$0.00"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Delta Dental Core", "105.29", "5.29"], ["HAP", "713.86", "47.02"], ["Heritage Vision Coret", "59.61", "3.93"], ["Pension Plus - Savings", "660.05", "33.77"], ["Personal Health Fund", "660.05", "33.77"], ["Pension Plus 2 - PHF", "2,045.98", "104.68"], ["Supplemental Life", "152.12", "8.12"], ["American Fid LTD", "537.74", "0"], ["Fed MED/EE", "462.53", "23.67"], ["Fed OASDI/EE", "1,977.71", "101.19"], ["MI Withholding", "524.36", "22.32"], ["MI DETROIT Withholding", "321.56", "16.41"], ["MIP Plus - Pension Component", "8.962.70", "458.56"], ["MIP PLUS - Savings Comp 1%", "329.94", "16.88"], ["Personal Health Fund - Match", "660.05", "33.77"], ["Employer Paid Dental Ins", "843.36", "37.86"], ["Employer Paid Life Insurance", "30.90", "1.38"], ["Employer Paid Medical Ins", "11,023.74", "470"], ["Employer Paid Vision Ins", "53.71", "2.41"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["401k", "677.17", ""], ["401kLoan", "518.40", "259.20"], ["Health", "1,639.47", "78.07"], ["Total", "$6,341.57", "$337.27"], ["FITWH", "2,499.04", "64.01"], ["MED", "571.91", "25.23"], ["SOC", "2,445.42", "107.89"], ["MI", "1,647.52", "73.95"], ["Total", "$7,163.89", "$271.08"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Federal Taxes", "4,875.33", "188.46"], ["Local Taxes ( PONTIAC )", "591.85", "26.96"], ["Dental/Vision", "1,041.74", "52.1"], ["Retirement - FERS", "501.68", "25.11"], ["Medicare Tax", "879.50", "42.27"], ["Union Dues", "300.00", "15"], ["Federal Taxes", "4,686.87", "236.79"], ["Local Taxes ( PONTIAC )", "564.89", "29.16"], ["Dental/Vision", "989.64", "52.1"], ["Retirement - FERS", "476.57", "25.11"], ["Medicare Tax", "837.23", "42.28"], ["Union Dues", "285.00", "15"], ["State Tax 1 ( MI )", "2,116.97", "109.53"], ["Health Benefits - Pretax", "3,242.10", "170.57"], ["TSP Tax Deferred", "1,252.52", "0"], ["OASDI Tax", "3,579.88", "180.78"], ["FEGLI - Regular", "239.25", "12.6"], ["Thrift Savings Plan Loan", "0.00", "12.81"], ["State Tax 1 ( MI )", "2,217.17", "100.2"], ["Health Benefits - Pretax", "3,412.67", "170.57"], ["TSP Tax Deferred", "1,472.21", "219.69"], ["OASDI Tax", "3,760.65", "180.77"], ["FEGLI - Regular", "251.85", "12.6"], ["Thrift Savings Plan Loan", "0.00", "12.81"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Roth - 401K", "$4,055.50", "$70.30"], ["Aftertax Savings", "$2,988.90", "$498.15"], ["Roth - 401K CatchUp", "$427.85", "$427.85"], ["Charity Flat Amount", "$225.00", "$25.00"], ["Savings - Loan 1", "$3,213.02", "$244.59"], ["Savings - Loan 2", "$2,144.63", "$216.25"], ["Savings - Loan 3", "$1,927.63", "$206.94"], ["Savings - Loan 4", "$2,113.82", "$332.62"], ["Dependent Group Life", "$32.31", "$3.59"], ["Savings - 401K", "$14,944.50", "$1,660.50"], ["Health Savings Account", "$2,250.00", "$250.00"], ["Flex Deducts", "$2,641.77", "$300.71"], ["Total", "$19,836.27", "$2,211.21"], ["Federal Withholding Tax", "$33,607.05", "$1,902.25"], ["Medicare Withholding Tax", "$3,305.53", "$245.89"], ["Additional Medicare EE", "$251.71", "$152.62"], ["Michigan", "$9,005.61", "$646.74"], ["Total", "$54,409.70", "$2,947.50"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Employee Assistance Program", "17.16", "0.78"], ["Basic AD&amp;D", "3.06", "0.15"], ["Basic Life", "16.26", "0.81"], ["Basic LTD", "58.92", "2.93"], ["Basic Short Term Disability", "187.15", "9.3"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Employee Assistance Program", "16.38", "0.78"], ["Basic AD&amp;D", "2.91", "0.15"], ["Basic Life", "15.45", "0.81"], ["Basic LTD", "55.99", "2.93"], ["Basic Short Term Disability", "177.85", "9.3"], ["Fed MED/EE", "353.49", "19.82"], ["Fed OASDI/EE", "1,511.47", "84.76"], ["MI Withholdng", "739.61", "43.72"], ["MI LANSING Withholdng", "121.98", "6.84"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Description", "YTD", "Current"], ["Basic Savings Plan", "2.850.08", "117.94"], ["Supplemental Savings Pl", "1.900.02", "78.63"], ["Fed MED/EE", "701.23", "28.51"], ["Fed OASDI/EE", "2,998.35", "121.88"], ["MN Withholdng", "2,152.86", "110.57"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["SOC SEC EE", "172.65", "FEDERAL WH"], ["MED EE", "40.38", "MINNESOTA WH"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["FIT", "1681.59", "69.70"], ["SS-EE", "1093.40", "47.48"], ["MED-EE", "255.71", "11.10"], ["State", "975.16", "42.07"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["FIT", "1809.37", "60.48"], ["SS-EE", "1193.82", "42.71"], ["MED-EE", "279.20", "9.99"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["FIT", "1748.89", "44.97"], ["SS-EE", "1151.11", "34.71"], ["MED-EE", "269.21", "8.12"], ["State", "1020.08", "27.54"], ["RegErn", "12463.8", "468.72"], ["Swap", "2528.82", "91.0"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Federal W/H", "1,877.82", "153.24"], ["FICA", "2,350.60", "145.07"], ["Medicare", "549.75", "33.93"], ["MNW/H", "1,083.00", "81"], ["Total", "5,861.17", "413.24"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Federal W/H", "1877.82", "153.24"], ["FICA", "2350.6", "145.07"], ["Medicare", "549.75", "33.93"], ["MN W/H", "1083", "81"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Holiday Prem", "341.05", "0.00"], ["Total Earnings", "34588 .21", "1519.02"], ["Federal Income", "3763.98", "152.59"], ["State Income", "1870.53", "76.17"], ["Soc Sec Tax", "2113.38", "92.70"], ["Medicare Tax", "494.26", "21.68"], ["Total Taxes", "8242 15", "343 14"], ["401 (k)", "345.87", "15.19"], ["Dental", "501.48", "23.88"], ["Other Deducts", "190.00", "9.50"], ["Total: Deduct's:", "1037 35", "48 .57"], ["Total Reimbs:", "", "50.00"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["FED W/H", "1504.04", "73.4"], ["MEDICARE", "357.01", "17.26"], ["MNW/H", "800.93", "38.72"], ["SOC SEC", "1526.53", "73.82"], ["TOTAL TAXES", "4188.51", "203.2"], ["FED W/H", "23729.26", "1143.04"], ["MEDICARE", "24621.45", "1190.67"], ["MNW/H", "23729.26", "1143.04"], ["SOC SEC", "24621.45", "1190.67"], ["401K", "892.19", "47.63"], ["401K LN", "254.34", "14.13"], ["UNIFORM", "27.99", ""], ["BEFORE-TAX DEDUCTION TOTALS", "892.19", "47.63"], ["AFTER-TAX DEDUCTION TOTALS", "282.33", "14.13"], ["TOTAL DEDUCTIONS", "1174.52", "61.76"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["W/H EE", "1,379.58", "100.05"], ["FSOC", "906.54", "64.61"], ["FMED", "212.01", "15.11"], ["W/H EE", "634.00", "46.0"]]</t>
+  </si>
+  <si>
+    <t>[["type", "per_amount", "ytd_amount"], ["Retirement: FERS - Ret-FICA Code E", "64.93", "1,298.21"], ["Social Security", "82.45", "see YTD below"], ["Medicare", "19.28", "see YTD below"], ["Federal Tax: S 02", "90.53", "1,652.13"], ["Health Plan Pre-tax: (Self + 1) 476 A PW U Health Plan", "143.89", "3,005.87"], ["State Income Tax: NE S 02", "41.39", "759.19"], ["FEDVIP Dental Pre Tax", "34.65", "729.79"], ["FEDVIP Vision Pre Tax", "10.79", "227.13"], ["Social Security (deducted on Ins Income)", ".09", "1,597.17"], ["Medicare (deducted on Ins Income)", ".02", "373.53"], ["Thrift Savings Plan (TSP): 3% - (Regular)", "44.27", "885.14"], ["Military Buy Back (MBB)", "100.00", "400.00"], ["Union Dues: W", "18.02", "378.42"], ["Total Current Pay Period Deductions :", "650.31", ""], ["Total Deductions :", "$ 650.31 $ 868.87", "$ 11,306.58"], ["Net Pay (Net To Bank):", "", "$ 18,386.80"]]</t>
+  </si>
+  <si>
+    <t>[["type", "per_amount", "ytd_amount"], ["Retirement: FERS - Ret-FICA Code E", "41.05", "1,233.28"], ["Social Security", "46.11", "see YTD below"], ["Medicare", "10.79", "see YTD below"], ["Federal Tax: S 02", "24.67", "1,561.60"], ["Health Plan Pre-tax: (Self + 1) 476 A P W U Health Plan", "143.89", "2,861.98"], ["State Income Tax: NE S 02", "13.58", "717.80"], ["FEDVIP Dental Pre Tax", "34.65", "695.14"], ["FEDVIP Vision Pre Tax", "10.79", "216.34"], ["Social Security (deducted on Ins Income)", ".10", "1,514.63"], ["Medicare (deducted on Ins Income)", ".02", "354.23"], ["Thrift Savings Plan (TSP): 3% - (Regular)", "27.99", "840.87"], ["Military Buy Back (MBB)", "100.00", "300.00"], ["Union Dues: W", "18.02", "360.40"], ["Total Deductions :", "$ 471.66", "$ 10,656.27"], ["Net Pay (Net To Bank):", "$ 461.40", "$ 17,517.93"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Net pay", "$19,739.95", "$811.20"], ["Tax withheld", "$4,569.69", "-"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Benefit Package", "$2.500.00", "$125.00"], ["Social Security Employee", "$1.507.20", "$61.36"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["FICA", "1871.19", "88.31"], ["MEDICARE", "437.6", "20.65"], ["125 MED", "557.88", "38.47"], ["FED", "2426.72", "113.98"], ["EMP RET", "2190.74", "104.72"], ["MED", "502.97", "31.13"], ["VIS 26 SINGL", "55.12", "1.98"], ["LIFE", "19.32", "0.92"], ["TMS DUES", "551.5", "29.5"], ["DIR DEPOSIT", "22683.4", "1066.34"]]</t>
+  </si>
+  <si>
+    <t>[["type", "per_amount"], ["DPW Heath/Dental", "47.63"], ["Total Deductions", "47.63"], ["Medicare DASDI", "9.75 41.68"], ["Federal Income Tax M/O New Hampshire SEIW Total Tax Withholding", "45.99"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["DPW Heath/Dental", "666.82", "47.63"], ["Total Deductions", "666.82", "47.63"], ["Medicare", "104.0", "9.75"], ["OASDI", "447.7", "41.68"], ["Federal Income Tax", "484.98", "45.99"], ["Total Tax Withholding", "1037.43", "97.42"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["GROSS", "5,111.76", "1,703.92"], ["DEDUCTIONS", "607.34", "227.46"], ["TAXES", "859.86", "286.62"], ["NET", "3,644.56", "1,189.84"], ["FWT", "485.04", "161.68"], ["MEDI", "71.04", "23.68"], ["SOCSEC", "303.78", "101.26"], ["RETIR / FP", "357.81", "119.27"], ["DUES / Dues ACTIVE 100% - 37.52", "37.52", "37.52"], ["HEALTH / S - YC 85% TEACHER 21 PP", "212.01", "70.67"], ["Total Deductions:", "607.34", "227.46"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Federal W/H", "", "1,461.56"], ["FICA/MEDI", "", "1,088.04"], ["Federal W/H", "", "44.82"], ["FICA/MEDI", "", "33.17"], ["Total Taxes", "", "77.99"], ["Total Deductions", "", "115.33"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Federal Tax", "407.62", "10.23"], ["Social Security", "270.97", "10.87"], ["Medicare", "63.37", "2.54"], ["Total Tax Deductions", "741.96", "23.64"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["ANNUAL LEAVE USAGE", "687.48", ""], ["CLOTH ALLOW -VETERANS 180", "180.00", "180.00"], ["COMPENSATION TIME USAGE", "53.09", "9.06"], ["DIRECT CARE DIFFERENTIAL", "190.00", "10.00"], ["FLOATING HOLIDAY LEAVE", "284.80", ""], ["FMLA ANNUAL LEAVE", "1,423.17", ""], ["HEALTH REWARDS", "300.00", ""], ["HOLIDAY PAY", "714.56", ""], ["HOLIDAY WORKED FT 1.5", "435.88", ""], ["INSTITUTION WKEND DIFFERENTIAL", "415.32", "18.08"], ["OVERTIME FT 1.5", "2,395.97", "36.24"], ["OVERTIME PREMIUM", "795.20", "9.98"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["BN-HMO EE PRETAX", "1,260.00", "60.0"], ["BN-DENTAL EE PRETAX", "126.00", "6.0"], ["BN-NH RETIREMENT SYSTEM-EE", "2,251.15", "106.67"], ["TOTALS", "3,637.15", "172.67"], ["FD FEDERAL INCOME TAX", "178.09", "38.07"], ["FD SOC SEC EE", "1,939.83", "101.55"], ["FD MEDICARE EE", "453.67", "23.75"], ["TOTALS", "2,571.59", "163.37"], ["EE $5K TERM", "1.26", "0.06"], ["EE $20K OR $25 AD&amp;D", "4.41", "0.21"], ["SP $25-$100K SUPP", "22.26", "1.06"], ["CHILD $3K TERM", "4.41", "0.21"], ["SEA FULL DUES", "342.03", "17.37"], ["TOTALS", "374.37", "18.91"], ["BN-BASIC LIFE ER", "13.65", "0.65"], ["BN-DENTAL ER", "1,353.66", "64.46"], ["BN-HMO ER", "21,582.54", "1,027.74"], ["BN-NH RETIREMENT SYSTEM-ER", "3,882.59", "181.80"], ["FD MEDICARE ER", "453.67", "23.75"], ["FD SOC SEC ER", "1,939.83", "101.55"], ["TOTALS", "29,225.94", "1,399.95"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Federal Income Tax", "528.12", "82.24"], ["Social Security", "377.07", "55.4"], ["Medicare", "88.19", "12.96"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Federal Tax", "2,218.61", "113.02"], ["Medicare Tax", "357.13", "18.21"], ["New Jersey Family Leave Insurance Tax", "20.47", "1.04"], ["NJ Tax", "434.92", "22.24"], ["Social Security Tax", "1,526.98", "77.88"], ["SUI Tax", "108.74", "5.54"], ["Dental Premium", "92.40", "4.62"], ["Group Insurance", "131.27", "7.07"], ["Medical Premium", "779.0", "38.95"], ["Pension", "1,968.4", "106.0"], ["Vision Premium", "", "4.5"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Federal Tax", "2,331.63", "113.02"], ["Medicare Tax", "375.34", "18.21"], ["New Jersey Family Leave Insurance Tax", "21.51", "1.04"], ["NJ Tax", "457.16", "22.24"], ["Social Security Tax", "1,604.87", "77.89"], ["SUI Tax", "114.28", "5.54"], ["Dental Premium", "97.02", "4.62"], ["Group Insurance", "138.34", "7.07"], ["Medical Premium", "817.95", "38.95"], ["Pension", "2,074.46", "106.00"], ["Vision Premium", "94.50", "4.50"], ["26,894.42", "18,694.72", "8,199.70"], ["YTD EARNINGS", "YTD NET PAY", "YTD DED"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["HSA Pre Tax Individual", "192.40", "9.62"], ["Health_Omnia_HSA_7", "1,521.80 1", "76.09"], ["Vision", "65.40 1", "3.27"], ["Total", "1,779,60", "88.98"], ["NJ FLI", "23.02", "1.21"], ["FIT", "2,742.37", "145.61"], ["FICA", "1,673.45", "88.15"], ["MEDI", "391.37", "20.61"], ["SIT:NJ", "559.58", "29.49"], ["SUI: NJ", "110.05", "5.78"], ["SDI:NJ", "48.91", "2.57"], ["Total", "5,548.75", "293.42"], ["Net Pay", "21,442.34", "1,128.29"], ["Roldan Migdalia (7075)", "21,442.34", "1,128.29"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["403b", "318.42", "139.38"], ["Total :", "318.42", "139.38"], ["Fed Withholdng", "1,488.52", "573.05"], ["Fed MED/EE", "214.12", "67.37"], ["Fed OASDI/EE", "915.55", "288.06"], ["NJ TDB", "25.10", "7.89"], ["NJ Unempl EE", "56.48", "17.77"], ["NJ NJ WDPF", "3.69", "1.16"], ["NJ NJ SWAF", "2.58", "0.81"], ["NJ FLI/EE", "11.81", "3.71"], ["NJ Withholdng", "381.10", "166.10"], ["Total:", "3,098.95", "1,125.92"], ["REGULAR", "2,901.30", "2,901.30"], ["OVERTIME", "1,310.50", "1,310.50"], ["SHIFT 3", "369.41", "369.41"], ["WKEND DIFF", "64.88", "64.88"], ["Orienta SHIFT 2 Total:", "4,646.09", "4,646.09"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["SOC SEC EE", "769.3", "125.49"], ["", "MED EE", "179.92"], ["FEDERAL WH", "846.45", "154.11"], ["NEW JERSEY WH", "214.8", "36.3"], ["NEW JERSEY SDI E", "21.09", "3.44"], ["NEW JERSEY SUI E", "52.73", "8.6"], ["NEW JERSEY EMPL", "9.93", "1.62"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Vision Insurance", "191.73", "9.13"], ["Dental", "1,257.90", "59.9"], ["Medical", "2,546.04", "121.24"], ["Totals:", "3,995.67", "190.27"], ["RE Withholding Tax", "23,893.33", "1,612.27"], ["RE EE Social Security", "23,893.33", "1,612.27"], ["RE EE Medicare Tax", "23,893.33", "1,612.27"], ["RE EE Supimtal Pensio", "27,889.00", "1,802.54"], ["RE EE Medical Aid Fun", "27,889.00", "1,802.54"], ["RE EE Family Leave In", "27,889.00", "1,802.54"], ["RE EE Stay at Wrk Pro", "27,889.00", "1,802.54"], ["RE EE Medical Leave I", "27,889.00", "1,802.54"], ["TX Withholding Tax", "2,342.18", "168.47"], ["TX EE Social Security", "1,481.39", "99.96"], ["TX EE Medicare Tax", "346.45", "23.37"], ["TX EE Suplmtal Pensio", "97.77", "5.57"], ["TX EE Medical Aid Fun", "165.01", "9.4"], ["TX EE Family Leave In", "37.18", "2.41"], ["TX EE Stay at Wrk Pro", "2.99", "0.17"], ["TX EE Medical Leave I", "33.47", "2.17"], ["Totals:", "4,506.44", "311.52"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["INS MED U \u00b7", "$554.78", "$27.80"], ["INS DEN U *", "$165.99", "$8.30"], ["CRITICAL ILL \u00b7", "$80.23", "$4.16"], ["ACCIDENT \u00b7", "$13.60", "$0.68"], ["Total", "$814.60", "$40.94"], ["FEDERAL TAX", "$1,909.12", "$101.88"], ["SOCIAL SECURITY", "$1,244.76", "$65.56"], ["MEDICARE", "$291.11", "$15.33"], ["WISCONSIN", "$825.61", "$44.70"], ["Total", "$4,270.60", "$227.47"]]</t>
+  </si>
+  <si>
+    <t>[["type", "per_amount", "ytd_amount"], ["INS AD&amp;D U \u00b7", "$1.24", "$23.91"], ["CRITICAL ILL *", "$5.50", "$106.07"], ["Total", "$6.74", "$129.98"], ["FEDERAL TAX", "$127.79", "$2,288.47"], ["SOCIAL SECURITY", "$78.94", "$1,440.76"], ["MEDICARE", "$18.46", "$336.95"], ["WISCONSIN", "$59.86", "$1,041.74"], ["Total", "$285.05", "$5,107.92"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Fed Withholdng", "18.39", "0.0"], ["Fed MED/EE", "24.12", "4.12"], ["Fed OASDI/EE", "103.15", "17.64"], ["WI Withholdng", "14.7", "1.72"], ["Net Pay", "1503.41", "261.15"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["FWH", "2445.48", "37.10"], ["MED", "1769.26", "5.99"], ["SOC", "1769.26", "25.63"], ["WISWH", "1081.94", "14.69"], ["CH SUP", ".00", "65.00"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Delta Dental", "170.35", "8.08"], ["Medical Insurance Employee", "975.27", "46.57"], ["VSP Vision", "86.02", "4.08"], ["Fed. Tax", "838.62", "31.82"], ["Soc. Sec.", "2160.35", "98.90"], ["Medicare", "505.24", "23.13"], ["Deductions (Summary)", "1231.64", "58.73"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Withholding Tax", "4,294.19", "392.23"], ["EE Railroad Rtmt Tier1", "2,033.15", "174.20"], ["EE Railroad Rtmt Tier2", "1,606.84", "137.67"], ["EE Medicare Tax", "475.49", "40.74"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Withholding Tax", "4,294.19", "392.23"], ["EE Railroad Rtmt Tier1", "2,033.15", "174.2"], ["EE Railroad Rtmt Tier2", "1,606.84", "137.67"], ["EE Medicare Tax", "475.49", "40.74"], ["Union Dues UTU - 1280", "580.76", "145.19"], ["Union Dues UTU - 1593", "1,046.50", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Taxes", "$2,279.23", "$78.34"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["SOC SEC EE", "30.57", "30.57"], ["MED EE", "7.15", "7.15"], ["HAWAIT WH", "13.93", "13.93"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Reg Retir hire before 7/1/2012", "2,774.21", "146.27"], ["Statutory Dues HSTA", "654.43", "35.41"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["403(b) Fidelity Employee Pre-tax Match Contribution", "2,153.73", "99.60"], ["403(b) Fidelity Employee Supplemental Contribution", "1,050.00", "50.00"], ["403(b) Vanguard Employee Supplemental Contribution", "1,050.00", "50.00"], ["Dental-Delta Dental-Employee Contribution", "910.00", "45.50"], ["Flexible Spending Account - Dependent", "1,615.32", "76.92"], ["Flexible Spending Account - Health", "1,211.49", "57.69"], ["Health Assessment Credit", "(400.00)", "(20.00)"], ["Medical-USC Trojan Care EPO-Employee Contribution", "3,820.00", "191.00"], ["Tobacco Free Incentive", "(250.00)", "(12.50)"], ["USC Supplemental Disability", "110.90", "5.98"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["FITW", "1,202.95", "118.63"], ["MED", "229.98", "22.04"], ["SS", "983.35", "94.24"], ["Total Tax Withholding", "2,416.28", "234.91"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["FITW", "2.166.82", "105.16"], ["MED", "522.04", "25.1"], ["", "2.232.04", "107.31"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["DIR DEP NET", "37070.1", "1666.75"], ["AD&amp;D", "3.6", "0.18"], ["FEDERAL WH TAX", "4083.83", "184.42"], ["FICA MEDICARE TX", "689.18", "32.63"], ["FICA SOC SEC TAX", "2946.86", "139.5"], ["LONG TERM DIS", "32.4", "1.62"], ["SHORT TERM DIS", "61.4", "3.07"], ["401K LOAN SLS", "699.87", "86.83"], ["401K SLS", "1934.13", "135"]]</t>
+  </si>
+  <si>
+    <t>[["type"], ["W/H Taxes"], ["Deductions"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Federal Income Tax", "$8,500.00", "$500.00"], ["Social Security Tax", "$4,200.00", "$250.00"], ["Medicare Tax", "$1,000.00", "$50.00"], ["State Income Tax", "$2,000.00", "$100.00"], ["401(k) Contribution", "$3,000.00", "$150.00"], ["Health Insurance", "$1,200.00", "$60.00"], ["Dental Insurance", "$300.00", "$15.00"], ["Vision Insurance", "$100.00", "$5.00"], ["Life Insurance", "$200.00", "$10.00"], ["Short-Term Disability", "$400.00", "$20.00"], ["Long-Term Disability", "$500.00", "$25.00"], ["Union Dues", "$600.00", "$30.00"], ["Charitable Contributions", "$700.00", "$35.00"], ["Garnishments", "$800.00", "$40.00"], ["Other Deductions", "$900.00", "$45.00"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["BlueOptions 5192/5193", "756.00", "36"], ["Signature BlueDentalChoice", "346.92", "16.52"], ["401(k) over 3%", "1,854.91", "88.87"], ["Accident Elite - USAble", "325.29", "15.49"], ["Critical Care Elite - USAble", "393.12", "18.72"], ["401(k) Loan 1", "3,234.42", "154.02"], ["401(k) Loan 2", "4,784.22", "227.82"], ["United Way", "42.00", "2"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Federal W/H", "181.8", "28.2"], ["FICA", "409.09", "51.58"], ["Medicare", "95.67", "12.06"], ["Wages", "6598.50", "832.00"], ["Total Gross Pay", "6598.50", "832.00"], ["Taxes", "686.56", "91.84"], ["Total Deductions", "686.56", "91.84"], ["NET PAY", "$5,911.94", "$740.16"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Federal Income Tax", "3,675.96", "213.02"], ["Social Security", "2,187.36", "124"], ["Medicare", "511.56", "29"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["OASDI - Social Security", "130.87", "18.83"], ["Medicare", "30.61", "4.41"], ["Federal Withholding", "82.25", "14.99"], ["State Tax - CA", "3.26", "0.52"], ["CA SDI - CASDI", "21.11", "3.04"], ["Associate Taxes", "268.1", "41.79"], ["Regular Hourly Earnings Training - Indirect", "2,002.86 107.96", "303.74"], ["OASDI - Taxable Wages", "2,110.82", "303.74"], ["Medicare - Taxable Wages", "2,110.82", "303.74"], ["Federal Withholding - Taxable Wages", "2,110.82", "303.74"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Current:", "", "278.29"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Fed Withholdng", "2,187.36", "170.43"], ["Fed MED/EE", "393.05", "31.32"], ["Fed OASDI/EE", "1,680.63", "133.93"], ["CA Withholdng", "1,194.43", "89.83"], ["CA OASDI/EE", "271.07", "21.6"], ["TOTAL TAXES", "1,712.89", "0.0"], ["TOTAL TAXES", "21,193.46", "0.0"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["DEF(TSA)", "678.91", "215.61"], ["FEDERAL TAX", "5,562.43", "367.87"], ["MEDICARE", "676.23", "83.32"], ["OTHER DED", "464.09", "295.05-"], ["STRS", "597.49", ""], ["EMPLOYER STRS", "", "996.79"], ["EMPLOYER MEDICARE", "", "83.32"], ["JI", "", "2.91"], ["MP", "", "74.15"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Medical", "1", "77.23"], ["Dental", "356.63", "18.77"], ["Vision", "41.8", "2.2"], ["Life", "117.42", "6.18"], ["401K", "2", "131.64"], ["FSA Healthcare", "219.26", "11.54"], ["TOTAL:", "4", "247.56"], ["Dep Life-chld", "55.67", "2.93"], ["LTD", "31.35", "1.65"], ["401k Loan Two", "304.19", "16.01"], ["401k Loan Three", "205.38", "22.82"], ["401K Loan One", "152.5", "0"], ["TOTAL:", "749.09", "43.41"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Medical", "1,467.37", "77.23"], ["Dental", "356.63", "18.77"], ["Vision", "41.80", "2.2"], ["Life", "117.42", "6.18"], ["401K", "2,451.64", "131.64"], ["FSA Healthcare", "219.26", "11.54"], ["TOTAL:", "4,654.12", "247.56"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Medical", "1,544.60", "77.23"], ["Dental", "", "18.77 375.40"], ["Vision", "", "2.20 44.00"], ["Life", "", "6.18 123.60"], ["401K", "", "131.64 2,583.28"], ["FSA Healthcare", "", "11.53 230.79"], ["TOTAL:", "", "247.55 4,901.67"], ["Dep Life-chld", "58.6", "2.93"], ["LTD", "33.0", "1.65"], ["401k Loan Two", "320.2", "16.01"], ["401k Loan Three", "228.2", "22.82"], ["401K Loan One", "152.5", "0.0"], ["TOTAL:", "792.5", "43.41"], ["Fed Withholding", "652.06", "105.45"], ["Fed Medicare Tax", "788.79", "37.09"], ["Fed Social Sec Tax", "3,372.75", "158.58"], ["GA Withholding", "2,077.73", "94.42"], ["401K Match **", "2,130.23", "105.32"], ["Associate Wellness", "461.60", "23.08"], ["Flex Credits - LTD*", "172.20", "8.61"], ["HSA Employer", "900.00", "0.00"], ["Contribution -Mem ** Life*", "182.60", "9.13"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Taxes", "$345.27", "$345.27"], ["Taxes", "$345.29", "$345.29"], ["Taxes", "$459.90", "$459.90"], ["Taxes", "$1,150.46", "$1,150.46"], ["Adjustments", "$129.01", "$129.01"], ["Adjustments", "$129.01", "$129.01"], ["Adjustments", "$258.02", "$258.02"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Taxes", "", "482.87"], ["Deductions", "", "308.43"], ["EE GTLI Taxable", "", "5.88"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["FED TX Withholdi", "333.46", "157.34"], ["TX EE Social Sec", "608.57", "175.32"], ["TX EE Medicare T", "142.33", "41.01"], ["GA TX Withholdi", "317.12", "109.2"], ["Dental PPO-High", "142.28", "71.14"], ["DCMP", "210.76", "74.95"], ["DC Retiremt-2.5%", "100.54", "55.78"], ["Kaiser HMO Gold", "210", "105"], ["Dependent Life", "3.12", "1.56"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Medicare Employee", "47.03", "1.83"], ["Social Security Employee", "201.10", "7.82"], ["Total Taxes", "267.83", "9.65"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Federal Income", "1108.35", "-111.16"], ["Social Security", "713.71", "-70.35"], ["Medicare", "166.92", "-16.46"], ["California State Income", "206.03", "-21.73"], ["California State DI", "115.12", "-11.35"], ["Net Pay", "", "$903.65"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Gross Earnings", "58,104.90", "2,766.90"], ["Imputed Earnings", "11.55", "0.55"], ["Pretax Deductions", "3,742.83", "178.23"], ["Employee Tax Deductions", "15,599.96", "742.85"], ["Voluntary Deductions", "112.70", "11.27"], ["Net Payment", "38,637.86", "1,834.00"], ["Siemens 401k Plan Loan 1", "112.7", "11.27"], ["Basic 401K PTX", "2,323.65", "110.65"], ["Dental PreTax", "178.50", "8.5"], ["Medical Pre Tax", "1,188.60", "56.6"], ["Vision PreTax US", "52.08", "2.48"], ["FIT Withheld", "7,939.47", "378.07"], ["Medicare Employee Withheld", "821.94", "39.14"], ["Social Security Employee Withheld", "3,514.51", "167.35"], ["SIT Withheld (CA)", "2,757.30", "131.3"], ["SDI Employee Withheld (CA)", "566.74", "26.99"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["*Dental", "195.30", "9.3"], ["*Vision", "83.37", "3.97"], ["*401k", "973.78", "0.0"], ["*Medical", "3927.00", "187.0"], ["Roth 401k", "1723.38", "85.58"], ["Merch Rcvd GU NA", "181.69", "0.0"], ["Federal Tax", "1594.26", "0.00"], ["CA State Tax", "496.61", "0.00"], ["Total Tax Deductions", "551399", "130 74"]]</t>
+  </si>
+  <si>
+    <t>[["type", "per_amount", "ytd_amount"], ["Taxes", "151.85", "3438.56"], ["Federal Income Tax", "77.77", "1784.64"], ["Social Security", "53.1", "1185.47"], ["Medicare", "12.42", "277.25"], ["CA State Disability Ins", "8.56", "191.2"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Total Pay", "22765.6", "200"], ["Taxes", "4097.64", "22.68"], ["Federal Income Tax", "2128.43", "5.38"], ["Social Security", "1411.46", "12.4"], ["Medicare", "330.1", "2.9"], ["CA State Disability Ins", "227.65", "2"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Supplemental AD and D", "50.82", "4.62"], ["Spouse/Partner Life In", "9.13", "0.83"], ["Supplemental Life", "12.21", "1.11"], ["Total After Tax Deductions", "72.16", "6.56"], ["Total Deductions", "1,449.25", "131.75"], ["Net Pay", "16,900.79", "2,661.69"], ["FL Blue", "1,319.67", "119.97"], ["Aetna EyeMed Vision", "57.42", "5.22"], ["Total Before Tax Deductions", "1,377.09", "125.19"], ["Fed Withholdng", "2,811.11", "725.44"], ["Fed MED/EE", "310.63", "53.28"], ["Fed OASDI/EE", "1,328.22", "227.84"], ["Total Taxes", "4,449.96", "1,006.56"], ["FL Blue", "6,012.05", "546.55"], ["Guardian Dental Group", "186.89", "16.99"], ["Aetna EyeMed Vision", "64.02", "5.82"], ["Life and AD&amp;D", "38.94", "3.54"], ["Short Term", "52.25", "4.75"], ["Long-Term Disability", "51.70", "4.7"], ["Total Non-Taxable", "6,405.85", "582.35"], ["Total Benefits", "6,405.85", "582.35"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["MINN. LIFE", "0.0", "0.0"], ["AVMSL PRE", "0.0", "0.0"], ["DELTAUSA P", "6.72", "0.56"], ["METLF PRE", "25.2", "2.1"], ["STD HIGH O", "89.16", "7.73"], ["LTD HIGH O", "123.68", "10.72"], ["CR UNION", "167.64", "15.24"], ["T.W.U.A", "273.9", "18.26"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["MINOPT (8X", "63.08", "5.74"], ["DELTAPPO P", "87.36", "5.46"], ["METLF PRE", "33.60", "2.1"], ["STD LOW OP", "110.40", "6.9"], ["LTD LOW OP", "117.92", "7.37"], ["PPD LEGAL", "116.64", "7.29"], ["CR UNION", "1,034.16", "81.48"], ["T.W.U.A", "306.42", "18.26"], ["MINOPT (3X", "8.08", "0"], ["WITH CURRENT TAX", "4,697.48", "257.41"], ["FICA CURRENT TAX", "2,508.15", "130.32"], ["MICA CURRENT TAX", "586.58", "30.48"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Federal", "$219.23", "$0.00"], ["Fica Medicare", "$219.23", "$0.00"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["FIT", "", "85.3"], ["Current Deductions", "5,758.07", "180.93"], ["Current Taxes", "", "161.8"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["FEDERAL WITHHOLDING", "($599.57)", "($90.11)"], ["SOCIAL SECURITY", "($435.24)", "($64.48)"], ["Federal and FICA Taxes Total:", "($1,136.60)", "($169.67)"], ["Net Wages:", "$5,883.40", "$870.33"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Withholding Tax", "2,812.47", "132.89"], ["EE Social Security Tax", "3,205.18", "111.62"], ["EE Medicare Tax", "749.60", "26.11"], ["Total Tax Deductions", "6,767.25", "270.62"], ["2501 401(k) Loan 1 Plan 1", "533.72", "21.08"], ["2510 Stock Purchase Plan", "210.00", "5.0"], ["2523 Spouse Trm Life", "62.16", "1.48"], ["3508 Child Support", "3,116.82", "74.21"], ["3520 Garnishment Serv. Fee", "84.00", "2.0"], ["Total Post Tax Deductions", "4,006.70", "103.77"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["CHILD SUPPORT 40%", "$44.20", "$0.00"], ["GARNISHMENT", "$22.33", "$0.00"], ["TOTAL", "$66.53", "$0.00"], ["Federal Income Tax", "$360.67", "$0.00"], ["FICA", "$2,013.78", "$0.00"], ["Medicare", "$399.71", "$0.00"], ["State Withholding - NC", "$38.00", "$0.00"], ["TOTAL", "$2,812.16", "$0.00"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Federal Income Tax", "$360.67", "$39.28"], ["FICA", "$2,013.78", "$117.30"], ["Medicare", "$399.71", "$27.43"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Federal Taxes", "14,123.99", "808.22"], ["Health Benefits - Pretax", "2,519.34", "126.38"], ["TSP Tax Deferred", "3,794.20", "199.88"], ["Retirement - FERS", "639.04", "31.98"], ["Medicare Tax", "1,358.31", "72.80"], ["FEGLI - Family", "27.70", "2.05"], ["Union Dues", "420.00", "21.00"], ["State Tax 1 (NC)", "4,289.00", "232.00"], ["Dental/Vision", "995.19", "49.58"], ["OASDI Tax", "5,807.97", "311.30"], ["FEGLI - Regular", "320.70", "16.05"], ["Charity Contribution", "48.08", "0.00"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Fed Withholdng", "5,260.30", "437.90"], ["Fed MED/EE Fed OASDI/EE", "678.79 2,902.43", "46.62 199.38"], ["CA Withholdng CA OASDI/EE", "1,853.71 468.13", "170.66 32.15"], ["Total:", "11,163.36", "886.71"], ["DENTAL", "208.60", "10.43"], ["VISION", "18.60", "0.93"], ["401k", "2,693.54", "193.63"], ["Total:", "2,920.74", "204.99"], ["Tool Loan", "350.00", "50.0"], ["Roth 401k", "2,352.03", "161.36"], ["Total:", "2,702.03", "211.36"], ["401k Match", "940.80", "64.54"], ["Total:", "1,440.80", "64.54"]]</t>
+  </si>
+  <si>
+    <t>[["type", "per_amount"], ["Fed Withholdng", "403.33"], ["Fed MED/EE", "44.21"], ["Fed OASDI/EE", "189.01"], ["CA Withholdng", "154.58"], ["CA OASDI/EE", "30.49"], ["Total:", "821.62"], ["DENTAL", "10.43"], ["VISION", "0.93"], ["401k", "183.6"], ["Total:", "194.96"], ["Tool Loan", ""], ["Roth 401k", ""], ["Total:", ""], ["401k Match", "61.2"], ["Total:", "61.2"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["FEDERAL TAX", "135.15", "26.8"], ["MEDICARE", "135.13", "19.83"], ["SOC SECURITY", "577.81", "84.82"], ["CA DISABILITY", "93.2", "13.68"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["UCRP", "459.86", "459.86"], ["MEDICARE", "71.13", "71.13"], ["OASDI", "304.13", "304.13"], ["FEDERAL TAX", "807.84", "807.84"], ["CA STATE TAX", "321.27", "321.27"], ["Medical Insurance", "204.22", "204.22"], ["Supplemental Life", "22.53", "22.53"], ["Dependent Life Insurance", "0.16", "0.16"], ["Accident Death&amp;Dismember", "3.00", "3.00"], ["CREDIT UNION", "100.00", "100.00"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Taxes", "524.33", "378.85"], ["Federal Income Tax", "214.52", "161.07"], ["Social Security", "182.22", "118.91"], ["Medicare", "42.62", "27.81"], ["CA Income Tax", "55.58", "51.88"], ["CA State Disability Ins", "29.39", "19.18"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Dependant Care - FSA GapSHR Ptax Mat", "272.73 309.92", "90.91 43.09"], ["TOTAL:", "582.65", ""], ["Fed Withholdng", "916.03", "130.85"], ["Fed MED/EE", "236.75", "31.84"], ["Fed OASDI/EE", "1,012.33", "136.18"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["BCC Medical B-Tax Deduction", "299.25", "15.75"], ["BCC Dental B-Tax Deduction", "103.74", "5.46"], ["BCC Vision B-Tax Deduction", "56.81", "2.99"], ["BCC Suppl Life B-Tax", "56.05", "2.95"], ["FRS Contribution", "928.11", "52.28"], ["BCC Child Dependent Life", "6.08", "0.32"], ["Fed Withholdng", "1,965.17", "116.76"], ["Fed MED/EE", "441.82", "24.91"], ["Fed OASDI/EE", "1,889.18", "106.53"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Federal Income Tax", "824.16", "84.44"], ["Total Tax Deductions:", "1,876.63", "205.21"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["ARIZONA STATE RETIREMENT - CERTIFIED", "6,206.72", "249.51"], ["PRE-TAX MEDICAL 20 DEDUCTIONS", "3,751.20", "262.20"], ["FLEX SPENDING - MEDICAL 20", "900.00", "50.00"], ["PRE-TAX DENTAL 20", "195.20", "12.20"], ["PRE-TAX VISION 20", "134.40", "8.40"], ["ARIZONA STATE RET - CERT LTD", "86.25", "3.55"], ["FICA-OASDI", "2,972.11", "108.93"], ["ADDITIONAL LIFE INSURANCE - 20 EMPLOYEE", "102.60", "17.10"], ["FICA-MEDICARE", "695.11", "25.48"], ["FEDERAL INCOME TAX", "3,151.78", "111.51"], ["STATE INCOME TAX", "751.14", "27.13"], ["DIRECT DEPOSIT - NET PAY", "33,971.92", "1,213.72"], ["ARIZONA STATE RETIREMENT - CERTIFIED", "6,206.72", "249.51"], ["WORKER'S COMPENSATION - LOW", "210.67", "9.4"], ["PRE-TAX MEDICAL 20 DEDUCTIONS", "3,182.40", "207.4"], ["ARIZONA STATE RET - CERT LTD", "86.25", "3.55"], ["FICA-OASDI", "2,972.11", "108.93"], ["DISTRICT PAID LIFE INSURANCE", "24.02", "1.23"], ["FICA-MEDICARE", "695.11", "25.48"], ["BENEFITS Total:", "13,377.28", "605.5"]]</t>
+  </si>
+  <si>
+    <t>The document provided does not contain an earnings table with the specified details. The text provided includes a deductions table, but it does not have columns for "type," "ytd_amount," "per_amount," "hours," or "rates." Therefore, I cannot output the requested earnings table based on the provided text.</t>
+  </si>
+  <si>
+    <t>```plaintext
+| type   | ytd_amount | per_amount | hours | rates |
+|--------|------------|------------|-------|-------|
+| Salary | 29254.98   | 0.00       | 0.00  | 0.00  |</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "2002", "580:00", "40.0", "14.5"], ["Weighted 1.5 OT", "373", "143:55", "6.6", "21.75"]]</t>
+  </si>
+  <si>
+    <t>```plaintext
+| type                | ytd_amount | per_amount | hours | rates |
+|---------------------|------------|------------|-------|-------|
+| Regular             | 20023.11   | 580.00     | 40.00 | 14.50 |
+| Weighted 1.5 OT     | 3731.96    | 143.55     | 6.60  | 21.75 |</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Pay", "54,577.12", "2,953.85", "80.0", "36.923125"], ["Salary &amp; Other Income", "58,661.58", "2,953.85", "80.0", "36.923125"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["401K MAT", "1,841.28", "205.01", "0.0", ""], ["DIRECT L", "61,297.76", "6,833.50", "158.0", "43.25"], ["LTD", "179.39", "16.25", "0.0", ""], ["PTO MEM", "0.00", "", "10.0", "0.0"], ["STD", "122.88", "11.25", "0.0", ""], ["Gross Earnings", "64,178.15", "6,861.00", "168.0", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Fed Withholdng", "5,178.04", "251.88"], ["Fed MED/EE", "792.68", "38.82"], ["Fed OASDI/EE", "3,389.38", "165.99"], ["MD Withholdng", "4,208.45", "205.96"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "78,293.20", "4,270.89", "70.5", "60.58"], ["PTO", "9,044.78", "575.51", "9.5", "60.58"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "", "4,275.20", "80", "53.44"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "56740.1", "3351.2", "80.0", "41.89"], ["Group Term Life", "36.21", "1.75", "", ""], ["MTAPDisc", "160", "16.0", "", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Earnings", "6,001.90", "2,638.80", "70.83", "0.0282366"], ["Stipend Exempt", "240.00", "240.00", "12", "20"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["ADDL ASST", "$8,084.13", "$660.00", "60:00", "11"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Fed MED/EE", "1,047.17", "49.31", "", ""], ["MD Withholdng", "3,510.75", "156.75", "", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "5,941.62", "1,168.00", "80.0", "14.6"], ["Overtime 1.5", "873.18", "613.64", "28.02", "14.6"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Reglr", "47,735.29", "2,237.71", "72.0", "31.0793"], ["Vacation", "2,727.49", "248.63", "8.0", "31.0793"], ["Gross Pay", "57,955.71", "2,486.34", "", ""], ["FED Withholding Tax", "4,337.19", "166.59", "", ""], ["FED EE Social Security Ta", "3,247.47", "137.90", "", ""], ["FED EE Medicare Tax", "759.49", "32.25", "", ""], ["MI Withholding Tax", "1,972.01", "83.57", "", ""], ["Total Tax Deductions", "10,316.16", "420.31", "", ""], ["Accident Insurance", "50.96", "3.64", "", ""], ["BSIP Pre-tax EE", "5,795.51", "248.63", "", ""], ["HSA - Bosch Choice EE", "1,776.24", "70.83", "", ""], ["Medical Insurance", "3,460.00", "173.00", "", ""], ["Dental Insurance", "299.00", "14.95", "", ""], ["Vision Insurance", "173.54", "8.86", "", ""], ["Total Pre-tax Deductions", "11,555.25", "519.91", "", ""], ["Life Insurance - EE", "488.30", "26.65", "", "Post"], ["Dependent Life", "91.56", "4.65", "", ""], ["Total Post-tax Deductions", "579.86", "31.30", "", ""], ["Net Pay", "", "1,514.82", "", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "hours", "per_amount", "hours_value", "per_amount_value", "rates"], ["Holiday (field 3)", "Hours: 40.00", "$ 1,075.00", "40", "1", "0.025"], ["Sick (field 3)", "Hours: 8.00", "$ 215.00", "8", "215", "26.875"], ["Vacation (field 3)", "Hours: 104.00", "$ 2,795.00", "104", "2", "0.0192308"]]</t>
+  </si>
+  <si>
+    <t>```plaintext
+| type     | ytd_amount | per_amount | hours | rates      |
+|----------|------------|------------|-------|------------|
+| Regular  |            | $2,150.00  | 80.00 | $2,150.0000|</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Salary", "43732.9", "1155.1", "0.0", "0"], ["Bonus Pay", "812.49", "", "", "0"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "", "2,407.52", "", ""], ["Regular", "", "-662.07", "-22.00", "30.093976"], ["Paid Time Off Scheduled", "", "421.32", "14.00", "30.093976"], ["Paid Time Off Unscheduled", "", "240.75", "8.00", "30.093976"]]</t>
+  </si>
+  <si>
+    <t>Therefore, based on the provided text, it is not possible to generate the requested earnings table with the specified headers.</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Hours", "", "1040", "40", "26"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Hourly Rat", "11,187.94", "708.9", "39.383", "18.00015234999873"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Salary Hol", "37,238.40", "1,861.92", "", ""], ["#ExpRpt", "236.16", "", "", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Actual Earnings", "$100,260.00", "$11,140.00"], ["Flex Credits", "$829.44", "$92.16"], ["Total", "$115,471.12", "$11,232.16"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["H2015 1", "$612.50", "50", "$12.25", "$12.25"], ["T1005 1", "$245.00", "20", "$12.25", "$12.25"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Personal Emergency Salary", "0.00", "0.00", "4.0", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Hourly", "40,845.99", "1,759.25", "75.6667", "23.25"], ["Other Plus", "43.79", "41.46", "1.7833", "23.25"], ["PTO", "191.82", "17.44", "0.75", "23.25"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "", "3,138.40", "80", "39.23"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Actual Earnings", "$149,445.00", "$16,605.00"], ["PE Monthly Supplement", "$1,350.00", "$150.00"], ["Flex Credits", "$2,668.23", "$303.65"], ["Total", "$232,455.66", "$17,058.65"]]</t>
+  </si>
+  <si>
+    <t>```plaintext
+| type                   | ytd_amount | per_amount | hours | rates     |
+|------------------------|------------|------------|-------|-----------|
+| Overtime Pay           | 494.76     | 3.95       | 0.17  | 23.250000 |
+| Regular Pay            | 21,287.90  | 746.64     | 48.17 | 15.500000 |
+| Vacation               | 1,192.78   | 124.00     | 8.00  | 15.500000 |</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Overtime Pay", "490.81", "174.38", "7.50", "23.25"], ["Regular Pay", "20,541.26", "818.56", "52.81", "15.5"], ["Sicl", "666.42", "", "372.00", "24.00"], ["TOTAL:", "24,378.55", "1,367.11", "84.31", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Commissions", "14,934.77", "1,287.00"], ["MBO", "609.00", "609.00"], ["FLSA True Up", "505.81", "27.08"], ["FLSA True Up", "", "23.09"], ["FLSA True Up 08/25/2019-08/31/2019", "", "13.00"], ["FLSA True Up 08/18/2019-08/24/2019", "", "4.63"], ["FLSA True Up", "", "0.87"], ["FLSA True Up", "", "1.06"], ["Regular Pay", "25,189.32", ""], ["OT PAID @ 1.5", "2,143.23", ""], ["Holiday", "786.18", ""], ["Holiday Worked Premium - 150%", "12.66", ""], ["Holiday Worked (@) 0.50", "113.62", ""], ["Salary Plus", "307.02", ""], ["Personal Leave", "626.79", ""], ["RSU Award", "1.439.82", ""], ["Sick Pay", "350.21", ""], ["Sunday Worked Premium - 35%", "635.76", ""], ["Vacation", "1,299.15", ""], ["Total:", "48,953.34", "1.965.73"]]</t>
+  </si>
+  <si>
+    <t>```plaintext
+| type         | ytd_amount | per_amount | hours  | rates |
+|--------------|------------|------------|--------|-------|
+| REGULAR      |            | 2,121.95   | 192.49 |       |
+| DELARED TIPS |            | 435.88     |        |       |
+| OVERTIME     |            | 226.80     | 12.60  |       |</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["RegErn", "11624.1", "560.0", "40.0", "14.0"], ["Swap", "2437.82", "201.18", "14.37", "14.0"], ["OVT", "2930.13", "4.62", "0.22", "21.0"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["RegErn", "12858.3", "394.52", "28.18", "14.0"], ["Swap", "2823.24", "294.42", "21.03", "14.0"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["RegErn", "12463.8", "468.72", "33.48", "14.0"], ["Swap", "2528.82", "91.0", "6.5", "14.0"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "37,912.76", "40", "10/05/19", "18.28"], ["Regular", "37,912.76", "40", "10/12/19", "18.28"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "1877.82", "153.24", "", "18.28"], ["Regular", "2350.6", "145.07", "", "18.28"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Overtime Prem", "2258.47", "83.02", "9.25", "8.98"], ["Paid Time Off", "1795.00", "58.34", "3.25", "17.95"], ["Total Earnings", "34588 .21", "1519.02", "", ""], ["Federal Income", "3763.98", "152.59", "", ""], ["State Income", "1870.53", "76.17", "", ""], ["Soc Sec Tax", "2113.38", "92.70", "", ""], ["Medicare Tax", "494.26", "21.68", "", ""], ["Total Taxes", "8242 15", "343 14", "", ""], ["401 (k)", "345.87", "15.19", "", ""], ["Dental", "501.48", "23.88", "", ""], ["Other Deducts", "190.00", "9.50", "", ""], ["Total: Deduct's:", "1037 35", "48 .57", "", ""], ["Reimbursements Mileage", "70.00", "50.00", "", ""], ["Total Reimbs:", "", "50.00", "", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["REGULAR", "19237.3", "992.42", "76.34", "13.0"], ["OT PREM", "43.74", "9.07", "19.3", "0.47"], ["GROSS EARNINGS", "24621.5", "1190.67", "", ""], ["TAXABLE GROSS", "24621.5", "1190.67", "", ""], ["FWT TAXABLE EARNINGS", "23729.3", "1143.04", "", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Pay", "13,129.38", "872.22", "77.53", "11.25"], ["Holiday Worked", "291.18", "153.95", "9.12", "16.88"], ["Overtime Premium", "516.16", "15.93", "2.83", "5.63"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["WORK HOURS", "584.04", "584.04", "27.51", "21.23"], ["SICK LEAVE", "42.46", "42.46", "2.0", "21.23"], ["NON-SCHEDULED CROSS-FOOT", ".00", ".00", "10.49", "21.23"], ["WORK HOURS", "849.20", "849.20", "40.0", "21.23"], ["OVERTIME HOURS", "43.48", "43.48", "1.42", "21.23"]]</t>
+  </si>
+  <si>
+    <t>[["type", "per_amount", "hours", "rates"], ["WORK HOURS", "364.73", "17.18", "21.23"], ["ANNUAL LEAVE", "21.23", "1", "21.23"], ["SICK LEAVE", "42.46", "2", "21.23"], ["WORK HOURS", "504.64", "23.77", "21.23"], ["NON-SCHEDULED CROSS-FOOT", "0", "19.82", "21.23"], ["NON-SCHEDULED CROSS-FOOT", "0", "16.23", "21.23"]]</t>
+  </si>
+  <si>
+    <t>Unfortunately, the document does not contain specific data for each of these columns. If you have more detailed information or another section of the document that includes this data, please provide it so I can create a more accurate table.</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Wages - Hourly", "$19,672.16", "$864.63", "66.51", "$13.00"], ["Total", "$24.309.64", "$989.63", "", ""], ["Social Security Employee", "$1.507.20", "$61.36", "", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["REG HR", "28139", "1346.4", "72.0", "72.0"], ["SICK", "1414.55", "149.6", "8.0", "8.0"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "rates"], ["Reg", "229.30 127.44 16.56", "18"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Reg", "7515", "702.0", "39.0", "18.0"], ["Sick", "229.5", "18.0", "1.0", "18.0"], ["Total Gross Pay", "7888.5", "720.0", "40.0", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["WAGES", "5,111.76", "1,703.92", "0", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["ACC BL DENTAL", "", "531.60", "30.00", "17.72"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Charter Prime", "288.6", "", "0.00 0.00", ""], ["Dry Run", "158.77", "", "0.00 0.00", ""], ["Home to Schl Hrs", "1899.06", "", "15.25 11.50 175.40", ""], ["Safety Acc Mtg Hrs", "194.44", "0.00 0.00", "", ""], ["Trainer Hours", "829.63", "0.00 0.00", "", ""], ["Sign On Bonus", "1000.0", "0.00 0.00", "", ""], ["Gross Pay", "4370.5", "175.40", "", ""], ["Federal Tax", "407.62", "10.23", "", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "rates"], ["CLOTH ALLOW -VETERANS 180", "180.00", "180.0", "180.0"], ["COMPENSATION TIME USAGE", "53.09", "9.06", "18.12"], ["DIRECT CARE DIFFERENTIAL", "190.00", "10.0", "5.0"], ["INSTITUTION WKEND DIFFERENTIAL", "415.32", "18.08", "1.0"], ["OVERTIME FT 1.5", "2,395.97", "36.24", "18.12"], ["OVERTIME PREMIUM", "795.20", "9.98", "9.24"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Total Gross", "$32,673.50", "$1,703.90", "101.16", "0.009885330170027679"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Pay", "5,811.15", "893.7", "59.58", "15.0"], ["Reimbursement", "350.00", "50", ":", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "21,139.05", "1,299.60", "70.0", "18.57"], ["Standard Overtime", "187.18", "4.64", "0.25", "18.57"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "22,438.65", "1,299.60", "70.00", "18.57"], ["Standard Overtime", "191.82", "4.64", "0.25", "18.57"], ["18.57", "905.16", "", "1,304.24", "399.08"], ["PAY RATE", "NET PAY", "", "CURRENT EARNINGS", "CURRENT DED"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Overtime", "3,397.80", "196.71", "8:26", "23.33"], ["Regular", "22,182.22", "1,313.98", "84:30", "15.55"], ["Gross Pay", "28,770.69", "1,510.69", "", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["REGULAR", "2,901.30", "2,901.30", "76.35", "38.0"], ["OVERTIME", "1,310.50", "1,310.50", "22.16", "42.276062"], ["SHIFT 3", "369.41", "369.41", "98.51", ""], ["WKEND DIFF", "64.88", "64.88", "40.55", ""], ["Orienta SHIFT 2 Total:", "4,646.09", "4,646.09", "237.57", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Hourly", "12,144.00", "1,760.00", "80", "22"], ["O/T Hrs", "264.00", "264.00", "8", "33"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Earnings", "Year to Date", "Amount", "Hrs", "Rate"], ["Regular", "23,257.09", "1,320.33", "80.02", "16.50"], ["OT 1.5 W1", "1,382.70", "189.34", "7.65", "24.75"], ["Shift Diff", "1.86", "0.08", "0.10", "0.75"], ["OT 1.5 W2", "1,496.47", "292.79", "11.83", "24.75"], ["Totals", "27,889.00", "1,802.54", "", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["REGULAR EARNING", "$16,693.36", "$937.60", "80.0", "$11.7200"], ["OVERTIME EARN", "$2,649.62", "$154.88", "8.81", "$17.5800"], ["PROT PTO USED", "$317.02", "$5.86", "0.5", "$11.7200"], ["WRKDHRS", "", "", "88.81", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["REGULAR EARNING", "$17,799.13", "$967.20", "80.0", "$12.0900"], ["OVERTIME EARN", "$4,171.46", "$258.42", "14.25", "$18.1350"], ["PROT PTO USED", "$422.55", "$54.41", "4.5", "$12.0900"], ["WRKDHRS", "", "", "94.25", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "1638.77", "284.63", "24.75", "11.5"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["", "", "413.32", "16.87", "24.5"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "30270.3", "1281.73", "62", "20.6731"], ["Paid Time off", "1014.41", "372.12", "18", "20.6733"], ["B-Bonus Other", "1395.18", "0", "0", "0"], ["Overtime Premium", "816.59", "0", "0", "0"], ["Holiday", "945.67", "0", "0", "0"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Trip Pay", "", "immoname 739.30", "2.00", "369.6500"], ["Trip Pay", "4,294.19", "739.30", "1.00", "739.3000"], ["Trip Pay", "2,033.15", "202.86", "1.00", "202.8600"], ["Overtime", "1,606.84", "16.95", "1.00", "16.9500"], ["Misc. Other Pay", "475.49", "492.96", "", ""], ["Extra Board Guarantee", "", "618.30", "", ""], ["Meals - Non Taxable", "", "16.00", "", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Trip Pay", "4,294.19", "Emmaram 739.30", "1.0", "739.3"], ["Trip Pay", "2,033.15", "202.86", "1.0", "202.86"], ["Overtime", "1,606.84", "16.95", "1.0", "16.95"], ["Misc. Other Pay", "475.49", "492.96", "", ""], ["Extra Board Guarantee", "", "618.30", "", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["ular Pay", "10,725.00", "425", "17", "25"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Voucher 18", "$493.00", "$441.35", "24.65", "$43.00"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "39,932.70", "2,437.88", "", ""], ["DOE Summer Salary", "9,669.24", "", "0.00", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Base Pay - Non Exempt", "37,828.58", "1,954.47", "71.75 5", "27.24"], ["Meal Sanction Earnings", "159.24", "27.24", "1.00", "27.24"], ["Overtime Pay", "231.04", "6.81", "0.25", "27.24"], ["Overtime Premium Pay", "115.58", "3.41", "0.25", "13.62"], ["", "43.072.86", "1.991.93", "", "Total"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "15,803.44", "1,064.00", "56", "19.0"], ["Regular", "15,803.44", "456.00", "24", "19.0"], ["Total Gross Pay", "15,860.44", "1,520.00", "80", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["REGULAR", "33.664.06", "1.730.80", "40.0", "43.27"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["HOURLY", "43394.3", "2250", "72", "31.25"]]</t>
   </si>
   <si>
     <t>ERROR</t>
   </si>
   <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Fed (M/0) (723.55)", "1671:27", "52.13"], ["OASDI (723.55)", "1539,17", "44.86"], ["Medicare (723.55)", "359,96", "10.49"], ["ME (M/0) (723.55)", "536:00", "18.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Fed Tax Withheld - Claiming M-1", "5,663.73", "237.7"], ["Social Security (2019 Limit = $8,239.80)", "3,703.57", "170.51"], ["Medicare (No Dollar Limit)", "866.16", "39.88"], ["MD Withholdng - Claiming M-0", "4,441.05", "204.14"], ["MetLaw", "145.4", "7.27"], ["Pet Insurance", "518.7", "35.71"], ["401K Loan1 Plan 3.5", "700.4", "35.02"], ["401K Loan2 Plan 3.5", "320.2", "16.01"], ["Supplemental Life", "195.62", "9.85"], ["Dep Life - Spouse", "39.4", "1.97"], ["Dep Life - Child", "20.6", "1.03"], ["LTD", "146.12", "7.36"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["DENTAL PRETAX", "105.00", "15.0"], ["HSA", "1,000.00", "100.0"], ["LTD", "179.39", "16.25"], ["MEDICAL INS", "675.00", "75.0"], ["STD", "122.88", "11.25"], ["Deductions", "2,082.27", "217.5"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount"], ["DC Basic Life 3.03", "60.75"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["401K EE Contribution", "5,005.33 2", "256.85"], ["401K Loan", "1,657.32", "78.92"], ["GTL Automated", "158.39", "8.39"], ["LTDTXBL", "224.49", "11.63"], ["STDTXBL", "187.16", "9.7"], ["None", "3,847.69", "365.49"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Federal Taxes", "10,990.03", "517.36"], ["Health Benefits - Pretax", "2,630.74", "138.46"], ["TSP Tax Deferred", "400.00", "40.0"], ["Retirement - FERS", "711.04", "34.2"], ["Medicare Tax", "1,247.99", "59.01"], ["FEGLI - Optional", "6.30", "0.3"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Federal", "7978.09", "326.05"], ["Medicare", "987.56", "43.48"], ["Soc Sec", "4222.67", "185.9"], ["MD W/H", "4293.15", "183.89"], ["CPass", "640.0", "64.0"], ["VOL-ACC", "291.06", "13.86"], ["VOL-HOSP", "624.96", "29.76"], ["Dental", "446.46", "21.52"], ["H-Gold", "4864.0", "241.4"], ["EmpReimb", "-357.18", "None"], ["SuppLife", "240.66", "11.46"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["BTU Teachers Dues", "95.66", "47.83"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["UHC HMO-Choice Plan", "10,105.10", "509.44"], ["DC CIGNA Family", "211.68", "11.76"], ["DC Quality Family", "60.66", "3.37"], ["Union EAP", "161.60", "8.08"], ["Union Robert A Ades Legal Ded", "240.60", "12.03"], ["DC Basic Life", "37.98", "1.99"], ["Medical Admin Fee", "458.00", "22.90"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["OASDI", "423.60", "110.46"], ["Medicare", "99.07", "25.84"], ["Federal Withholding", "553.57", "169.41"], ["State Tax - MI", "247.23", "68.53"], ["City Tax - DTRT", "160.65", "42.21"], ["Dues - Teamsters", "126.00", "44.00"], ["Shoe Deduction", "156.35", "92.75"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["FED Withholding Tax", "4,337.19", "166.59"], ["FED EE Medicare Tax", "759.49", "32.25"], ["MI Withholding Tax", "1,972.01", "83.57"], ["Total Tax Deductions", "10,316.16", "420.31"], ["BSIP Pre-tax EE", "5,795.51", "248.63"], ["Total Pre-tax Deductions", "11,555.25", "519.91"], ["Dependent Life", "91.56", "4.65"], ["Total Post-tax Deductions", "579.86", "31.30"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["BCBSM Comm. Blue PPO", "1,341.00", "74.5"], ["Dental Option III", "416.52", "23.14"], ["Vision", "117.72", "6.54"], ["Retirement", "2,116.23", "108.34"], ["Tiaa-Cref Sra", "1,500.00", "75.0"], ["Health Care Reimbursement", "1,987.51", "110.41"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Net Pay:", "None", "$ 160.72"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["FICA Tax", "322.4", "64.48"], ["FICA Med", "75.4", "15.08"], ["Federal Tax", "256.7", "51.34"], ["State Tax - MICHIGAN", "149.1", "29.82"], ["Total Taxes withheld", "803.6", "160.72"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["401(k) Employee", "300.0", "25.0"], ["Employee Medicare", "176.7", "10.28"], ["MI State Withholding", "364.58", "25.8"], ["Federal WH", "575.95", "59.88"], ["Employee OASDI", "755.52", "43.95"], ["DetR", "273.33", "16.14"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["403B", "1,489.60", "74.48"], ["403B LN 1", "86.75", "None"], ["403B LN 2", "261.25", "13.75"], ["403BMatch", "744.80", "37.24"], ["Dental", "100.00", "5.0"], ["Medical", "600.00", "30.0"], ["FITWH", "3,825.44", "194.09"], ["MED", "529.80", "26.49"], ["SOC", "2,265.40", "113.27"], ["MI", "1,489.60", "74.48"], ["MIDETR", "840.08", "42.06"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Health Savings Account", "$1,800.00", "$200.00"], ["Flex Deducts", "$3,142.62", "$349.18"], ["Total", "$4,942.62", "$549.18"], ["Savings - Loan 1", "$1,058.85", "$117.65"], ["Savings - Loan 2", "$2,019.51", "$224.39"], ["Savings - Loan 3", "$106.52", "$26.63"], ["Lease Vehicle Rent", "$5,204.32", "$619.32"], ["Lease Vehicle Insurance", "$1,297.34", "$140.00"], ["Total", "$9,686.54", "$1,127.99"], ["Net Pay", "$70,075.50", "$6,740.84"], ["Federal Withholding Tax", "$17,220.94", "$1,582.46"], ["Social Security", "$6,852.77", "$668.15"], ["Medicare Withholding Tax", "$1,602.66", "$156.26"], ["Michigan", "$4,248.41", "$407.28"], ["Total", "$29,924.78", "$2,814.15"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["CODE", "YTD", "WITHHELD"], ["FICA", "$1,284.64", "$65.59"], ["Med.", "$243.49", "$12.43"], ["SS", "$1,041.15", "$53.16"], ["State", "$161.76", "$10.29"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Delta Dental Core", "105.29", "5.29"], ["HAP", "713.86", "47.02"], ["Heritage Vision Coret", "59.61", "3.93"], ["Pension Plus - Savings", "660.05", "33.77"], ["Personal Health Fund", "660.05", "33.77"], ["Pension Plus 2 - PHF", "2,045.98", "104.68"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["401k", "677.17", "None"], ["401kLoan", "518.40", "259.20"], ["BE REPAY", "3,506.53", "None"], ["FITWH", "2,499.04", "64.01"], ["Health", "1,639.47", "78.07"], ["MED", "571.91", "25.23"], ["MI", "1,647.52", "73.95"], ["SOC", "2,445.42", "107.89"], ["Total", "$6,341.57", "$337.27"], ["Total", "$7,163.89", "$271.08"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Federal Taxes", "4,875.33", "188.46"], ["Local Taxes ( PONTIAC )", "591.85", "26.96"], ["Dental/Vision", "1,041.74", "52.1"], ["Retirement - FERS", "501.68", "25.11"], ["Medicare Tax", "879.50", "42.27"], ["Union Dues", "300.00", "15.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Roth - 401K", "$4,055.50", "$70.30"], ["Aftertax Savings", "$2,988.90", "$498.15"], ["Roth - 401K CatchUp", "$427.85", "$427.85"], ["Charity Flat Amount", "$225.00", "$25.00"], ["Savings - Loan 1", "$3,213.02", "$244.59"], ["Savings - Loan 2", "$2,144.63", "$216.25"], ["Savings - Loan 3", "$1,927.63", "$206.94"], ["Savings - Loan 4", "$2,113.82", "$332.62"], ["Dependent Group Life", "$32.31", "$3.59"], ["Savings - 401K", "$14,944.50", "$1,660.50"], ["Health Savings Account", "$2,250.00", "$250.00"], ["Flex Deducts", "$2,641.77", "$300.71"], ["Total", "$19,836.27", "$2,211.21"], ["Federal Withholding Tax", "$33,607.05", "$1,902.25"], ["Medicare Withholding Tax", "$3,305.53", "$245.89"], ["Additional Medicare EE", "$251.71", "$152.62"], ["Michigan", "$9,005.61", "$646.74"], ["Total", "$54,409.70", "$2,947.50"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Employee Assistance Program", "17.16", "0.78"], ["Basic AD&amp;D", "3.06", "0.15"], ["Basic Life", "16.26", "0.81"], ["Basic LTD", "58.92", "2.93"], ["Basic Short Term Disability", "187.15", "9.3"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Employee Assistance Program", "16.38", "0.78"], ["Basic AD&amp;D", "2.91", "0.15"], ["Basic Life", "15.45", "0.81"], ["Basic LTD", "55.99", "2.93"], ["Basic Short Term Disability", "177.85", "9.3"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Fed MED/EE", "701.23", "28.51"], ["Fed OASDI/EE", "2,998.35", "121.88"], ["MN Withholdng", "2,152.86", "110.57"]]</t>
-  </si>
-  <si>
-    <t>[["type", "per_amount"], ["Title", "Dollars"], ["Title", "Dollars"], ["SOC SEC EE", "172.65"], ["MED EE", "40.38"], ["Title", "Dollars"], ["FEDERAL WH", "271.67"], ["MINNESOTA WH", "141.52"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["FIT", "1681.59", "69.70"], ["SS-EE", "1093.40", "47.48"], ["MED-EE", "255.71", "11.10"], ["State", "975.16", "42.07"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["FIT", "1809.37", "60.48"], ["SS-EE", "1193.82", "42.71"], ["MED-EE", "279.20", "9.99"], ["State 34.61", "1054.69", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["FIT", "1748.89", "44.97"], ["SS-EE", "1151.11", "34.71"], ["MED-EE", "269.21", "8.12"], ["State", "1020.08", "27.54"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Federal W/H", "1,877.82", "153.24"], ["FICA", "2,350.60", "145.07"], ["Medicare", "549.75", "33.93"], ["MNW/H", "1,083.00", "81.0"], ["Total", "5,861.17", "413.24"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Federal W/H", "1877.82", "153.24"], ["FICA", "2350.6", "145.07"], ["Medicare", "549.75", "33.93"], ["MN W/H", "1083.0", "81.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Soc Sec Tax", "2113.38", "92.70"], ["Medicare Tax", "494.26", "21.68"], ["Total Taxes", "8242 15", "343 14"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["FED W/H", "1504.04", "73.4"], ["MEDICARE", "357.01", "17.26"], ["MNW/H", "800.93", "38.72"], ["SOC SEC", "1526.53", "73.82"], ["TOTAL TAXES", "4188.51", "203.2"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["W/H EE", "1,379.58", "100.05"], ["FSOC", "906.54", "64.61"], ["FMED", "212.01", "15.11"], ["W/H EE", "634.00", "46.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Retirement: FERS - Ret-FICA Code E", "1,298.21", "64.93"], ["Social Security", "see YTD below", "82.45"], ["Medicare", "see YTD below", "19.28"], ["Federal Tax: S 02", "1,652.13", "90.53"], ["Health Plan Pre-tax: (Self + 1) 476 A PW U Health Plan", "3,005.87", "143.89"], ["State Income Tax: NE S 02", "759.19", "41.39"], ["FEDVIP Dental Pre Tax", "729.79", "34.65"], ["FEDVIP Vision Pre Tax", "227.13", "10.79"], ["Social Security (deducted on Ins Income)", "1,597.17", ".09"], ["Medicare (deducted on Ins Income)", "373.53", ".02"], ["Thrift Savings Plan (TSP): 3% - (Regular)", "885.14", "44.27"], ["Military Buy Back (MBB)", "400.00", "100.00"], ["Union Dues: W", "378.42", "18.02"], ["Total Deductions :", "$ 11,306.58", "$ 650.31 $ 868.87"], ["Net Pay (Net To Bank):", "$ 18,386.80", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Retirement: FERS - Ret-FICA Code E", "1,233.28", "41.05"], ["Social Security", "see YTD below", "46.11"], ["Medicare", "see YTD below", "10.79"], ["Federal Tax: S 02", "1,561.60", "24.67"], ["Health Plan Pre-tax: (Self + 1) 476 A P W U Health Plan", "2,861.98", "143.89"], ["State Income Tax: NE S 02", "717.80", "13.58"], ["FEDVIP Dental Pre Tax", "695.14", "34.65"], ["FEDVIP Vision Pre Tax", "216.34", "10.79"], ["Social Security (deducted on Ins Income)", "1,514.63", ".10"], ["Medicare (deducted on Ins Income)", "354.23", ".02"], ["Thrift Savings Plan (TSP): 3% - (Regular)", "840.87", "27.99"], ["Military Buy Back (MBB)", "300.00", "100.00"], ["Union Dues: W", "360.40", "18.02"], ["Total Deductions :", "$ 10,656.27", "$ 471.66"], ["Net Pay (Net To Bank):", "$ 17,517.93", "$ 461.40"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Social Security Employee", "$1.507.20", "$61.36"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["FICA", "1871.19", "88.31"], ["MEDICARE", "437.6", "20.65"], ["125 MED", "557.88", "38.47"], ["FED", "2426.72", "113.98"], ["EMP RET", "2190.74", "104.72"], ["MED", "502.97", "31.13"], ["VIS 26 SINGL", "55.12", "1.98"], ["LIFE", "19.32", "0.92"], ["TMS DUES", "551.5", "29.5"], ["DIR DEPOSIT", "22683.36", "1066.34"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["DPW Heath/Dental", "", "47.63"], ["Total Deductions", "", "47.63"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["DPW Heath/Dental", "666.82", "47.63"], ["Total Deductions", "666.82", "47.63"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["DEDUCTIONS", "607.34", "227.46"], ["TAXES", "859.86", "286.62"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Federal W/H", "None", "1,461.56"], ["FICA/MEDI", "None", "1,088.04"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Social Security", "10.87", "270.97"], ["Medicare", "2.54", "63.37"], ["Total Tax Deductions", "23.64", "741.96"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["EE $5K TERM", "1.26", "0.06"], ["EE $20K OR $25 AD&amp;D", "4.41", "0.21"], ["SP $25-$100K SUPP", "22.26", "1.06"], ["CHILD $3K TERM", "4.41", "0.21"], ["SEA FULL DUES", "342.03", "17.37"], ["TOTALS", "374.37", "18.91"], ["BN-HMO EE PRETAX", "1,260.00", "60.0"], ["BN-DENTAL EE PRETAX", "126.00", "6.0"], ["BN-NH RETIREMENT SYSTEM-EE", "2,251.15", "106.67"], ["TOTALS", "3,637.15", "172.67"], ["FD FEDERAL INCOME TAX", "178.09", "38.07"], ["FD SOC SEC EE", "1,939.83", "101.55"], ["FD MEDICARE EE", "453.67", "23.75"], ["TOTALS", "2,571.59", "163.37"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Federal Income Tax", "528.12", "82.24"], ["Social Security", "377.07", "55.4"], ["Medicare", "88.19", "12.96"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Federal Tax", "2,218.61", "113.02"], ["Medicare Tax", "357.13", "18.21"], ["New Jersey Family Leave Insurance Tax", "20.47", "1.04"], ["NJ Tax", "434.92", "22.24"], ["Social Security Tax", "1,526.98", "77.88"], ["SUI Tax", "108.74", "5.54"], ["Dental Premium", "92.40", "4.62"], ["Group Insurance", "131.27", "7.07"], ["Medical Premium", "779.0", "38.95"], ["Pension", "1,968.4", "106.0"], ["Vision Premium", "", "4.5"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Federal Tax", "2,331.63", "113.02"], ["Medicare Tax", "375.34", "18.21"], ["New Jersey Family Leave Insurance Tax", "21.51", "1.04"], ["NJ Tax", "457.16", "22.24"], ["Social Security Tax", "1,604.87", "77.89"], ["SUI Tax", "114.28", "5.54"], ["Dental Premium", "97.02", "4.62"], ["Group Insurance", "138.34", "7.07"], ["Medical Premium", "817.95", "38.95"], ["Pension", "2,074.46", "106.00"], ["Vision Premium", "94.50", "4.50"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["HSA Pre Tax Individual", "192.40", "9.62"], ["Health_Omnia_HSA_7", "1,521.80 1", "76.09"], ["Vision", "65.40 1", "3.27"], ["Total", "1,779,60", "88.98"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["403b", "318.42", "139.38"], ["Total :", "318.42", "139.38"], ["Fed Withholdng", "1,488.52", "573.05"], ["Fed MED/EE", "214.12", "67.37"], ["Fed OASDI/EE", "915.55", "288.06"], ["NJ TDB", "25.10", "7.89"], ["NJ Unempl EE", "56.48", "17.77"], ["NJ NJ WDPF", "3.69", "1.16"], ["NJ NJ SWAF", "2.58", "0.81"], ["NJ FLI/EE", "11.81", "3.71"], ["NJ Withholdng", "381.10", "166.10"], ["Total:", "3,098.95", "1,125.92"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["SOC SEC EE", "769.3", "125.49"], ["|MED EE", "179.92", "29.35"], ["FEDERAL WH", "846.45", "154.11"], ["NEW JERSEY WH", "214.8", "36.3"], ["NEW JERSEY SDI E", "21.09", "3.44"], ["NEW JERSEY SUI E", "52.73", "8.6"], ["NEW JERSEY EMPL", "9.93", "1.62"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Vision Insurance", "191.73", "9.13"], ["Dental", "1,257.90", "59.9"], ["Medical", "2,546.04", "121.24"], ["Totals:", "3,995.67", "190.27"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["FEDERAL TAX", "$1,909.12", "$101.88"], ["SOCIAL SECURITY", "$1,244.76", "$65.56"], ["MEDICARE", "$291.11", "$15.33"], ["WISCONSIN", "$825.61", "$44.70"], ["Total", "$4,270.60", "$227.47"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["INS AD&amp;D U \u00b7", "$23.91", "$1.24"], ["CRITICAL ILL *", "$106.07", "$5.50"], ["Total", "$129.98", "$6.74"], ["FEDERAL TAX", "$2,288.47", "$127.79"], ["SOCIAL SECURITY", "$1,440.76", "$78.94"], ["MEDICARE", "$336.95", "$18.46"], ["WISCONSIN", "$1,041.74", "$59.86"], ["Total", "$5,107.92", "$285.05"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Net Pay", "261.15", "1503.41"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["GROSS", " ", ""], ["FWH", " ", ""]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Delta Dental", "170.35", "8.08"], ["Medical Insurance Employee", "975.27", "46.57"], ["VSP Vision", "86.02", "4.08"]]</t>
-  </si>
-  <si>
-    <t>[["type", "per_amount", "ytd_amount"], ["Withholding Tax", "392.23", "4,294.19"], ["EE Railroad Rtmt Tier1", "174.20", "2,033.15"], ["EE Railroad Rtmt Tier2", "137.67", "1,606.84"], ["EE Medicare Tax", "40.74", "475.49"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Withholding Tax", "4,294.19", "392.23"], ["EE Railroad Rtmt Tier1", "2,033.15", "174.2"], ["EE Railroad Rtmt Tier2", "1,606.84", "137.67"], ["EE Medicare Tax", "475.49", "40.74"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Taxes", "$2,279.23", "$78.34"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Reg Retir hire before 7/1/2012", "2,774.21", "146.27"], ["Statutory Dues HSTA", "654.43", "35.41"], ["TOTAL TAXES", "7,369.73", "385.82"], ["TOTAL DEDUCTIONS", "3,428.64", "181.68"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["403(b) Fidelity Employee Pre-tax Match Contribution", "2,153.73", "99.60"], ["403(b) Fidelity Employee Supplemental Contribution", "1,050.00", "50.00"], ["403(b) Vanguard Employee Supplemental Contribution", "1,050.00", "50.00"], ["Dental-Delta Dental-Employee Contribution", "910.00", "45.50"], ["Flexible Spending Account - Dependent", "1,615.32", "76.92"], ["Flexible Spending Account - Health", "1,211.49", "57.69"], ["Health Assessment Credit", "(400.00)", "(20.00)"], ["Medical-USC Trojan Care EPO-Employee Contribution", "3,820.00", "191.00"], ["Tobacco Free Incentive", "(250.00)", "(12.50)"], ["USC Supplemental Disability", "110.90", "5.98"], ["OASDI", "2,199.51", "100.43"], ["Medicare", "514.40", "23.49"], ["Federal", "213.42", "Withholding"], ["|State", "225.83", "Tax - CA 4.81"], ["Total:", "3.153.16", "128.73"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["FITW", "1,202.95", "118.63"], ["MED", "229.98", "22.04"], ["SS", "983.35", "94.24"], ["Total Tax Withholding", "2,416.28", "234.91"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["No Deductions", "None", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["DIR DEP NET", "37070.12", "1666.75"], ["AD&amp;D", "3.6", "0.18"], ["FEDERAL WH TAX", "4083.83", "184.42"], ["FICA MEDICARE TX", "689.18", "32.63"], ["FICA SOC SEC TAX", "2946.86", "139.5"], ["LONG TERM DIS", "32.4", "1.62"], ["SHORT TERM DIS", "61.4", "3.07"], ["401K LOAN SLS", "699.87", "86.83"], ["401K SLS", "1934.13", "135.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Federal W/H(S/0)", "1068.39", "97.09"], ["Medicare", "159.53", "15.54"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["BlueOptions 5192/5193", "756.00", "36.0"], ["Signature BlueDentalChoice", "346.92", "16.52"], ["401(k) up to 3%", "1,854.70|", "88.86"], ["401(k) over 3%", "1,854.91", "88.87"], ["HSA BO8 Family", "1,736.53|", "82.7"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Federal W/H", "181.8", "28.2"], ["FICA", "409.09", "51.58"], ["Medicare", "95.67", "12.06"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Federal Income Tax", "3,675.96", "213.02"], ["Social Security", "2,187.36", "124.0"], ["Medicare", "511.56", "29.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["OASDI - Social Security", "130.87", "18.83"], ["Medicare", "30.61", "4.41"], ["Federal Withholding", "82.25", "14.99"], ["State Tax - CA", "3.26", "0.52"], ["CA SDI - CASDI", "21.11", "3.04"], ["Associate Taxes", "268.1", "41.79"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Description", "", ""]]</t>
+    <t>```plaintext
+type                ytd_amount    per_amount    hours    rates
+Regular Pay         50,000.00     2,500.00      80       31.25
+Overtime Pay        5,000.00      500.00        10       50.00
+Holiday Pay         1,200.00      200.00        8        25.00</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Description", "YTD Hours Earnings", "YTD Hours Earnings", "Earnings", "Rate"], ["Regular Earnings", "58,161.14", "1,580.00", "2,962.12", "37.026395"], ["Emergency Pay", "296.21", "8.00", "0.00", ""], ["Corporate Holiday", "2,035.63", "56.00", "0.00", ""], ["Scheduled Paid Time Off", "1,332.95", "36.00", "0.00", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "rates"], ["10/17/19 Regular", "16"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Pay", "35,280.00", "2,000.00", "80", "25"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Hourly Earnings Training - Indirect", "2,002.86 107.96", "303.74", "22.17", "13.7 0"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["REGULAR HOURS", "44,515.54", "2,054.80", "65.80", "31.23"], ["OVERTIME AT 1.5", "4,842.06", "267.00", "5.70", "31.23"], ["VACATION USED", "3,322.65", "249.82", "8.00", "31.23"], ["LEAVE WITHOUT PAY", "", "", "6.20", "31.23"], ["TAXES", "", "", "570.07", "TOTAL:"], ["Fed Withholdng", "", "", "249.87", ""], ["Fed MED/EE", "", "", "36.95", ""], ["Fed OASDI/EE", "", "", "158.01", ""], ["CA Withholdng", "", "", "18 99.75", ""], ["CA OASDI/EE", "", "", "25.49", ""], ["BEFORE-TAX DEDUCTIONS", "", "", "242.57", "TOTAL:"], ["Retiree Med Liability Contrib", "", "", "12.50", ""], ["DC - EE Contrib", "", "", "51.43", ""], ["HEALTH FLEXIBLE SPENDING ACCT", "", "", "23.08", ""], ["PERS EE CONTRIB MiscNon-Clsc", "", "", "155.56", ""], ["AFTER-TAX DEDUCTIONS", "", "", "35.72", "TOTAL:"], ["FLEXIBLE SPENDING ACCOUNT FEE", "", "", "1.15", ""], ["DUES SEIU Local 521", "", "", "34.57", ""], ["EMPLOYER PAID BENEFITS", "", "", "1,628.55", "TOTAL:"], ["Fed Med/ER", "", "", "36.95", ""], ["Fed OASDI/ER", "", "", "158.01", ""], ["PERS UAL ER Misc Nontaxable", "", "", "293.43", ""], ["PERS PensObligBondPmtMisc", "", "", "24.13", ""], ["VALLEY HEALTH PLAN - HMO", "", "", "835.26", ""], ["DELTA DENTAL PLAN", "", "", "54.27", ""], ["VISION SERVICES PLAN", "", "", "4.59", ""], ["BASIC LIFE COVERAGE", "", "", "1.04", ""], ["PERS ER CONTRIB Misc NonCIssc", "", "", "220.87", ""]]</t>
   </si>
   <si>
     <t>[["type", "ytd_amount", "per_amount"], ["Fed Withholdng", "2,187.36", "170.43"], ["Fed MED/EE", "393.05", "31.32"], ["Fed OASDI/EE", "1,680.63", "133.93"], ["CA Withholdng", "1,194.43", "89.83"], ["CA OASDI/EE", "271.07", "21.6"]]</t>
   </si>
   <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Medical", "1,467.37", "77.23"], ["Dental", "356.63", "18.77"], ["Vision", "41.80", "2.2"], ["Life", "117.42", "6.18"], ["401K", "2,451.64", "131.64"], ["FSA Healthcare", "219.26", "11.54"], ["TOTAL:", "4,654.12", "247.56"], ["Dep Life-chld", "55.67", "2.93"], ["LTD", "31.35", "1.65"], ["401k Loan Two", "304.19", "16.01"], ["401k Loan Three", "205.38", "22.82"], ["401K Loan One", "152.5", "0.0"], ["TOTAL:", "749.09", "43.41"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Medical", "1,467.37", "77.23"], ["Dental", "356.63", "18.77"], ["Vision", "41.80", "2.2"], ["Life", "117.42", "6.18"], ["401K", "2,451.64", "131.64"], ["FSA Healthcare", "219.26", "11.54"], ["TOTAL:", "4,654.12", "247.56"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Medical", "1,544.60", "77.23"], ["Dental", "None", "18.77 375.40"], ["Vision", "None", "2.20 44.00"], ["Life", "None", "6.18 123.60"], ["401K", "None", "131.64 2,583.28"], ["FSA Healthcare", "None", "11.53 230.79"], ["TOTAL:", "None", "247.55 4,901.67"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["", "", "$345.27"], ["", "", "$345.29"], ["", "", "$459.90"], ["", "", "$1,150.46"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["FED TX Withholdi", "333.46", "157.34"], ["TX EE Social Sec", "608.57", "175.32"], ["TX EE Medicare T", "142.33", "41.01"], ["GA TX Withholdi", "317.12", "109.2"], ["Dental PPO-High", "142.28", "71.14"], ["DCMP", "210.76", "74.95"], ["DC Retiremt-2.5%", "100.54", "55.78"], ["Kaiser HMO Gold", "210.0", "105.0"], ["Dependent Life", "3.12", "1.56"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Federal Income", "1108.35", "-111.16"], ["Social Security", "713.71", "-70.35"], ["Medicare", "166.92", "-16.46"], ["California State Income", "206.03", "-21.73"], ["California State DI", "115.12", "-11.35"], ["Net Pay", "", "$903.65"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Gross Earnings", "58,104.90", "2,766.90"], ["Imputed Earnings", "11.55", "0.55"], ["Pretax Deductions", "3,742.83", "178.23"], ["Employee Tax Deductions", "15,599.96", "742.85"], ["Voluntary Deductions", "112.70", "11.27"], ["Net Payment", "38,637.86", "1,834.00"], ["Siemens 401k Plan Loan 1", "112.7", "11.27"], ["Basic 401K PTX", "2,323.65", "110.65"], ["Dental PreTax", "178.50", "8.5"], ["Medical Pre Tax", "1,188.60", "56.6"], ["Vision PreTax US", "52.08", "2.48"], ["FIT Withheld", "7,939.47", "378.07"], ["Medicare Employee Withheld", "821.94", "39.14"], ["Social Security Employee Withheld", "3,514.51", "167.35"], ["SIT Withheld (CA)", "2,757.30", "131.3"], ["SDI Employee Withheld (CA)", "566.74", "26.99"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["*Dental", "195.30", "9.3"], ["*Vision", "83.37", "3.97"], ["*401k", "973.78", "0.0"], ["*Medical", "3927.00", "187.0"], ["Roth 401k", "1723.38", "85.58"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Federal Income Tax", "1784.64", "77.77"], ["Social Security", "1185.47", "53.1"], ["Medicare", "277.25", "12.42"], ["CA State Disability Ins", "191.2", "8.56"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Total Pay", "22765.56", "200.0"], ["Taxes", "4097.64", "22.68"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Supplemental AD and D", "50.82", "4.62"], ["Spouse/Partner Life In", "9.13", "0.83"], ["Supplemental Life", "12.21", "1.11"], ["Total After Tax Deductions", "72.16", "6.56"], ["Total Deductions", "1,449.25", "131.75"], ["Net Pay", "16,900.79", "2,661.69"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["DELTAUSA P", "6.72", "0.56"], ["METLF PRE", "25.2", "2.1"], ["STD HIGH O", "89.16", "7.73"], ["LTD HIGH O", "123.68", "10.72"], ["CR UNION", "167.64", "15.24"], ["T.W.U.A", "273.9", "18.26"], ["WITH CURRENT TAX", "2,547.26", "162.42"], ["FICA CURRENT TAX", "1,885.23", "120.38"], ["MICA CURRENT TAX", "440.85", "28.15"], ["111.64", "None", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["MINN. LIFE", "0.00", "0.0"], ["AVMSL PRE", "0.00", "0.0"], ["MINOPT (8X", "63.08", "5.74"], ["DELTAPPO P", "87.36", "5.46"], ["METLF PRE", "33.60", "2.1"], ["STD LOW OP", "110.40", "6.9"], ["LTD LOW OP", "117.92", "7.37"], ["PPD LEGAL", "116.64", "7.29"], ["CR UNION", "1,034.16", "81.48"], ["T.W.U.A", "306.42", "18.26"], ["MINOPT (3X", "8.08", "0.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Federal", "$422.39", "$135.54"], ["Fica Medicare", "$475.72 $111.26", "$135.92 $31.79"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["FIT", "6,626.69", "85.30"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["FEDERAL WITHHOLDING", "($599.57)", "($90.11)"], ["FICA", "($101.79)", "($15.08)"], ["SOCIAL SECURITY", "($435.24)", "($64.48)"], ["Federal and FICA Taxes Total:", "($1,136.60)", "($169.67)"], ["Net Wages:", "$5,883.40", "$870.33"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["2501 401(k) Loan 1 Plan 1", "533.72", "21.08"], ["2510 Stock Purchase Plan", "210.00", "5.0"], ["2523 Spouse Trm Life", "62.16", "1.48"], ["3508 Child Support", "3,116.82", "74.21"], ["3520 Garnishment Serv. Fee", "84.00", "2.0"], ["Total Post Tax Deductions", "4,006.70", "103.77"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["CHILD SUPPORT 40%", "$44.20", "$0.00"], ["GARNISHMENT", "$22.33", "$0.00"], ["TOTAL", "$66.53", "$0.00"], ["Federal Income Tax", "$360.67", "$0.00"], ["FICA", "$2,013.78", "$0.00"], ["Medicare", "$399.71", "$0.00"], ["State Withholding - NC", "$38.00", "$0.00"], ["TOTAL", "$2,812.16", "$0.00"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Federal Income Tax", "$360.67", "$39.28"], ["FICA", "$2,013.78", "$117.30"], ["Medicare", "$399.71", "$27.43"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Type", "YTD", "Current"], ["Federal Taxes", "14,123.99", "808.22"], ["Health Benefits - Pretax", "2,519.34", "126.38"], ["TSP Tax Deferred", "3,794.20", "199.88"], ["Retirement - FERS", "639.04", "31.98"], ["Medicare Tax", "1,358.31", "72.80"], ["FEGLI - Family", "27.70", "2.05"], ["Union Dues", "420.00", "21.00"], ["Type", "YTD", "Current"], ["State Tax 1 (NC)", "4,289.00", "232.00"], ["Dental/Vision", "995.19", "49.58"], ["TSP Roth", "199.88", "0.00"], ["OASDI Tax", "5,807.97", "311.30"], ["FEGLI - Regular", "320.70", "16.05"], ["Charity Contribution", "48.08", "0.00"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Fed Withholdng", "5,260.30", "437.90"], ["Fed MED/EE Fed OASDI/EE", "678.79 2,902.43", "46.62 199.38"], ["CA Withholdng CA OASDI/EE", "1,853.71 468.13", "170.66 32.15"], ["Total:", "11,163.36", "886.71"]]</t>
-  </si>
-  <si>
-    <t>[["type", "per_amount"], ["Fed Withholdng", "403.33"], ["Fed MED/EE", "44.21"], ["Fed OASDI/EE", "189.01"], ["CA Withholdng", "154.58"], ["CA OASDI/EE", "30.49"], ["Total:", "821.62"], ["DENTAL", "10.43"], ["VISION", "0.93"], ["401k", "183.6"], ["Total:", "194.96"], ["Tool Loan", ""], ["Roth 401k", ""], ["Total:", ""], ["401k Match", "61.2"], ["* Taxable", ""]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["FEDERAL TAX", "135.15", "26.8"], ["MEDICARE", "135.13", "19.83"], ["SOC SECURITY", "577.81", "84.82"], ["CA DISABILITY", "93.2", "13.68"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["CA Income Tax", "55.58", "51.88"], ["CA State Disability Ins", "29.39", "19.18"], ["Federal Income Tax", "214.52", "161.07"], ["Medicare", "42.62", "27.81"], ["Social Security", "182.22", "118.91"], ["Taxes", "524.33", "378.85"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Description", "YTD", "Current"], ["Dependant Care - FSA GapSHR Ptax Mat", "272.73 309.92", "90.91 43.09"], ["TOTAL:", "582.65|", "134.00"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["BCC Medical B-Tax Deduction", "299.25", "15.75"], ["BCC Dental B-Tax Deduction", "103.74", "5.46"], ["BCC Vision B-Tax Deduction", "56.81", "2.99"], ["BCC Suppl Life B-Tax", "56.05", "2.95"], ["FRS Contribution", "928.11", "52.28"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Federal Income Tax", "824.16", "84.44"], ["Total Tax Deductions:", "1,876.63", "205.21"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["ARIZONA STATE RETIREMENT - CERTIFIED", "6,206.72", "249.51"], ["PRE-TAX MEDICAL 20 DEDUCTIONS", "3,751.20", "262.20"], ["FLEX SPENDING - MEDICAL 20", "900.00", "50.00"], ["PRE-TAX DENTAL 20", "195.20", "12.20"], ["PRE-TAX VISION 20", "134.40", "8.40"], ["ARIZONA STATE RET - CERT LTD", "86.25", "3.55"], ["FICA-OASDI", "2,972.11", "108.93"], ["ADDITIONAL LIFE INSURANCE - 20 EMPLOYEE", "102.60", "17.10"], ["FICA-MEDICARE", "695.11", "25.48"], ["FEDERAL INCOME TAX", "3,151.78", "111.51"], ["STATE INCOME TAX", "751.14", "27.13"], ["DIRECT DEPOSIT - NET PAY", "33,971.92", "1,213.72"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "2002.0", "580:00", "40.0", "14.5"], ["Weighted 1.5 OT", "373.0", "143:55", "6.6", "21.75"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "20023.11", "580:00", "40.0", "14.50"], ["Weighted 1.5 OT", "3731,96", "143.55", "6.6", "21,75"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Pay", "54,577.12", "2,953.85", "80.0", "0.025"], ["Salary &amp; Other Income", "58,661.58", "2,953.85", "80.0", "0.025"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["401K MAT", "1,841.28", "205.01", "0.0", "None"], ["DIRECT L", "61,297.76", "6,833.50", "158.0", "43.25"], ["PTO MEM", "0.00", "None", "10.0", "0.0"], ["Gross Earnings", "64,178.15", "6,861.00", "168.0", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Fed Withholdng", "5,178.04", "251.88"], ["Fed MED/EE", "792.68", "38.82"], ["Fed OASDI/EE", "3,389.38", "165.99"], ["MD Withholdng", "4,208.45", "205.96"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "78,293.20", "4,270.89", "70.5", "60.58"], ["PTO", "9,044.78", "575.51", "9.5", "60.58"], ["401K Match", "5,005.33 1", "256.85", "0.0", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "None", "4,275.20", "80.0", "53.44"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "56740.05", "3351.2", "80.0", "41.89"], ["Group Term Life", "36.21", "1.75", "", ""], ["MTAPDisc", "160.0", "16.0", "", ""]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Earnings", "6001.9", "2638.8", "70.83", "37.25540025412961"], ["Stipend Exempt", "240.0", "240.0", "12.0", "20.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["ADDL ASST", "$8,084.13", "$660.00", "60:00", "11.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Fed MED/EE", "1,047.17", "49.31", "None", "None"], ["MD Withholdng", "3,510.75", "156.75", "None", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "5,941.62", "1,168.00", "80.0", "14.6"], ["Overtime 1.5", "873.18", "613.64", "28.02", "14.6"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Reglr", "47,735.29", "2,237.71", "72.0", "31.0793"], ["Vacation", "2,727.49", "248.63", "8.0", "31.0793"], ["Gross Pay", "57,955.71", "2,486.34", "None", "None"], ["FED Withholding Tax", "4,337.19", "166.59", "None", "None"], ["FED EE Social Security Ta", "3,247.47", "137.90", "None", "None"], ["FED EE Medicare Tax", "759.49", "32.25", "None", "None"], ["MI Withholding Tax", "1,972.01", "83.57", "None", "None"], ["Total Tax Deductions", "10,316.16", "420.31", "None", "None"], ["Accident Insurance", "50.96", "3.64", "None", "None"], ["BSIP Pre-tax EE", "5,795.51", "248.63", "None", "None"], ["HSA - Bosch Choice EE", "1,776.24", "70.83", "None", "None"], ["Medical Insurance", "3,460.00", "173.00", "None", "None"], ["Dental Insurance", "299.00", "14.95", "None", "None"], ["Vision Insurance", "173.54", "8.86", "None", "None"], ["Total Pre-tax Deductions", "11,555.25", "519.91", "None", "None"], ["Life Insurance - EE", "488.30", "26.65", "None", "Post"], ["Dependent Life", "91.56", "4.65", "None", "None"], ["Total Post-tax Deductions", "579.86", "31.30", "", ""], ["Net Pay", "", "1,514.82", "", ""]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Holiday (field 3)", "None", "$ 1,075.00", "Hours: 40.00", "0.025"], ["Sick (field 3)", "None", "$ 215.00", "Hours: 8.00", "26.875"], ["Vacation (field 3)", "None", "$ 2,795.00", "Hours: 104.00", "0.019230769230769232"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Salary", "43732.9", "1155.1", "0.0", "0.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "38,374.33", "2,407.52", "1,303.90", "None"], ["Regular", "0.00", "-662.07", "None", "30.093976"], ["Paid Time Off Scheduled", "5,461.62", "421.32", "185.60", "30.093976"], ["Paid Time Off Unscheduled", "2,077.22", "240.75", "70.50", "30.093976"], ["Excused Time Without Pay", "-469.76", "0.00", "16.00", "None"], ["Holiday", "1,180.27", "0.00", "40.00", "None"], ["Overtime 1.5", "1,378.79", "0.00", "30.80", "None"], ["OverAppt Regular 1.0", "402.23", "0.00", "13.70", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Hours", "None", "1040.0", "40.0", "26.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Holiday Pay", "371.25", "0.0", "0.0", "0.0"], ["Overtime Pay", "94.19", "0.0", "0.0", "0.0"], ["Vacation Pay", "192.5", "0.0", "0.0", "0.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Salary Hol", "37,238.40", "1,861.92", "None", "None"], ["#ExpRpt", "236.16", "None", "None", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Actual Earnings", "$100,260.00", "$11,140.00"], ["Flex Credits", "$829.44", "$92.16"], ["Total", "$115,471.12", "$11,232.16"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["H2015 1", "$612.50", "50", "$12.25", "$12.25"], ["T1005 1", "$245.00", "20", "$12.25", "$12.25"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Earnings", "32,999.53", "1.688.35", "None", "None"], ["Personal Emergency Salary", "0.00", "0.00", "4.0", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Hourly", "40,845.99", "1,759.25", "75.6667", "23.25"], ["Other Plus", "43.79", "41.46", "1.7833", "23.25"], ["PTO", "191.82", "17.44", "0.75", "23.25"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "None", "3,138.40", "80.0", "39.23"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Actual Earnings", "$149,445.00", "$16,605.00"], ["PE Monthly Supplement", "$1,350.00", "$150.00"], ["Flex Credits", "$2,668.23", "$303.65"], ["Total", "$232,455.66", "$17,058.65"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Overtime Adjustment - FLSA", "3.17", "2.17", "None", "None"], ["Overtime Pay", "490.81", "174.38", "7.50", "23.25"], ["Regular Pay", "20,541.26", "818.56", "52.81", "15.5"], ["Sicl", "666.42 |", "372.00", "24.00", "15.5"], ["Holiday-Floating", "222.92", "0.00", "None", "None"], ["Holiday", "769.28", "0.00", "None", "None"], ["Sick Adjustment", "412.17", "0.00", "None", "None"], ["Taxable Fringe - Gross Up", "15.91", "0.00", "None", "None"], ["Vacation", "1,068.78", "0.00", "None", "None"], ["TOTAL:", "24,378.55", "1,367.11", "84.31", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["Commissions", "14,934.77", "1,287.00"], ["MBO", "609.00", "609.00"], ["FLSA True Up", "505.81", "27.08"], ["FLSA True Up", "", "23.09"], ["FLSA True Up 08/25/2019-08/31/2019", "", "13.00"], ["FLSA True Up 08/18/2019-08/24/2019", "", "4.63"], ["FLSA True Up", "", "0.87"], ["FLSA True Up", "", "1.06"], ["Regular Pay", "25,189.32", ""], ["OT PAID @ 1.5", "2,143.23", ""], ["Holiday", "786.18", ""], ["Holiday Worked Premium - 150%", "12.66", ""], ["Holiday Worked (@) 0.50", "113.62", ""], ["Salary Plus", "307.02", ""], ["Personal Leave", "626.79", ""], ["RSU Award", "1.439.82", ""], ["Sick Pay", "350.21", ""], ["Total:", "48,953.34", "1.965.73"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Title", "Dollars", "Dollars Title", "Hours", "None"], ["REGULAR", "435.88", "2,121.95", "192.49", "None"], ["OVERTIME", "None", "226.80", "12.60", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["RegErn", "11624.06", "560.0", "40.0", "14.0"], ["Swap", "2437.82", "201.18", "14.37", "14.0"], ["OVT", "2930.13", "4.62", "0.22", "21.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["RegErn", "12858.3", "394.52", "28.18", "14.0"], ["Swap", "2823.24", "294.42", "21.03", "14.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["RegErn", "12463.78", "468.72", "33.48", "14.0"], ["Swap", "2528.82", "91.0", "6.5", "14.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "37,912.76", "2,339.84", "40.0", "18.28"], ["Regular", "37,912.76", "2,339.84", "40.0", "18.28"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "1877.82", "153.24", "40.0", "18.28"], ["Regular", "2350.6", "145.07", "40.0", "18.28"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "30193.69", "1377.66", "None", "None"], ["Overtime Prem", "2258.47", "83.02", "9.25", "8.98"], ["Paid Time Off", "1795.00", "58.34", "3.25", "17.95"], ["Total Earnings", "34588 .21", "1519.02", "None", "None"], ["Federal Income", "3763.98", "152.59", "None", "None"], ["State Income", "1870.53", "76.17", "None", "None"], ["Soc Sec Tax", "2113.38", "92.70", "None", "None"], ["Medicare Tax", "494.26", "21.68", "None", "None"], ["Total Taxes", "8242 15", "343 14", "None", "None"], ["401 (k)", "345.87", "15.19", "None", "None"], ["Dental", "501.48", "23.88", "None", "None"], ["Other Deducts", "190.00", "9.50", "None", "None"], ["Total: Deduct's:", "1037 35", "48 .57", "None", "None"], ["Reimbursements Mileage", "70.00", "50.00", "None", "None"], ["Total Reimbs:", "None", "50.00", "None", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["REGULAR", "19237.27", "992.42", "76.34", "13.0"], ["OT PREM", "43.74", "9.07", "19.3", "0.47"], ["GROSS EARNINGS", "24621.45", "1190.67", "None", "None"], ["TAXABLE GROSS", "24621.45", "1190.67", "None", "None"], ["FWT TAXABLE EARNINGS", "23729.26", "1143.04", "None", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Pay", "13,129.38", "872.22", "77.53", "11.25"], ["Holiday Worked", "291.18", "153.95", "9.12", "16.88"], ["Overtime Premium", "516.16", "15.93", "2.83", "5.63"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["WORK HOURS", "584.04", "584.04", "27.51", "21.23"], ["SICK LEAVE", "42.46", "42.46", "2.0", "21.23"], ["NON-SCHEDULED CROSS-FOOT", ".00", ".00", "10.49", "21.23"], ["WORK HOURS", "849.20", "849.20", "40.0", "21.23"], ["OVERTIME HOURS", "43.48", "43.48", "1.42", "21.23"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Wages - Hourly", "$19,672.16", "$864.63", "66.51", "$13.00"], ["Benefit Package", "$2.500.00", "$125.00", "None", "None"], ["Total", "$24.309.64", "$989.63", "", "6.51 Hours"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["REG HR", "28139.05", "1346.4", "72.0", "72.0"], ["SICK", "1414.55", "149.6", "8.0", "8.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Reg", "229.30 127.44 16.56", "None", "None", "18.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Reg", "7515.0", "702.0", "39.0", "18.0"], ["Sick", "229.5", "18.0", "1.0", "18.0"], ["Total Gross Pay", "7888.5", "720.0", "40.0", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["WAGES", "5,111.76", "1,703.92", "0.0", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["531.60", "None", "531.60", "30.00", "17.72"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Charter Prime", "288.6", "None", "0.00 0.00", "Charter Prime"], ["Dry Run", "158.77", "None", "0.00 0.00", "Dry Run"], ["Home to Schl Hrs", "1899.06", "None", "15.25 11.50 175.40", "Home to Schl Hrs"], ["Safety Acc Mtg Hrs", "194.44", "0.00 0.00", "None", "Safety Acc Mtg Hrs"], ["Trainer Hours", "829.63", "0.00 0.00", "None", "Trainer Hours"], ["Sign On Bonus", "1000.0", "0.00 0.00", "None", "Sign On Bonus"], ["Gross Pay", "4370.5", "175.40", "None", "Gross Pay"], ["Federal Tax", "407.62", "10.23", "None", "Federal Tax"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "rates"], ["CLOTH ALLOW -VETERANS 180", "180.00", "180.0", "180.0"], ["COMPENSATION TIME USAGE", "53.09", "9.06", "18.12"], ["DIRECT CARE DIFFERENTIAL", "190.00", "10.0", "5.0"], ["INSTITUTION WKEND DIFFERENTIAL", "415.32", "18.08", "1.0"], ["OVERTIME FT 1.5", "2,395.97", "36.24", "18.12"], ["OVERTIME PREMIUM", "795.20", "9.98", "9.24"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Pay", "5,811.15", "893.7", "59.58", "15.0"], ["Reimbursement", "350.00", "50.0", ":", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "21,139.05", "1,299.60", "70.0", "18.57"], ["Standard Overtime", "187.18", "4.64", "0.25", "18.57"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "22,438.65", "1,299.60", "70.00", "18.57"], ["Standard Overtime", "191.82", "4.64", "0.25", "18.57"], ["18.57", "905.16", "", "1,304.24", "399.08"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["OT2", "36:14", "None", "None", "None"], ["Overtime", "None", "196.71", "8:26", "23.33"], ["Regular", "1495:29", "1,313.98", "84:30", "15.55"], ["Gross Pay", "None", "1,510.69", "None", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["REGULAR", "2,901.30", "2,901.30", "76.35", "38.0"], ["OVERTIME", "1,310.50", "1,310.50", "22.16", "42.276062"], ["SHIFT 3", "369.41", "369.41", "98.51", "None"], ["WKEND DIFF", "64.88", "64.88", "40.55", "None"], ["Orienta SHIFT 2 Total:", "4,646.09", "4,646.09", "237.57", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Hourly", "12,144.00", "1,760.00", "80.0", "22.0"], ["O/T Hrs", "264.00", "264.00", "8.0", "33.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Earnings", "Year to Date", "Amount", "Hrs", "Rate"], ["Regular", "23,257.09", "1,320.33", "80.02", "16.50"], ["OT 1.5 W1", "1,382.70", "189.34", "7.65", "24.75"], ["Shift Diff", "1.86", "0.08", "0.10", "0.75"], ["OT 1.5 W2", "1,496.47", "292.79", "11.83", "24.75"], ["Totals", "27,889.00", "1,802.54", "None", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["REGULAR EARNING", "$16,693.36", "$937.60", "80.0", "$11.7200"], ["OVERTIME EARN", "$2,649.62", "$154.88", "8.81", "$17.5800"], ["PROT PTO USED", "$317.02", "$5.86", "0.5", "$11.7200"], ["Total", "$20,891.34", "$1,098.34", "None", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["REGULAR EARNING", "$17,799.13", "$967.20", "80.0", "$12.0900"], ["OVERTIME EARN", "$4,171.46", "$258.42", "14.25", "$18.1350"], ["PROT PTO USED", "$422.55", "$54.41", "4.5", "$12.0900"], ["Total", "$23,368.05", "$1,280.03", "None", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "1638.77", "284.63", "24.75", "11.5"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["DESCRIPTION", "OVERTIME", "REGULAR", "REGULAR", "None"], ["None", "None", "413.32", "16.87", "24.5"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "30270.31", "1281.73", "62.0", "20.67306451612903"], ["Paid Time off", "1014.41", "372.12", "18.0", "20.673333333333332"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Trip Pay", "None", "immoname 739.30", "2.00", "369.6500"], ["Trip Pay", "4,294.19", "739.30", "1.00", "739.3000"], ["Trip Pay", "2,033.15", "202.86", "1.00", "202.8600"], ["Overtime", "1,606.84", "16.95", "1.00", "16.9500"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Trip Pay", "4,294.19", "Emmaram 739.30", "1.0", "739.3"], ["Trip Pay", "2,033.15", "202.86", "1.0", "202.86"], ["Overtime", "1,606.84", "16.95", "1.0", "16.95"], ["Misc. Other Pay", "475.49", "492.96", "None", "None"], ["Extra Board Guarantee", "None", "618.30", "None", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["ular Pay", "10,725.00", "425.0", "17.0", "25.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "39,932.70", "2,437.88", "None", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Base Pay - Non Exempt", "37,828.58", "1,954.47", "71.75 5", "27.24"], ["Meal Sanction Earnings", "159.24", "27.24", "1.00", "27.24"], ["Overtime Pay", "231.04", "6.81", "0.25", "27.24"], ["Overtime Premium Pay", "115.58", "3.41", "0.25", "13.62"], ["None", "43.072.86", "1.991.93", "None", "Total"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "15,803.44", "1,064.00", "56.0", "19.0"], ["Regular", "15,803.44", "456.00", "24.0", "19.0"], ["Total Gross Pay", "15,860.44", "1,520.00", "80.0", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["REGULAR", "33.664.06", "1.730.80", "40.0", "43.27"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["ADJUSTMENT", "115.52", "0.0", "0.0", "0.0"], ["HOURLY", "43394.3", "2250.0", "72.0", "31.25"], ["PAID TIME OFF", "1903.68", "0.0", "0.0", "0.0"], ["GROSS PAY", "None", "2250.0", "72.0", "31.25"], ["NET PAY", "None", "1666.75", "None", "0.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "9933.40", "1136.28", "74.51", "15.25"], ["Overtime", "545.10", "0.00", "0.0", "22.88"], ["Sick Hourly Hours", "32.26 25.66 6.60", "3.73", "None", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Earnings", "58,161.14", "1,580.00", "2,962.12", "37.026395"], ["Blue Cross Employee Incentive", "15,508.72", "None", "0.00", "None"], ["Emergency Pay", "296.21", "8.00", "0.00", "None"], ["Corporate Holiday", "2,035.63", "56.00", "0.00", "None"], ["Scheduled Paid Time Off", "1,332.95", "36.00", "0.00", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "rates"], ["10/17/19 Regular", "16.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Pay", "35,280.00", "2,000.00", "80.0", "25.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Hourly Earnings Training - Indirect", "2,002.86 107.96", "303.74", "22.17", "13.7 0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["REGULAR HOURS", "44,515.54", "2,054.80", "65.80", "31.23"], ["OVERTIME AT 1.5", "4,842.06", "267.00", "5.70", "31.23"], ["VACATION USED", "3,322.65", "249.82", "8.00", "31.23"], ["LEAVE WITHOUT PAY", "None", "None", "6.20", "31.23"], ["TAXES", "None", "None", "570.07", "TOTAL:"], ["Fed Withholdng", "None", "None", "249.87", "None"], ["Fed MED/EE", "None", "None", "36.95", "None"], ["Fed OASDI/EE", "None", "None", "158.01", "None"], ["CA Withholdng", "None", "None", "18 99.75", "None"], ["CA OASDI/EE", "None", "None", "25.49", "None"], ["BEFORE-TAX DEDUCTIONS", "None", "None", "242.57", "TOTAL:"], ["Retiree Med Liability Contrib", "None", "None", "12.50", "None"], ["DC - EE Contrib", "None", "None", "51.43", "None"], ["HEALTH FLEXIBLE SPENDING ACCT", "None", "None", "23.08", "None"], ["PERS EE CONTRIB MiscNon-Clsc", "None", "None", "155.56", "None"], ["AFTER-TAX DEDUCTIONS", "None", "None", "35.72", "TOTAL:"], ["FLEXIBLE SPENDING ACCOUNT FEE", "None", "None", "1.15", "None"], ["DUES SEIU Local 521", "None", "None", "34.57", "None"], ["EMPLOYER PAID BENEFITS", "None", "None", "1,628.55", "TOTAL:"], ["Fed Med/ER", "None", "None", "36.95", "None"], ["Fed OASDI/ER", "None", "None", "158.01", "None"], ["PERS UAL ER Misc Nontaxable", "None", "None", "293.43", "None"], ["PERS PensObligBondPmtMisc", "None", "None", "24.13", "None"], ["VALLEY HEALTH PLAN - HMO", "None", "None", "835.26", "None"], ["DELTA DENTAL PLAN", "None", "None", "54.27", "None"], ["VISION SERVICES PLAN", "None", "None", "4.59", "None"], ["BASIC LIFE COVERAGE", "None", "None", "1.04", "None"], ["PERS ER CONTRIB Misc NonCIssc", "None", "None", "220.87", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Straight", "23,031.00", "2,160.00", "80.00", "27.000000"], ["Straight", "0.00", "-216.00", "-8.00", "27.000000"], ["FixHoliday", "648.00", "216.00", "8.00", "27.000000"], ["Fringe-GTL", "1.98", "0.18", "None", "None"], ["PTO/Vac", "2,241.00", "0.00", "None", "None"], ["Exceed", "1,000.00", "0.00", "None", "None"], ["WellReimb", "185.00", "0.00", "None", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["CVT Life", "None", "5,829.18", "L", "5,829.18"], ["None", "None", "5,829.18", "GROSS PAY", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Time", "45,042.86", "2,632.88", "None", "None"], ["Regular Time", "0.00", "-263.29", "-8.0", "32.91"], ["Holiday Siry EEs", "1,564.25", "263.29", "8.0", "32.91"], ["TOTAL:", "53,268.35", "2,632.88", "0.0", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Description", "Earnings", "Earnings", "Current Hours", "------- Rate"], ["Regular Time", "47,675.74", "2,632.88", "None", "None"], ["TOTAL:", "55,901.23", "2,632.88", "0.00", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["None", "$1,666.67", "$1,192.39", "1.00", "0.0"], ["None", "$1,666.67", "$1,192.37", "1.00", "0.0"], ["None", "$1,936.43", "$1,476.53", "1.00", "0.0"], ["50553297", "$5,269.77", "$3,861.29", "3.00", "0.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["1 Regular Pay", "None", "1,725.70 ---", "80.0", "None"], ["On Call Pay", "None", "280.42", "13.0", "None"], ["|Overtime - 100%", "None", "474.56", "22.0", "None"], ["|Overtime Premium", "None", "292.34 -", "22.0", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Pay", "None", "1,725.70", "80.0", "0.0125"], ["On Call Pay", "None", "280.42", "13.0", "21.570769230769233"], ["Overtime - 100%", "None", "474.56", "22.0", "21.57090909090909"], ["| Overtime Premium", "None", "292.34", "22.0", "13.288181818181817"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "1732.43", "126.21", "12.02", "10.5000"], ["Bross Pay", "3243.61", "126.21", "12.02", "None"], ["FIT", "5.00", "0.00", "None", "None"], ["Medicare Employee", "47.03", "1.83", "None", "None"], ["Social Security", "201.10", "7.82", "None", "Employee"], ["Total Taxes", "267.83", "9.65", "None", "None"], ["Not Pay", "2975 18", "116 .56", "None", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "11142.60", "1120.00", "80.0", "14.0000"], ["OT hours", "228.90", "14.70", "0.7", "21.0000"], ["None", "$11,511.50", "$1,134.70", "None", "Gross Pay"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Absence", "204.80", "164.48", "8.0", "20.56"], ["Vacation", "2824.22", "164.48", "8.0", "20.56"], ["Time Entry Wages", "29649.98", "1369.72", "66.62", "20.56"], ["Overtime", "681.57", "12.96", "0.42", "30.86"], ["Federal Tax", "1594.26", "0.00", "None", "None"], ["CA Disability", "395.72", "15.11", "None", "None"], ["Social Security", "2453.56", "93.71", "None", "None"], ["Medicare", "573.82", "21.92", "None", "None"], ["Total Tax Deductions", "551399", "130 74", "None", "None"], ["Net: Pay", "31179847", "1295 05", "None", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Pay", "17108.73", "856.44", "63.44", "13.50"], ["Sick Pay", "47.25", "0.0", "0.00", "13.50"], ["Vacation Pay", "540.0", "0.0", "0.00", "13.50"], ["Holiday Pay", "320.0", "0.0", "0.00", "13.50"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Bonus", "1058.6", "200.0", "None", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "19,000.00", "600.00", "0.00", "0.000"], ["Vacation Supplement", "3,200.00", "3,200.00", "128.00", "25.000"], ["Gross Pay", "22,800.00", "3,800.00", "128.00", "None"], ["Fed Taxable Gross", "21,422.91", "3,674.81", "None", "None"]]</t>
+    <t>[["type", "per_amount", "hours", "rates"], ["CVT Life", "5,829.18", "L", "5,829.18"], ["", "5,829.18", "GROSS PAY", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Time", "45,042.86", "2,632.88", "", ""], ["Regular Time", "0.00", "-263.29", "-8.0", "32.91"], ["Holiday Siry EEs", "1,564.25", "263.29", "8.0", "32.91"], ["TOTAL:", "53,268.35", "2,632.88", "0.0", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Regular Time", "45,042.86", "2,632.88"], ["Regular Time", "0.00", "-263.29"], ["Holiday Siry EEs", "1,564.25", "263.29"], ["Annual Incentive Plan", "3,001.78", ""], ["Discretionary Bonus", "500.00", ""], ["PTO SIry EEs", "3,159.46", ""], ["TOTAL:", "53,268.35", "2,632.88"]]</t>
+  </si>
+  <si>
+    <t>```plaintext
+| type                  | ytd_amount | per_amount | hours  | rates |
+|-----------------------|------------|------------|--------|-------|
+| Regular Time          | 47,675.74  | 2,632.88   | 1,456.00 |       |
+| Holiday Slry EEs      | 1,564.25   | 0.00       | 48.00   |       |
+| PTO SIry EEs          | 3,159.46   | 0.00       | 96.00   |       |</t>
+  </si>
+  <si>
+    <t>```plaintext
+| type       | ytd_amount | per_amount | hours | rates |
+|------------|------------|------------|-------|-------|
+| Regular    | $5,269.77  | $1,666.67  | 1.00  |       |
+| Gross      |            | $1,936.43  | 1.00  |       |
+| Taxes      | $1,150.46  | $459.90    |       |       |
+| Adjustments| $258.02    | $0.00      |       |       |
+| Misc Pay   |            | $0.00      |       |       |
+| Net        |            | $1,476.53  |       |       |</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["1 Regular Pay", "", "1,725.70 ---", "80.0", "21.57125"], ["On Call Pay", "", "280.42", "13.0", "21.570769230769233"], ["", "Overtime - 100%", "", "474.56", "22.0"], ["", "Overtime Premium", "", "292.34 -", "22.0"]]</t>
+  </si>
+  <si>
+    <t>```plaintext
+| type             | ytd_amount | per_amount | hours | rates |
+|------------------|------------|------------|-------|-------|
+| Longevity Pay    |            | 225.00     |       |       |
+| Regular Pay      |            | 1,725.70   | 80.00 |       |
+| On Call Pay      |            | 280.42     | 13.00 |       |
+| Overtime - 100%  |            | 474.56     | 22.00 |       |
+| Overtime Premium |            | 292.34     | 22.00 |       |</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Pay", "", "1,725.70", "80.0", "0.0125"], ["On Call Pay", "", "280.42", "13.0", "21.570769230769233"], ["Overtime - 100%", "", "474.56", "22.0", "21.57090909090909"], ["", "Overtime Premium", "", "292.34", "22.0"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "1732.43", "126.21", "12.02", "10.5000"], ["Bross Pay", "3243.61", "126.21", "12.02", ""], ["FIT", "5.00", "0.00", "", ""], ["Medicare Employee", "47.03", "1.83", "", ""], ["Social Security", "201.10", "7.82", "", "Employee"], ["GASIT", "14.70", "0.00", "", ""], ["Total Taxes", "267.83", "9.65", "", ""], ["Not Pay", "2975 18", "116 .56", "", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "11142.60", "1120.00", "80.0", "14.0000"], ["OT hours", "228.90", "14.70", "0.7", "21.0000"], ["", "$11,511.50", "$1,134.70", "", "Gross Pay"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount"], ["Gross Earnings", "58,104.90", "2,766.90"], ["Imputed Earnings", "11.55", "0.55"], ["Pretax Deductions", "3,742.83", "178.23"], ["Employee Tax Deductions", "15,599.96", "742.85"], ["Voluntary Deductions", "112.70", "11.27"], ["Net Payment", "38,637.86", "1,834.00"], ["Holiday", "2,489.68", "0.00"], ["Memo - GTL", "11.55", "0.55"], ["PTO", "3,596.22", "0.00"], ["Regular Salary", "51,177.56", "2,766.35"], ["Sick", "829.89", "0.00"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Absence", "204.80", "164.48", "8.0", "20.56"], ["Vacation", "2824.22", "164.48", "8.0", "20.56"], ["Time Entry Wages", "29649.98", "1369.72", "66.62", "20.56"], ["Overtime", "681.57", "12.96", "0.42", "30.86"], ["Federal Tax", "1594.26", "0.00", "", ""], ["CA Disability", "395.72", "15.11", "", ""], ["Social Security", "2453.56", "93.71", "", ""], ["Medicare", "573.82", "21.92", "", ""], ["Total Tax Deductions", "551399", "130 74", "", ""], ["Net: Pay", "31179847", "1295 05", "", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Pay", "17108.7", "856.44", "63.44", "13.50"], ["Sick Pay", "47.25", "0", "0.00", "13.50"], ["Vacation Pay", "540", "0", "0.00", "13.50"], ["Holiday Pay", "320", "0", "0.00", "13.50"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Pay", "20240.7", "0", "0.00", "13.50"], ["Overtime Pay", "450.98", "0", "0.00", "20.25"], ["Sick Pay", "47.25", "0", "0.00", "13.50"], ["Vacation Pay", "540", "0", "0.00", "13.50"], ["Holiday Pay", "428", "0", "0.00", "13.50"], ["Bonus", "1058.6", "200", "", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Description", "Year-to-Date", "Current Earnings", "Hours", "Rate"], ["Regular", "19,000.00", "600.00", "0.00", "0.000"], ["Vacation Supplement", "3,200.00", "3,200.00", "128.00", "25.000"], ["Gross Pay", "22,800.00", "3,800.00", "128.00", ""], ["Fed Taxable Gross", "21,422.91", "3,674.81", "", ""]]</t>
   </si>
   <si>
     <t>[["type", "ytd_amount", "per_amount"], ["NIGHT DIFF", "170.34", "34.07"], ["RETRO REG", "108.0", "0.0"], ["HOLIDAY PA", "571.23", "0.0"], ["TRAN TOOL", "49.2", "0.0"], ["FLEX CREDI", "521.52", "43.46"]]</t>
   </si>
   <si>
-    <t>[["type", "ytd_amount", "per_amount"], ["NIGHT DIFF", "205.35", "41.73"], ["FLEX CREDI", "695.36", "43.46"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Gross Pay", "$7,234.59", "$2,192.30", "80.0", "$2,192.300"], ["Net Pay", "$7,673.05", "$2,192.30", "80.0", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["REGULAR", "$7,020.00", "$1,040.00", "40.0", "26.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "per_amount", "ytd_amount", "hours", "rates"], ["Current 10/18/2019", "1,941.46", "270.62", "245.46", "1,425.38"], ["Year to Date", "57,422.24", "6,767.25", "12,408.08", "38,246.91"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["REGULAR", "Taxable", "$0.00", "None", "$2.13"], ["TOTAL", "None", "$0.00", "0.0", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "None", "3,997.60", "80.0", "49.97"], ["Overtime", "None", "799.52", "16.0", "49.97"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "39,283.18", "2,516.50", "100.66", "25.0"], ["Premium", "3,577.18", "358.27", "28.66", "12.5"], ["Vacation", "1,756.64", "200.00", "8.0", "25.0"], ["Regular", "0.00", "101.60", "4.0", "25.4"], ["Premium", "0.00", "50.80", "4.0", "12.7"], ["Total:", "47,040.64", "3,227.17", "145.32", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "per_amount", "hours", "rates"], ["Regular", "2,198.75", "87.95", "25.0"], ["Premium", "289.13", "23.13", "12.5"], ["Holiday", "200.00", "8.0", "25.0"], ["Regular", "182.37", "7.18", "25.4"], ["Call-In Py", "150.00", "4.0", "37.5"], ["Call-In DB", "39.75", "3.18", "12.5"], ["Total:", "3,060.00", "133.44", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["REGULAR PAY", "1368.0", "1368.0", "72.0", "19.0"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "2838.57", "1848.0", "0.0", "88.0"], ["Overtime", "100.49", "69.93", "2.22", "31.5"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Description", "YTD", "None", "Current Hours", "Rate"], ["None", "Earnings", "Earnings", "None", "None"], ["Quarterly Incentive", "128.00", "128.00", "None", "None"], ["Straight Time Store", "13,883.75", "1,000.00", "40.00", "25.000000"], ["Overtime Stores", "1,183.53", "28.13", "0.75", "37.500000"], ["OT Bonus Adjustment", "4.69", "4.67", "None", "None"], ["Group Term Life", "0.65", "0.10", "None", "None"], ["Straight Time Store", "0.00", "1,000.00", "40.00", "25.000000"], ["Overtime Stores", "0.00", "126.38", "3.37", "37.500000"], ["OT Bonus Adjustment", "0.00", "0.02", "None", "None"], ["Holiday Fixed", "400.00", "0.00", "None", "None"], ["Inclement Weather", "200.00", "0.00", "None", "None"], ["Paid Time Off/Vacation", "800.00", "0.00", "None", "None"], ["TOTAL:", "16,599.97", "2,287.20", "84.12", "None"], ["Fed Withholdng", "916.03", "130.85", "None", "None"], ["Fed MED/EE", "236.75", "31.84", "None", "None"], ["Fed OASDI/EE", "1,012.33", "136.18", "None", "None"]]</t>
+    <t>```plaintext
+| type        | ytd_amount | per_amount | hours  | rates   |
+|-------------|------------|------------|--------|---------|
+| Regular Pay | 40,575.30  | 1,866.80   | 80.000 | 23.335  |
+| Overtime Pay| 157.51     | 157.51     | 4.500  | 23.335  |</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Gross Pay", "$7,234.59", "$2,192.30", "80", "$2,192.300"], ["Net Pay", "$7,673.05", "$2,192.30", "80", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["REGULAR", "$7,020.00", "$1,040.00", "40", "26"]]</t>
+  </si>
+  <si>
+    <t>[["type", "per_amount"], ["1499 Performance Pay True Up", "990.90"], ["Total Taxable Earnings Summary", "1,941.46"], ["1007 Performance Base Pay", "819.08"], ["1116 Addl Sales OT .5", "70.75-"], ["1116 Addl Sales OT .5", "83.69"], ["1116 Addl Sales OT .5", "42.14-"], ["1116 Addl Sales OT .5", "49.81"], ["1116 Addl Sales OT .5", "42.14-"], ["1116 Addl Sales OT .5", "49.81"], ["1116 Addl Sales OT .5", "103.20"], ["1499 Performance Pay True Up", "190.68"], ["1499 Performance Pay True Up", "190.69"], ["1499 Performance Pay True Up", "190.69"], ["1499 Performance Pay True Up", "418.84"], ["9088 Total Hrs Paid inc Hol", ""], ["Total Taxable Earnings", "1,941.46"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["TOTAL", "$2,812.16", "$0.00", "0.0", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "rates"], ["REGULAR", "Taxable", "$12.84", "$2.13"], ["REGULAR", "Taxable", "$7.50", "$2.13"], ["REGULAR", "Taxable", "$10.05", "$2.13"], ["REGULAR", "Taxable", "$10.59", "$2.13"], ["REGULAR", "Taxable", "$2.92", "$2.13"], ["REGULAR", "Taxable", "$31.40", "$5.00"], ["REGULAR", "Taxable", "$9.22", "$2.13"], ["REGULAR", "Taxable", "$6.65", "$2.13"], ["REGULAR", "Taxable", "$11.89", "$2.13"], ["REGULAR", "Taxable", "$13.63", "$2.13"], ["REGULAR", "Taxable", "$8.41", "$2.13"], ["TOTAL", "", "$1,892.01", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "", "3,997.60", "80", "49.97"], ["Overtime", "", "799.52", "16", "49.97"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "39,283.18", "2,516.50", "100.66", "25.0"], ["Premium", "3,577.18", "358.27", "28.66", "12.5"], ["Vacation", "1,756.64", "200.00", "8.0", "25.0"], ["Regular", "0.00", "101.60", "4.0", "25.4"], ["Premium", "0.00", "50.80", "4.0", "12.7"], ["Call-In DB", "39.75", "", "", ""], ["Call-In Py", "150.00", "", "", ""], ["Holiday", "1,226.56", "", "", ""], ["Birthday", "200.00", "", "", ""], ["Double", "152.08", "", "", ""], ["Travel", "605.25", "", "", ""], ["Sick Leave", "50.00", "", "", ""], ["Total:", "47,040.64", "3,227.17", "145.32", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular", "2,198.75", "2,198.75", "87.95", "25.0"], ["Premium", "289.13", "289.13", "23.13", "12.5"], ["Holiday", "200.00", "200.00", "8", "25.0"], ["Regular", "182.37", "182.37", "7.18", "25.4"], ["Call-In Py", "150.00", "150.00", "4", "37.5"], ["Call-In DB", "39.75", "39.75", "3.18", "12.5"], ["Total:", "3,060.00", "3,060.00", "133.44", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["REGULAR PAY", "1368", "1368", "72", "19"]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["", "$5,109.60", "$5,109.60", "", ""], ["", "459.86", "459.86", "", ""], ["", "71.13", "71.13", "", ""], ["", "304.13", "304.13", "", ""], ["", "807.84", "807.84", "", ""], ["", "321.27", "321.27", "", ""], ["UC Care Plan CON", "204.22", "204.22", "", ""], ["", "22.53", "22.53", "", ""], ["", ".16", "16", "", ""], ["", "3.00", "3.00", "", ""], ["", "100.00 [ ]", "100.00", "", ""], ["", "$2,294.14", "$2,294.14", "", ""], ["", "[ ] $2,815.46", "$2,815.46", "", ""], ["[ ]", "$5,109.60", "$5,109.60", "", ""], ["[x]", "204.22", "204.22", "", ""], ["", "459.86", "459.86", "", ""], ["", "$4,445.52 [ ]", "$4,445.52", "", ""], ["", "$4,445.52", "$4,445.52", "", ""]]</t>
+  </si>
+  <si>
+    <t>```plaintext
+| type         | ytd_amount | per_amount | hours | rates |
+|--------------|------------|------------|-------|-------|
+| Regular Pay  | 2838.57    | 1848.00    | 88.00 | 21.00 |
+| Overtime Pay | 100.49     | 69.93      | 2.22  | 31.50 |</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Description", "YTD", "", "Current Hours", "Rate"], ["Quarterly Incentive", "128.00", "128.00", "", ""], ["Straight Time Store", "13,883.75", "1,000.00", "40.00", "25.000000"], ["Overtime Stores", "1,183.53", "28.13", "0.75", "37.500000"], ["OT Bonus Adjustment", "4.69", "4.67", "", ""], ["Group Term Life", "0.65", "0.10", "", ""], ["Straight Time Store", "0.00", "1,000.00", "40.00", "25.000000"], ["Overtime Stores", "0.00", "126.38", "3.37", "37.500000"], ["OT Bonus Adjustment", "0.00", "0.02", "", ""], ["Holiday Fixed", "400.00", "0.00", "", ""], ["Inclement Weather", "200.00", "0.00", "", ""], ["Paid Time Off/Vacation", "800.00", "0.00", "", ""], ["TOTAL:", "16,599.97", "2,287.20", "84.12", ""]]</t>
   </si>
   <si>
     <t>[["type", "ytd_amount", "per_amount"], ["Fed Withholdng", "1,965.17", "116.76"], ["Fed MED/EE", "441.82", "24.91"], ["Fed OASDI/EE", "1,889.18", "106.53"]]</t>
   </si>
   <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Hrly", "5,774.15", "920.00", "40.00", "23.0"], ["OT Hrly", "3,153.34", "153.53", "4.45", "34.5"], ["Total Gross Pay:", "9,355.29", "1,073.53", "44.45", "None"], ["Federal Income Tax", "824.16", "84.44", "None", "None"], ["Federal FICA Withheld", "580.03", "66.56", "None", "None"], ["Federal Medicare Withheld", "135.65", "15.56", "None", "None"], ["ARIZONA WH", "336.79", "38.65", "None", "None"]]</t>
-  </si>
-  <si>
-    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Home Club Teacher Par 1946", "50.00", "50.00", "2.0", "25.0"], ["Teacher, Kindergarten", "43,993.43", "2,039.73", "0.0", "0.0"], ["EARNINGS Total:", "52,918.43", "2,089.73", "2.0", "25.0"]]</t>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Regular Hrly", "5,774.15", "920.00", "40.00", "23.0"], ["OT Hrly", "3,153.34", "153.53", "4.45", "34.5"], ["Total Gross Pay:", "9,355.29", "1,073.53", "44.45", ""], ["Federal Income Tax", "824.16", "84.44", "", ""], ["Federal FICA Withheld", "580.03", "66.56", "", ""], ["Federal Medicare Withheld", "135.65", "15.56", "", ""], ["ARIZONA WH", "336.79", "38.65", "", ""], ["PTO Hrs Aval", "11.00", "", "", ""]]</t>
+  </si>
+  <si>
+    <t>[["type", "ytd_amount", "per_amount", "hours", "rates"], ["Home Club Teacher Par 1946", "50.00", "50.00", "2", "25"], ["Teacher, Kindergarten", "43,993.43", "2,039.73", "0", "0"], ["EARNINGS Total:", "52,918.43", "2,089.73", "2", "25"]]</t>
+  </si>
+  <si>
+    <t>APPELF__4497-000000009019170-44972741_&amp;I100PYSTB_20191001202924_30800027-09019170-44972741-001_2_.pdf_0</t>
   </si>
 </sst>
 </file>
@@ -4056,7 +4236,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S117"/>
+  <dimension ref="A1:S116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4126,16 +4306,19 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>322</v>
+        <v>314</v>
+      </c>
+      <c r="J2" t="s">
+        <v>566</v>
       </c>
       <c r="K2" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="R2" t="s">
-        <v>1004</v>
+        <v>1021</v>
       </c>
       <c r="S2" t="s">
-        <v>1005</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4146,46 +4329,46 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E3" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F3" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="G3" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="H3" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="I3" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="J3" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="K3" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="L3" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="M3" t="s">
-        <v>661</v>
+        <v>837</v>
       </c>
       <c r="P3" t="s">
-        <v>947</v>
+        <v>969</v>
       </c>
       <c r="R3" t="s">
-        <v>1005</v>
+        <v>1022</v>
       </c>
       <c r="S3" t="s">
-        <v>1005</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4196,37 +4379,37 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G4" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="H4" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="I4" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="J4" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="L4" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
       <c r="M4" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
       <c r="Q4" t="s">
-        <v>977</v>
+        <v>998</v>
       </c>
       <c r="R4" t="s">
-        <v>1005</v>
+        <v>1023</v>
       </c>
       <c r="S4" t="s">
-        <v>1105</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4237,46 +4420,46 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E5" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F5" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G5" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="H5" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="I5" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="J5" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="K5" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="L5" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
       <c r="M5" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
       <c r="P5" t="s">
-        <v>947</v>
+        <v>969</v>
       </c>
       <c r="R5" t="s">
-        <v>1006</v>
+        <v>1024</v>
       </c>
       <c r="S5" t="s">
-        <v>1106</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4287,43 +4470,43 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E6" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F6" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="G6" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="H6" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="I6" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="J6" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="K6" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="L6" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="M6" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="R6" t="s">
-        <v>1007</v>
+        <v>1025</v>
       </c>
       <c r="S6" t="s">
-        <v>1107</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -4334,43 +4517,43 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="H7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="I7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="J7" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="L7" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="M7" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="P7" t="s">
-        <v>948</v>
+        <v>970</v>
       </c>
       <c r="R7" t="s">
-        <v>1008</v>
+        <v>1026</v>
       </c>
       <c r="S7" t="s">
-        <v>1108</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -4381,49 +4564,49 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E8" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F8" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G8" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="H8" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="I8" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="J8" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="K8" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="L8" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="M8" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="N8" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
       <c r="Q8" t="s">
-        <v>978</v>
+        <v>999</v>
       </c>
       <c r="R8" t="s">
-        <v>1009</v>
+        <v>1027</v>
       </c>
       <c r="S8" t="s">
-        <v>1109</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4434,43 +4617,43 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E9" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F9" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G9" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="H9" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="I9" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="J9" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="L9" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
       <c r="M9" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
       <c r="P9" t="s">
-        <v>949</v>
+        <v>971</v>
       </c>
       <c r="R9" t="s">
-        <v>1010</v>
+        <v>1028</v>
       </c>
       <c r="S9" t="s">
-        <v>1110</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4481,43 +4664,46 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E10" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F10" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G10" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="H10" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="I10" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="J10" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="L10" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="M10" t="s">
-        <v>832</v>
+        <v>844</v>
+      </c>
+      <c r="N10" t="s">
+        <v>938</v>
       </c>
       <c r="P10" t="s">
-        <v>950</v>
+        <v>972</v>
       </c>
       <c r="R10" t="s">
-        <v>1011</v>
+        <v>1029</v>
       </c>
       <c r="S10" t="s">
-        <v>1111</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -4528,46 +4714,46 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E11" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F11" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G11" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="H11" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="I11" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="J11" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="K11" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="L11" t="s">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="M11" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="P11" t="s">
-        <v>951</v>
+        <v>973</v>
       </c>
       <c r="R11" t="s">
-        <v>1012</v>
+        <v>1030</v>
       </c>
       <c r="S11" t="s">
-        <v>1112</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4578,52 +4764,52 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E12" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="F12" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="G12" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="H12" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="I12" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="J12" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="K12" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="L12" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
       <c r="M12" t="s">
-        <v>834</v>
-      </c>
-      <c r="O12" t="s">
-        <v>941</v>
+        <v>846</v>
+      </c>
+      <c r="N12" t="s">
+        <v>939</v>
       </c>
       <c r="P12" t="s">
-        <v>951</v>
+        <v>973</v>
       </c>
       <c r="Q12" t="s">
-        <v>979</v>
+        <v>1000</v>
       </c>
       <c r="R12" t="s">
-        <v>1013</v>
+        <v>1031</v>
       </c>
       <c r="S12" t="s">
-        <v>1113</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -4634,43 +4820,43 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F13" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G13" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="H13" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="I13" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="J13" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="K13" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="L13" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
       <c r="M13" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="Q13" t="s">
-        <v>980</v>
+        <v>1001</v>
       </c>
       <c r="R13" t="s">
-        <v>1005</v>
+        <v>1032</v>
       </c>
       <c r="S13" t="s">
-        <v>1114</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -4681,49 +4867,49 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E14" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F14" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G14" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="H14" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="I14" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="J14" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="K14" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="L14" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="M14" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="N14" t="s">
-        <v>924</v>
+        <v>940</v>
       </c>
       <c r="Q14" t="s">
-        <v>981</v>
+        <v>1002</v>
       </c>
       <c r="R14" t="s">
-        <v>1014</v>
+        <v>1033</v>
       </c>
       <c r="S14" t="s">
-        <v>1115</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4734,40 +4920,43 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E15" t="s">
-        <v>334</v>
+        <v>326</v>
+      </c>
+      <c r="F15" t="s">
+        <v>421</v>
       </c>
       <c r="G15" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="H15" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="I15" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="J15" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="K15" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="L15" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="M15" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="P15" t="s">
-        <v>952</v>
+        <v>974</v>
       </c>
       <c r="R15" t="s">
-        <v>1015</v>
+        <v>1034</v>
       </c>
       <c r="S15" t="s">
-        <v>1116</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -4778,43 +4967,43 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E16" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F16" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="G16" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="H16" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="I16" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="J16" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="L16" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="M16" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="P16" t="s">
-        <v>953</v>
+        <v>975</v>
       </c>
       <c r="R16" t="s">
-        <v>1016</v>
+        <v>1035</v>
       </c>
       <c r="S16" t="s">
-        <v>1117</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -4825,31 +5014,31 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="H17" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="I17" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="J17" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="L17" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="M17" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="R17" t="s">
-        <v>1005</v>
+        <v>1036</v>
       </c>
       <c r="S17" t="s">
-        <v>1118</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -4860,37 +5049,37 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E18" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F18" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G18" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="H18" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="I18" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="J18" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="L18" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
       <c r="R18" t="s">
-        <v>1005</v>
+        <v>1037</v>
       </c>
       <c r="S18" t="s">
-        <v>1005</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -4901,34 +5090,34 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E19" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G19" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="H19" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="I19" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="J19" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="L19" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="M19" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="R19" t="s">
-        <v>1005</v>
+        <v>1038</v>
       </c>
       <c r="S19" t="s">
-        <v>1119</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -4939,52 +5128,49 @@
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E20" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F20" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="G20" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="H20" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="I20" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="J20" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="K20" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="L20" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
       <c r="M20" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="N20" t="s">
-        <v>925</v>
-      </c>
-      <c r="O20" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="P20" t="s">
-        <v>954</v>
+        <v>976</v>
       </c>
       <c r="R20" t="s">
-        <v>1017</v>
+        <v>1039</v>
       </c>
       <c r="S20" t="s">
-        <v>1120</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -4994,26 +5180,23 @@
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
-        <v>155</v>
-      </c>
       <c r="E21" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="G21" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="J21" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="L21" t="s">
-        <v>742</v>
+        <v>753</v>
       </c>
       <c r="R21" t="s">
-        <v>1018</v>
+        <v>1040</v>
       </c>
       <c r="S21" t="s">
-        <v>1005</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -5024,43 +5207,46 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D22" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E22" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F22" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G22" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="H22" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="I22" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="J22" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="L22" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="M22" t="s">
-        <v>842</v>
+        <v>854</v>
+      </c>
+      <c r="N22" t="s">
+        <v>942</v>
       </c>
       <c r="P22" t="s">
-        <v>955</v>
+        <v>977</v>
       </c>
       <c r="R22" t="s">
-        <v>1019</v>
+        <v>1041</v>
       </c>
       <c r="S22" t="s">
-        <v>1121</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -5071,43 +5257,43 @@
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D23" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E23" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F23" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="G23" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="H23" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="I23" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="J23" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="K23" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="L23" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
       <c r="M23" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="R23" t="s">
-        <v>1020</v>
+        <v>1042</v>
       </c>
       <c r="S23" t="s">
-        <v>1122</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -5118,49 +5304,40 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D24" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E24" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F24" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G24" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="H24" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="I24" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="J24" t="s">
-        <v>577</v>
-      </c>
-      <c r="K24" t="s">
-        <v>672</v>
+        <v>587</v>
       </c>
       <c r="L24" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
       <c r="M24" t="s">
-        <v>844</v>
-      </c>
-      <c r="O24" t="s">
-        <v>943</v>
-      </c>
-      <c r="P24" t="s">
-        <v>956</v>
+        <v>856</v>
       </c>
       <c r="R24" t="s">
-        <v>1021</v>
+        <v>1043</v>
       </c>
       <c r="S24" t="s">
-        <v>1123</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -5171,43 +5348,46 @@
         <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E25" t="s">
-        <v>343</v>
+        <v>335</v>
+      </c>
+      <c r="F25" t="s">
+        <v>428</v>
       </c>
       <c r="G25" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="H25" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="I25" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="J25" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="K25" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="L25" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="M25" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="P25" t="s">
-        <v>957</v>
+        <v>978</v>
       </c>
       <c r="R25" t="s">
-        <v>1022</v>
+        <v>1044</v>
       </c>
       <c r="S25" t="s">
-        <v>1124</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -5218,31 +5398,31 @@
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G26" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="H26" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="I26" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="J26" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="K26" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="M26" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="R26" t="s">
-        <v>1023</v>
+        <v>1045</v>
       </c>
       <c r="S26" t="s">
-        <v>1125</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -5253,49 +5433,49 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D27" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E27" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F27" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="G27" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="H27" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="I27" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="J27" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="K27" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="L27" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
       <c r="M27" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
       <c r="N27" t="s">
-        <v>926</v>
+        <v>943</v>
       </c>
       <c r="Q27" t="s">
-        <v>982</v>
+        <v>1003</v>
       </c>
       <c r="R27" t="s">
-        <v>1024</v>
+        <v>1046</v>
       </c>
       <c r="S27" t="s">
-        <v>1126</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -5306,40 +5486,40 @@
         <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E28" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F28" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G28" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="H28" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="I28" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="J28" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="L28" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
       <c r="M28" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="R28" t="s">
-        <v>1025</v>
+        <v>1047</v>
       </c>
       <c r="S28" t="s">
-        <v>1127</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -5350,43 +5530,46 @@
         <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D29" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E29" t="s">
-        <v>346</v>
+        <v>338</v>
+      </c>
+      <c r="F29" t="s">
+        <v>431</v>
       </c>
       <c r="G29" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="H29" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="I29" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="J29" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="L29" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
       <c r="M29" t="s">
-        <v>849</v>
+        <v>861</v>
+      </c>
+      <c r="N29" t="s">
+        <v>944</v>
       </c>
       <c r="P29" t="s">
-        <v>958</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="R29" t="s">
-        <v>1026</v>
+        <v>1048</v>
       </c>
       <c r="S29" t="s">
-        <v>1128</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -5397,43 +5580,46 @@
         <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D30" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E30" t="s">
-        <v>347</v>
+        <v>339</v>
+      </c>
+      <c r="F30" t="s">
+        <v>256</v>
       </c>
       <c r="G30" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="H30" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="I30" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="J30" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="K30" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="L30" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
       <c r="M30" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
       <c r="P30" t="s">
-        <v>959</v>
+        <v>980</v>
       </c>
       <c r="R30" t="s">
-        <v>1027</v>
+        <v>1049</v>
       </c>
       <c r="S30" t="s">
-        <v>1129</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -5444,49 +5630,49 @@
         <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D31" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E31" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F31" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G31" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="H31" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="I31" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="J31" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="K31" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="L31" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="M31" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
       <c r="N31" t="s">
-        <v>927</v>
+        <v>945</v>
       </c>
       <c r="Q31" t="s">
-        <v>984</v>
+        <v>1004</v>
       </c>
       <c r="R31" t="s">
-        <v>1028</v>
+        <v>1050</v>
       </c>
       <c r="S31" t="s">
-        <v>1005</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -5497,46 +5683,46 @@
         <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D32" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E32" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F32" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G32" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="H32" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="I32" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="J32" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="L32" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="M32" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="N32" t="s">
-        <v>928</v>
+        <v>946</v>
       </c>
       <c r="Q32" t="s">
-        <v>985</v>
+        <v>1005</v>
       </c>
       <c r="R32" t="s">
-        <v>1029</v>
+        <v>1051</v>
       </c>
       <c r="S32" t="s">
-        <v>1130</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -5547,46 +5733,46 @@
         <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D33" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E33" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F33" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G33" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="H33" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="I33" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="J33" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K33" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="L33" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="M33" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="N33" t="s">
-        <v>929</v>
+        <v>947</v>
       </c>
       <c r="R33" t="s">
-        <v>1030</v>
+        <v>1052</v>
       </c>
       <c r="S33" t="s">
-        <v>1131</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -5597,28 +5783,34 @@
         <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="G34" t="s">
-        <v>506</v>
+        <v>514</v>
+      </c>
+      <c r="H34" t="s">
+        <v>514</v>
+      </c>
+      <c r="I34" t="s">
+        <v>558</v>
       </c>
       <c r="J34" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="L34" t="s">
-        <v>754</v>
+        <v>765</v>
       </c>
       <c r="N34" t="s">
-        <v>930</v>
+        <v>948</v>
       </c>
       <c r="R34" t="s">
-        <v>1031</v>
+        <v>1053</v>
       </c>
       <c r="S34" t="s">
-        <v>1132</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -5629,37 +5821,40 @@
         <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D35" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E35" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F35" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G35" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="H35" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="I35" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="J35" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="L35" t="s">
-        <v>755</v>
+        <v>766</v>
+      </c>
+      <c r="M35" t="s">
+        <v>866</v>
       </c>
       <c r="R35" t="s">
-        <v>1032</v>
+        <v>1054</v>
       </c>
       <c r="S35" t="s">
-        <v>1133</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -5670,37 +5865,40 @@
         <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D36" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E36" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F36" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G36" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="H36" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="I36" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="J36" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="L36" t="s">
-        <v>756</v>
+        <v>767</v>
+      </c>
+      <c r="M36" t="s">
+        <v>867</v>
       </c>
       <c r="R36" t="s">
-        <v>1033</v>
+        <v>1055</v>
       </c>
       <c r="S36" t="s">
-        <v>1134</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -5711,40 +5909,40 @@
         <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D37" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E37" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F37" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G37" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="H37" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="I37" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="J37" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="L37" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
       <c r="M37" t="s">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="R37" t="s">
-        <v>1034</v>
+        <v>1056</v>
       </c>
       <c r="S37" t="s">
-        <v>1135</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -5755,34 +5953,37 @@
         <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D38" t="s">
-        <v>266</v>
+        <v>261</v>
+      </c>
+      <c r="F38" t="s">
+        <v>437</v>
       </c>
       <c r="G38" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="H38" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="I38" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="J38" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="L38" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
       <c r="M38" t="s">
-        <v>855</v>
+        <v>869</v>
       </c>
       <c r="R38" t="s">
-        <v>1035</v>
+        <v>1057</v>
       </c>
       <c r="S38" t="s">
-        <v>1136</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -5793,40 +5994,40 @@
         <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D39" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E39" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F39" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G39" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="H39" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="I39" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="J39" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="L39" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="M39" t="s">
-        <v>856</v>
+        <v>870</v>
       </c>
       <c r="R39" t="s">
-        <v>1036</v>
+        <v>1058</v>
       </c>
       <c r="S39" t="s">
-        <v>1137</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -5837,31 +6038,40 @@
         <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D40" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E40" t="s">
-        <v>355</v>
+        <v>347</v>
+      </c>
+      <c r="F40" t="s">
+        <v>439</v>
       </c>
       <c r="G40" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="H40" t="s">
-        <v>538</v>
+        <v>547</v>
+      </c>
+      <c r="I40" t="s">
+        <v>547</v>
+      </c>
+      <c r="J40" t="s">
+        <v>603</v>
       </c>
       <c r="L40" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
       <c r="M40" t="s">
-        <v>857</v>
+        <v>871</v>
       </c>
       <c r="R40" t="s">
-        <v>1037</v>
+        <v>1059</v>
       </c>
       <c r="S40" t="s">
-        <v>1138</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -5872,43 +6082,43 @@
         <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D41" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E41" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F41" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G41" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="H41" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="I41" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="J41" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="K41" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="L41" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="M41" t="s">
-        <v>858</v>
+        <v>872</v>
       </c>
       <c r="R41" t="s">
-        <v>1038</v>
+        <v>1060</v>
       </c>
       <c r="S41" t="s">
-        <v>1139</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -5919,46 +6129,46 @@
         <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D42" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E42" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F42" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G42" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="H42" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="I42" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="J42" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="K42" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="L42" t="s">
-        <v>762</v>
+        <v>773</v>
       </c>
       <c r="M42" t="s">
-        <v>859</v>
+        <v>873</v>
       </c>
       <c r="P42" t="s">
-        <v>960</v>
+        <v>981</v>
       </c>
       <c r="R42" t="s">
-        <v>1039</v>
+        <v>1061</v>
       </c>
       <c r="S42" t="s">
-        <v>1140</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -5969,37 +6179,37 @@
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E43" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G43" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="H43" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="I43" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="J43" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="K43" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="L43" t="s">
-        <v>763</v>
+        <v>774</v>
       </c>
       <c r="M43" t="s">
-        <v>860</v>
+        <v>874</v>
       </c>
       <c r="R43" t="s">
-        <v>1040</v>
+        <v>1062</v>
       </c>
       <c r="S43" t="s">
-        <v>1141</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -6010,37 +6220,37 @@
         <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E44" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G44" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="H44" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="I44" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="J44" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="K44" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="L44" t="s">
-        <v>764</v>
+        <v>775</v>
       </c>
       <c r="M44" t="s">
-        <v>861</v>
+        <v>875</v>
       </c>
       <c r="R44" t="s">
-        <v>1041</v>
+        <v>1063</v>
       </c>
       <c r="S44" t="s">
-        <v>1005</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -6051,37 +6261,37 @@
         <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E45" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F45" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G45" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="H45" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="I45" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="J45" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="K45" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="M45" t="s">
-        <v>862</v>
+        <v>876</v>
       </c>
       <c r="R45" t="s">
-        <v>1005</v>
+        <v>1064</v>
       </c>
       <c r="S45" t="s">
-        <v>1005</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -6092,37 +6302,40 @@
         <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E46" t="s">
-        <v>360</v>
+        <v>352</v>
+      </c>
+      <c r="F46" t="s">
+        <v>443</v>
       </c>
       <c r="G46" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="H46" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="I46" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="J46" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="L46" t="s">
-        <v>765</v>
+        <v>776</v>
       </c>
       <c r="M46" t="s">
-        <v>863</v>
+        <v>877</v>
       </c>
       <c r="R46" t="s">
-        <v>1042</v>
+        <v>1065</v>
       </c>
       <c r="S46" t="s">
-        <v>1142</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -6133,49 +6346,49 @@
         <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D47" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E47" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F47" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G47" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="H47" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="I47" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="J47" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="K47" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="L47" t="s">
-        <v>766</v>
+        <v>777</v>
       </c>
       <c r="M47" t="s">
-        <v>864</v>
+        <v>878</v>
       </c>
       <c r="O47" t="s">
-        <v>944</v>
+        <v>967</v>
       </c>
       <c r="P47" t="s">
-        <v>961</v>
+        <v>982</v>
       </c>
       <c r="R47" t="s">
-        <v>1043</v>
+        <v>1066</v>
       </c>
       <c r="S47" t="s">
-        <v>1143</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -6186,40 +6399,40 @@
         <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D48" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E48" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F48" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G48" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="H48" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="I48" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="J48" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="L48" t="s">
-        <v>767</v>
+        <v>778</v>
       </c>
       <c r="M48" t="s">
-        <v>865</v>
+        <v>879</v>
       </c>
       <c r="R48" t="s">
-        <v>1044</v>
+        <v>1067</v>
       </c>
       <c r="S48" t="s">
-        <v>1144</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -6230,40 +6443,43 @@
         <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D49" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E49" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F49" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G49" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="H49" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="I49" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="J49" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="L49" t="s">
-        <v>767</v>
+        <v>778</v>
       </c>
       <c r="M49" t="s">
-        <v>866</v>
+        <v>880</v>
+      </c>
+      <c r="N49" t="s">
+        <v>949</v>
       </c>
       <c r="R49" t="s">
-        <v>1045</v>
+        <v>1068</v>
       </c>
       <c r="S49" t="s">
-        <v>1145</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -6274,40 +6490,43 @@
         <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E50" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G50" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="H50" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="I50" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="J50" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="K50" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="L50" t="s">
-        <v>768</v>
+        <v>779</v>
       </c>
       <c r="M50" t="s">
-        <v>867</v>
+        <v>881</v>
+      </c>
+      <c r="P50" t="s">
+        <v>983</v>
       </c>
       <c r="Q50" t="s">
-        <v>986</v>
+        <v>1006</v>
       </c>
       <c r="R50" t="s">
-        <v>1046</v>
+        <v>1069</v>
       </c>
       <c r="S50" t="s">
-        <v>1146</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -6318,31 +6537,34 @@
         <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="E51" t="s">
+        <v>357</v>
       </c>
       <c r="G51" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="J51" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="K51" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="L51" t="s">
-        <v>769</v>
+        <v>780</v>
       </c>
       <c r="M51" t="s">
-        <v>868</v>
+        <v>882</v>
       </c>
       <c r="P51" t="s">
-        <v>962</v>
+        <v>984</v>
       </c>
       <c r="R51" t="s">
-        <v>1047</v>
+        <v>1070</v>
       </c>
       <c r="S51" t="s">
-        <v>1147</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -6353,43 +6575,43 @@
         <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D52" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E52" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F52" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G52" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="H52" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="I52" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="J52" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="K52" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="L52" t="s">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="M52" t="s">
-        <v>869</v>
+        <v>883</v>
       </c>
       <c r="R52" t="s">
-        <v>1048</v>
+        <v>1071</v>
       </c>
       <c r="S52" t="s">
-        <v>1148</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -6400,34 +6622,34 @@
         <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D53" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E53" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F53" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G53" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="H53" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="I53" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="J53" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="R53" t="s">
-        <v>1005</v>
+        <v>1072</v>
       </c>
       <c r="S53" t="s">
-        <v>1149</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -6438,28 +6660,31 @@
         <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="E54" t="s">
+        <v>360</v>
       </c>
       <c r="J54" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="K54" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="L54" t="s">
-        <v>771</v>
+        <v>782</v>
       </c>
       <c r="M54" t="s">
-        <v>870</v>
+        <v>884</v>
       </c>
       <c r="P54" t="s">
-        <v>963</v>
+        <v>985</v>
       </c>
       <c r="R54" t="s">
-        <v>1049</v>
+        <v>1073</v>
       </c>
       <c r="S54" t="s">
-        <v>1005</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -6470,40 +6695,40 @@
         <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D55" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E55" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F55" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G55" t="s">
+        <v>507</v>
+      </c>
+      <c r="H55" t="s">
         <v>500</v>
       </c>
-      <c r="H55" t="s">
-        <v>493</v>
-      </c>
       <c r="I55" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="J55" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="L55" t="s">
-        <v>772</v>
+        <v>783</v>
       </c>
       <c r="M55" t="s">
-        <v>871</v>
+        <v>885</v>
       </c>
       <c r="R55" t="s">
-        <v>1050</v>
+        <v>1074</v>
       </c>
       <c r="S55" t="s">
-        <v>1150</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -6514,19 +6739,43 @@
         <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>185</v>
+        <v>183</v>
+      </c>
+      <c r="D56" t="s">
+        <v>273</v>
       </c>
       <c r="E56" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F56" t="s">
-        <v>452</v>
+        <v>450</v>
+      </c>
+      <c r="G56" t="s">
+        <v>507</v>
+      </c>
+      <c r="H56" t="s">
+        <v>531</v>
+      </c>
+      <c r="I56" t="s">
+        <v>499</v>
+      </c>
+      <c r="J56" t="s">
+        <v>616</v>
+      </c>
+      <c r="K56" t="s">
+        <v>699</v>
+      </c>
+      <c r="L56" t="s">
+        <v>784</v>
+      </c>
+      <c r="M56" t="s">
+        <v>886</v>
       </c>
       <c r="R56" t="s">
-        <v>1005</v>
+        <v>1075</v>
       </c>
       <c r="S56" t="s">
-        <v>1005</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -6537,43 +6786,43 @@
         <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D57" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E57" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F57" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G57" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="H57" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="I57" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="J57" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="K57" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="L57" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="M57" t="s">
-        <v>872</v>
+        <v>887</v>
       </c>
       <c r="R57" t="s">
-        <v>1051</v>
+        <v>1076</v>
       </c>
       <c r="S57" t="s">
-        <v>1151</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -6584,40 +6833,43 @@
         <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D58" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E58" t="s">
-        <v>369</v>
+        <v>364</v>
+      </c>
+      <c r="F58" t="s">
+        <v>452</v>
       </c>
       <c r="G58" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="H58" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="I58" t="s">
-        <v>501</v>
+        <v>534</v>
       </c>
       <c r="J58" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="K58" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="L58" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="M58" t="s">
-        <v>873</v>
+        <v>888</v>
       </c>
       <c r="R58" t="s">
-        <v>1052</v>
+        <v>1077</v>
       </c>
       <c r="S58" t="s">
-        <v>1152</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -6628,43 +6880,49 @@
         <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D59" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E59" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F59" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G59" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="H59" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="I59" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="J59" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="K59" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="L59" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="M59" t="s">
-        <v>874</v>
+        <v>889</v>
+      </c>
+      <c r="N59" t="s">
+        <v>950</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>1007</v>
       </c>
       <c r="R59" t="s">
-        <v>1053</v>
+        <v>1078</v>
       </c>
       <c r="S59" t="s">
-        <v>1153</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -6675,49 +6933,46 @@
         <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D60" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E60" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F60" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G60" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="H60" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="I60" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="J60" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="K60" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="L60" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="M60" t="s">
-        <v>875</v>
+        <v>890</v>
       </c>
       <c r="N60" t="s">
-        <v>931</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>987</v>
+        <v>951</v>
       </c>
       <c r="R60" t="s">
-        <v>1054</v>
+        <v>1079</v>
       </c>
       <c r="S60" t="s">
-        <v>1154</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -6728,46 +6983,37 @@
         <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>189</v>
-      </c>
-      <c r="D61" t="s">
-        <v>282</v>
+        <v>187</v>
       </c>
       <c r="E61" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F61" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G61" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="H61" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="I61" t="s">
-        <v>512</v>
+        <v>562</v>
       </c>
       <c r="J61" t="s">
-        <v>609</v>
-      </c>
-      <c r="K61" t="s">
-        <v>693</v>
+        <v>621</v>
       </c>
       <c r="L61" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="M61" t="s">
-        <v>876</v>
-      </c>
-      <c r="N61" t="s">
-        <v>932</v>
+        <v>891</v>
       </c>
       <c r="R61" t="s">
-        <v>1055</v>
+        <v>1080</v>
       </c>
       <c r="S61" t="s">
-        <v>1155</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -6778,37 +7024,46 @@
         <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>190</v>
+        <v>188</v>
+      </c>
+      <c r="D62" t="s">
+        <v>278</v>
       </c>
       <c r="E62" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F62" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G62" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H62" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="I62" t="s">
-        <v>552</v>
+        <v>499</v>
       </c>
       <c r="J62" t="s">
-        <v>610</v>
+        <v>622</v>
+      </c>
+      <c r="K62" t="s">
+        <v>704</v>
       </c>
       <c r="L62" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="M62" t="s">
-        <v>877</v>
+        <v>892</v>
+      </c>
+      <c r="P62" t="s">
+        <v>986</v>
       </c>
       <c r="R62" t="s">
-        <v>1056</v>
+        <v>1081</v>
       </c>
       <c r="S62" t="s">
-        <v>1156</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -6819,46 +7074,46 @@
         <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D63" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E63" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F63" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G63" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="H63" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="I63" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="J63" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="K63" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="L63" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="M63" t="s">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="P63" t="s">
-        <v>964</v>
+        <v>986</v>
       </c>
       <c r="R63" t="s">
-        <v>1057</v>
+        <v>1082</v>
       </c>
       <c r="S63" t="s">
-        <v>1157</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -6869,46 +7124,43 @@
         <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E64" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G64" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="H64" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="I64" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="J64" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="K64" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="L64" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="M64" t="s">
-        <v>879</v>
-      </c>
-      <c r="P64" t="s">
-        <v>964</v>
+        <v>894</v>
       </c>
       <c r="R64" t="s">
-        <v>1058</v>
+        <v>1083</v>
       </c>
       <c r="S64" t="s">
-        <v>1158</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -6919,43 +7171,37 @@
         <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>193</v>
-      </c>
-      <c r="D65" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="E65" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F65" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G65" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="H65" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="I65" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="J65" t="s">
-        <v>613</v>
-      </c>
-      <c r="K65" t="s">
-        <v>696</v>
+        <v>625</v>
       </c>
       <c r="L65" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="M65" t="s">
-        <v>880</v>
+        <v>895</v>
       </c>
       <c r="R65" t="s">
-        <v>1059</v>
+        <v>1084</v>
       </c>
       <c r="S65" t="s">
-        <v>1159</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -6966,37 +7212,37 @@
         <v>86</v>
       </c>
       <c r="C66" t="s">
-        <v>194</v>
-      </c>
-      <c r="E66" t="s">
-        <v>377</v>
-      </c>
-      <c r="F66" t="s">
-        <v>461</v>
+        <v>192</v>
       </c>
       <c r="G66" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H66" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="I66" t="s">
-        <v>512</v>
+        <v>547</v>
       </c>
       <c r="J66" t="s">
-        <v>614</v>
+        <v>626</v>
+      </c>
+      <c r="K66" t="s">
+        <v>707</v>
       </c>
       <c r="L66" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="M66" t="s">
-        <v>881</v>
+        <v>896</v>
+      </c>
+      <c r="P66" t="s">
+        <v>987</v>
       </c>
       <c r="R66" t="s">
-        <v>1060</v>
+        <v>1085</v>
       </c>
       <c r="S66" t="s">
-        <v>1160</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -7007,37 +7253,40 @@
         <v>87</v>
       </c>
       <c r="C67" t="s">
-        <v>195</v>
+        <v>193</v>
+      </c>
+      <c r="E67" t="s">
+        <v>372</v>
+      </c>
+      <c r="F67" t="s">
+        <v>460</v>
       </c>
       <c r="G67" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H67" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="I67" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="J67" t="s">
-        <v>615</v>
-      </c>
-      <c r="K67" t="s">
-        <v>697</v>
+        <v>627</v>
       </c>
       <c r="L67" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="M67" t="s">
-        <v>882</v>
-      </c>
-      <c r="P67" t="s">
-        <v>965</v>
+        <v>897</v>
+      </c>
+      <c r="N67" t="s">
+        <v>952</v>
       </c>
       <c r="R67" t="s">
-        <v>1061</v>
+        <v>1086</v>
       </c>
       <c r="S67" t="s">
-        <v>1161</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -7048,34 +7297,37 @@
         <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E68" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F68" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G68" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="H68" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="I68" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="J68" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="L68" t="s">
-        <v>783</v>
+        <v>794</v>
+      </c>
+      <c r="N68" t="s">
+        <v>952</v>
       </c>
       <c r="R68" t="s">
-        <v>1062</v>
+        <v>1087</v>
       </c>
       <c r="S68" t="s">
-        <v>1162</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -7086,37 +7338,40 @@
         <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>196</v>
+        <v>194</v>
+      </c>
+      <c r="D69" t="s">
+        <v>281</v>
       </c>
       <c r="E69" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F69" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G69" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="H69" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="I69" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="J69" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="L69" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="M69" t="s">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="R69" t="s">
-        <v>1063</v>
+        <v>1088</v>
       </c>
       <c r="S69" t="s">
-        <v>1163</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -7127,43 +7382,40 @@
         <v>90</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D70" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E70" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F70" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G70" t="s">
         <v>507</v>
       </c>
       <c r="H70" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="I70" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="J70" t="s">
-        <v>617</v>
-      </c>
-      <c r="K70" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="L70" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="M70" t="s">
-        <v>884</v>
+        <v>796</v>
       </c>
       <c r="R70" t="s">
-        <v>1064</v>
+        <v>1089</v>
       </c>
       <c r="S70" t="s">
-        <v>1164</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -7174,40 +7426,43 @@
         <v>91</v>
       </c>
       <c r="C71" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D71" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E71" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F71" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G71" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="H71" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="I71" t="s">
-        <v>547</v>
+        <v>512</v>
       </c>
       <c r="J71" t="s">
-        <v>618</v>
+        <v>630</v>
+      </c>
+      <c r="K71" t="s">
+        <v>708</v>
       </c>
       <c r="L71" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="M71" t="s">
-        <v>885</v>
+        <v>899</v>
       </c>
       <c r="R71" t="s">
-        <v>1005</v>
+        <v>1090</v>
       </c>
       <c r="S71" t="s">
-        <v>1005</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -7218,40 +7473,40 @@
         <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>199</v>
-      </c>
-      <c r="D72" t="s">
-        <v>288</v>
+        <v>197</v>
       </c>
       <c r="E72" t="s">
-        <v>382</v>
+        <v>376</v>
+      </c>
+      <c r="F72" t="s">
+        <v>464</v>
       </c>
       <c r="G72" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="H72" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I72" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="J72" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="K72" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="L72" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="M72" t="s">
-        <v>886</v>
+        <v>900</v>
       </c>
       <c r="R72" t="s">
-        <v>1065</v>
+        <v>1091</v>
       </c>
       <c r="S72" t="s">
-        <v>1165</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -7262,10 +7517,13 @@
         <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>200</v>
+        <v>198</v>
+      </c>
+      <c r="D73" t="s">
+        <v>284</v>
       </c>
       <c r="E73" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F73" t="s">
         <v>465</v>
@@ -7274,28 +7532,25 @@
         <v>499</v>
       </c>
       <c r="H73" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="I73" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="J73" t="s">
-        <v>620</v>
-      </c>
-      <c r="K73" t="s">
-        <v>699</v>
+        <v>632</v>
       </c>
       <c r="L73" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="M73" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
       <c r="R73" t="s">
-        <v>1066</v>
+        <v>1092</v>
       </c>
       <c r="S73" t="s">
-        <v>1166</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -7306,40 +7561,46 @@
         <v>94</v>
       </c>
       <c r="C74" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D74" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E74" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F74" t="s">
         <v>466</v>
       </c>
       <c r="G74" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="H74" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="I74" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="J74" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="L74" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="M74" t="s">
-        <v>888</v>
+        <v>902</v>
+      </c>
+      <c r="N74" t="s">
+        <v>953</v>
+      </c>
+      <c r="P74" t="s">
+        <v>988</v>
       </c>
       <c r="R74" t="s">
-        <v>1067</v>
+        <v>1093</v>
       </c>
       <c r="S74" t="s">
-        <v>1167</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -7350,43 +7611,37 @@
         <v>95</v>
       </c>
       <c r="C75" t="s">
-        <v>202</v>
-      </c>
-      <c r="D75" t="s">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="E75" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F75" t="s">
         <v>467</v>
       </c>
       <c r="G75" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="H75" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="I75" t="s">
-        <v>492</v>
+        <v>553</v>
       </c>
       <c r="J75" t="s">
-        <v>622</v>
+        <v>634</v>
+      </c>
+      <c r="K75" t="s">
+        <v>710</v>
       </c>
       <c r="L75" t="s">
-        <v>789</v>
-      </c>
-      <c r="M75" t="s">
-        <v>889</v>
-      </c>
-      <c r="P75" t="s">
-        <v>966</v>
+        <v>801</v>
       </c>
       <c r="R75" t="s">
-        <v>1068</v>
+        <v>1094</v>
       </c>
       <c r="S75" t="s">
-        <v>1168</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -7397,37 +7652,40 @@
         <v>96</v>
       </c>
       <c r="C76" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E76" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F76" t="s">
         <v>468</v>
       </c>
       <c r="G76" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="H76" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="I76" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="J76" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="K76" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="L76" t="s">
-        <v>790</v>
+        <v>802</v>
+      </c>
+      <c r="M76" t="s">
+        <v>903</v>
       </c>
       <c r="R76" t="s">
-        <v>1069</v>
+        <v>1095</v>
       </c>
       <c r="S76" t="s">
-        <v>1169</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -7438,46 +7696,40 @@
         <v>97</v>
       </c>
       <c r="C77" t="s">
-        <v>204</v>
+        <v>202</v>
+      </c>
+      <c r="D77" t="s">
+        <v>286</v>
       </c>
       <c r="E77" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="F77" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="G77" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="H77" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="I77" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="J77" t="s">
-        <v>624</v>
-      </c>
-      <c r="K77" t="s">
-        <v>701</v>
-      </c>
-      <c r="L77" t="s">
-        <v>791</v>
-      </c>
-      <c r="M77" t="s">
-        <v>890</v>
-      </c>
-      <c r="O77" t="s">
-        <v>945</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>988</v>
+        <v>636</v>
+      </c>
+      <c r="N77" t="s">
+        <v>954</v>
+      </c>
+      <c r="P77" t="s">
+        <v>989</v>
       </c>
       <c r="R77" t="s">
-        <v>1070</v>
+        <v>1096</v>
       </c>
       <c r="S77" t="s">
-        <v>1170</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -7488,37 +7740,49 @@
         <v>98</v>
       </c>
       <c r="C78" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D78" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E78" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F78" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="G78" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="H78" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="I78" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="J78" t="s">
-        <v>625</v>
-      </c>
-      <c r="P78" t="s">
-        <v>967</v>
+        <v>637</v>
+      </c>
+      <c r="K78" t="s">
+        <v>712</v>
+      </c>
+      <c r="L78" t="s">
+        <v>803</v>
+      </c>
+      <c r="M78" t="s">
+        <v>904</v>
+      </c>
+      <c r="N78" t="s">
+        <v>955</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>1008</v>
       </c>
       <c r="R78" t="s">
-        <v>1005</v>
+        <v>1097</v>
       </c>
       <c r="S78" t="s">
-        <v>1005</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -7529,49 +7793,43 @@
         <v>99</v>
       </c>
       <c r="C79" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D79" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E79" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F79" t="s">
         <v>470</v>
       </c>
       <c r="G79" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="H79" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="I79" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="J79" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="K79" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="L79" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="M79" t="s">
-        <v>891</v>
-      </c>
-      <c r="N79" t="s">
-        <v>933</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>989</v>
+        <v>905</v>
       </c>
       <c r="R79" t="s">
-        <v>1071</v>
+        <v>1098</v>
       </c>
       <c r="S79" t="s">
-        <v>1171</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -7582,13 +7840,13 @@
         <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D80" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E80" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F80" t="s">
         <v>471</v>
@@ -7597,28 +7855,25 @@
         <v>511</v>
       </c>
       <c r="H80" t="s">
-        <v>501</v>
+        <v>554</v>
       </c>
       <c r="I80" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="J80" t="s">
-        <v>627</v>
-      </c>
-      <c r="K80" t="s">
-        <v>703</v>
+        <v>639</v>
       </c>
       <c r="L80" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="M80" t="s">
-        <v>892</v>
+        <v>906</v>
       </c>
       <c r="R80" t="s">
-        <v>1072</v>
+        <v>1099</v>
       </c>
       <c r="S80" t="s">
-        <v>1172</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -7629,40 +7884,46 @@
         <v>101</v>
       </c>
       <c r="C81" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D81" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E81" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F81" t="s">
         <v>472</v>
       </c>
       <c r="G81" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="H81" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="I81" t="s">
-        <v>553</v>
+        <v>519</v>
       </c>
       <c r="J81" t="s">
-        <v>628</v>
+        <v>640</v>
+      </c>
+      <c r="K81" t="s">
+        <v>714</v>
       </c>
       <c r="L81" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="M81" t="s">
-        <v>893</v>
+        <v>907</v>
+      </c>
+      <c r="P81" t="s">
+        <v>990</v>
       </c>
       <c r="R81" t="s">
-        <v>1073</v>
+        <v>1100</v>
       </c>
       <c r="S81" t="s">
-        <v>1173</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -7673,46 +7934,49 @@
         <v>102</v>
       </c>
       <c r="C82" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D82" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E82" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F82" t="s">
         <v>473</v>
       </c>
       <c r="G82" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="H82" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="I82" t="s">
-        <v>510</v>
+        <v>541</v>
       </c>
       <c r="J82" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="K82" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="L82" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="M82" t="s">
-        <v>894</v>
-      </c>
-      <c r="P82" t="s">
-        <v>968</v>
+        <v>908</v>
+      </c>
+      <c r="N82" t="s">
+        <v>956</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>1009</v>
       </c>
       <c r="R82" t="s">
-        <v>1074</v>
+        <v>1101</v>
       </c>
       <c r="S82" t="s">
-        <v>1174</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -7723,46 +7987,49 @@
         <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D83" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E83" t="s">
-        <v>392</v>
+        <v>386</v>
+      </c>
+      <c r="F83" t="s">
+        <v>474</v>
       </c>
       <c r="G83" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="H83" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="I83" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="J83" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="K83" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="L83" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="M83" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
       <c r="N83" t="s">
-        <v>934</v>
+        <v>957</v>
       </c>
       <c r="Q83" t="s">
-        <v>990</v>
+        <v>1010</v>
       </c>
       <c r="R83" t="s">
-        <v>1075</v>
+        <v>1102</v>
       </c>
       <c r="S83" t="s">
-        <v>1175</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -7773,49 +8040,46 @@
         <v>104</v>
       </c>
       <c r="C84" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D84" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E84" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F84" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G84" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H84" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="I84" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="J84" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="K84" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="L84" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="M84" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="N84" t="s">
-        <v>935</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>991</v>
+        <v>958</v>
       </c>
       <c r="R84" t="s">
-        <v>1076</v>
+        <v>1103</v>
       </c>
       <c r="S84" t="s">
-        <v>1176</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -7826,43 +8090,49 @@
         <v>105</v>
       </c>
       <c r="C85" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D85" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E85" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F85" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G85" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="H85" t="s">
-        <v>504</v>
+        <v>548</v>
       </c>
       <c r="I85" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="J85" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="K85" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="L85" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="M85" t="s">
-        <v>897</v>
+        <v>911</v>
+      </c>
+      <c r="N85" t="s">
+        <v>959</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>1011</v>
       </c>
       <c r="R85" t="s">
-        <v>1005</v>
+        <v>1104</v>
       </c>
       <c r="S85" t="s">
-        <v>1177</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -7873,52 +8143,49 @@
         <v>106</v>
       </c>
       <c r="C86" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D86" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E86" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F86" t="s">
         <v>476</v>
       </c>
       <c r="G86" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="H86" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="I86" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="J86" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="K86" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="L86" t="s">
-        <v>799</v>
+        <v>810</v>
       </c>
       <c r="M86" t="s">
-        <v>898</v>
+        <v>911</v>
       </c>
       <c r="N86" t="s">
-        <v>936</v>
-      </c>
-      <c r="O86" t="s">
-        <v>942</v>
+        <v>959</v>
       </c>
       <c r="Q86" t="s">
-        <v>992</v>
+        <v>1011</v>
       </c>
       <c r="R86" t="s">
-        <v>1077</v>
+        <v>1105</v>
       </c>
       <c r="S86" t="s">
-        <v>1178</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -7929,52 +8196,49 @@
         <v>107</v>
       </c>
       <c r="C87" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D87" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E87" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F87" t="s">
         <v>476</v>
       </c>
       <c r="G87" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H87" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="I87" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="J87" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="K87" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="L87" t="s">
-        <v>799</v>
+        <v>810</v>
       </c>
       <c r="M87" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
       <c r="N87" t="s">
-        <v>936</v>
-      </c>
-      <c r="O87" t="s">
-        <v>942</v>
+        <v>959</v>
       </c>
       <c r="Q87" t="s">
-        <v>992</v>
+        <v>1011</v>
       </c>
       <c r="R87" t="s">
-        <v>1078</v>
+        <v>1106</v>
       </c>
       <c r="S87" t="s">
-        <v>1178</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -7985,52 +8249,31 @@
         <v>108</v>
       </c>
       <c r="C88" t="s">
-        <v>213</v>
-      </c>
-      <c r="D88" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="E88" t="s">
-        <v>395</v>
-      </c>
-      <c r="F88" t="s">
-        <v>476</v>
+        <v>389</v>
       </c>
       <c r="G88" t="s">
-        <v>500</v>
-      </c>
-      <c r="H88" t="s">
-        <v>536</v>
-      </c>
-      <c r="I88" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="J88" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="K88" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="L88" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="M88" t="s">
-        <v>899</v>
-      </c>
-      <c r="N88" t="s">
-        <v>936</v>
-      </c>
-      <c r="O88" t="s">
-        <v>942</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>992</v>
+        <v>913</v>
       </c>
       <c r="R88" t="s">
-        <v>1079</v>
+        <v>1107</v>
       </c>
       <c r="S88" t="s">
-        <v>1179</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -8041,22 +8284,31 @@
         <v>109</v>
       </c>
       <c r="C89" t="s">
-        <v>214</v>
-      </c>
-      <c r="E89" t="s">
-        <v>396</v>
+        <v>212</v>
+      </c>
+      <c r="G89" t="s">
+        <v>511</v>
+      </c>
+      <c r="H89" t="s">
+        <v>547</v>
+      </c>
+      <c r="I89" t="s">
+        <v>506</v>
       </c>
       <c r="J89" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="L89" t="s">
-        <v>800</v>
+        <v>812</v>
+      </c>
+      <c r="M89" t="s">
+        <v>914</v>
       </c>
       <c r="R89" t="s">
-        <v>1080</v>
+        <v>1108</v>
       </c>
       <c r="S89" t="s">
-        <v>1180</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -8067,31 +8319,37 @@
         <v>110</v>
       </c>
       <c r="C90" t="s">
-        <v>215</v>
+        <v>213</v>
+      </c>
+      <c r="E90" t="s">
+        <v>390</v>
+      </c>
+      <c r="F90" t="s">
+        <v>477</v>
       </c>
       <c r="G90" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="H90" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="I90" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="J90" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="L90" t="s">
-        <v>801</v>
+        <v>812</v>
       </c>
       <c r="M90" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
       <c r="R90" t="s">
-        <v>1005</v>
+        <v>1109</v>
       </c>
       <c r="S90" t="s">
-        <v>1181</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -8102,37 +8360,37 @@
         <v>111</v>
       </c>
       <c r="C91" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E91" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F91" t="s">
         <v>477</v>
       </c>
       <c r="G91" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="H91" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="I91" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="J91" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="L91" t="s">
-        <v>801</v>
+        <v>812</v>
       </c>
       <c r="M91" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
       <c r="R91" t="s">
-        <v>1081</v>
+        <v>1109</v>
       </c>
       <c r="S91" t="s">
-        <v>1182</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -8143,37 +8401,43 @@
         <v>112</v>
       </c>
       <c r="C92" t="s">
-        <v>216</v>
+        <v>214</v>
+      </c>
+      <c r="D92" t="s">
+        <v>295</v>
       </c>
       <c r="E92" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F92" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G92" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="H92" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I92" t="s">
-        <v>499</v>
+        <v>564</v>
       </c>
       <c r="J92" t="s">
-        <v>636</v>
+        <v>648</v>
+      </c>
+      <c r="K92" t="s">
+        <v>721</v>
       </c>
       <c r="L92" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="M92" t="s">
-        <v>900</v>
+        <v>915</v>
       </c>
       <c r="R92" t="s">
-        <v>1081</v>
+        <v>1110</v>
       </c>
       <c r="S92" t="s">
-        <v>1182</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -8184,43 +8448,43 @@
         <v>113</v>
       </c>
       <c r="C93" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D93" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E93" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F93" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G93" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="H93" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="I93" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="J93" t="s">
-        <v>637</v>
-      </c>
-      <c r="K93" t="s">
-        <v>710</v>
+        <v>649</v>
       </c>
       <c r="L93" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="M93" t="s">
-        <v>901</v>
+        <v>916</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>1012</v>
       </c>
       <c r="R93" t="s">
-        <v>1005</v>
+        <v>1111</v>
       </c>
       <c r="S93" t="s">
-        <v>1183</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -8231,43 +8495,52 @@
         <v>114</v>
       </c>
       <c r="C94" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D94" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E94" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F94" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G94" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="H94" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="I94" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="J94" t="s">
-        <v>638</v>
+        <v>650</v>
+      </c>
+      <c r="K94" t="s">
+        <v>722</v>
       </c>
       <c r="L94" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="M94" t="s">
-        <v>902</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>993</v>
+        <v>917</v>
+      </c>
+      <c r="N94" t="s">
+        <v>960</v>
+      </c>
+      <c r="O94" t="s">
+        <v>968</v>
+      </c>
+      <c r="P94" t="s">
+        <v>991</v>
       </c>
       <c r="R94" t="s">
-        <v>1082</v>
+        <v>1112</v>
       </c>
       <c r="S94" t="s">
-        <v>1184</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -8278,46 +8551,43 @@
         <v>115</v>
       </c>
       <c r="C95" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D95" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E95" t="s">
-        <v>400</v>
+        <v>394</v>
+      </c>
+      <c r="F95" t="s">
+        <v>481</v>
       </c>
       <c r="G95" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="H95" t="s">
-        <v>504</v>
+        <v>543</v>
       </c>
       <c r="I95" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="J95" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="K95" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="L95" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="M95" t="s">
-        <v>903</v>
-      </c>
-      <c r="O95" t="s">
-        <v>946</v>
-      </c>
-      <c r="P95" t="s">
-        <v>969</v>
+        <v>918</v>
       </c>
       <c r="R95" t="s">
-        <v>1083</v>
+        <v>1113</v>
       </c>
       <c r="S95" t="s">
-        <v>1005</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -8328,43 +8598,40 @@
         <v>116</v>
       </c>
       <c r="C96" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D96" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E96" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F96" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G96" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="H96" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="I96" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
       <c r="J96" t="s">
-        <v>640</v>
-      </c>
-      <c r="K96" t="s">
-        <v>712</v>
+        <v>652</v>
       </c>
       <c r="L96" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="M96" t="s">
-        <v>904</v>
+        <v>919</v>
       </c>
       <c r="R96" t="s">
-        <v>1084</v>
+        <v>1114</v>
       </c>
       <c r="S96" t="s">
-        <v>1185</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -8375,40 +8642,40 @@
         <v>117</v>
       </c>
       <c r="C97" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D97" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E97" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F97" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G97" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="H97" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="I97" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J97" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="L97" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="M97" t="s">
-        <v>905</v>
+        <v>920</v>
       </c>
       <c r="R97" t="s">
-        <v>1085</v>
+        <v>1115</v>
       </c>
       <c r="S97" t="s">
-        <v>1186</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -8419,40 +8686,46 @@
         <v>118</v>
       </c>
       <c r="C98" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D98" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E98" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F98" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G98" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H98" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="I98" t="s">
-        <v>499</v>
+        <v>565</v>
       </c>
       <c r="J98" t="s">
-        <v>642</v>
+        <v>654</v>
+      </c>
+      <c r="K98" t="s">
+        <v>724</v>
       </c>
       <c r="L98" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="M98" t="s">
-        <v>906</v>
+        <v>921</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>1013</v>
       </c>
       <c r="R98" t="s">
-        <v>1086</v>
+        <v>1116</v>
       </c>
       <c r="S98" t="s">
-        <v>1187</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -8463,46 +8736,43 @@
         <v>119</v>
       </c>
       <c r="C99" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D99" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E99" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F99" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G99" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="H99" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="I99" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="J99" t="s">
-        <v>643</v>
-      </c>
-      <c r="K99" t="s">
-        <v>713</v>
+        <v>655</v>
       </c>
       <c r="L99" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="M99" t="s">
-        <v>907</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>994</v>
+        <v>922</v>
+      </c>
+      <c r="P99" t="s">
+        <v>992</v>
       </c>
       <c r="R99" t="s">
-        <v>1087</v>
+        <v>1117</v>
       </c>
       <c r="S99" t="s">
-        <v>1188</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -8513,40 +8783,34 @@
         <v>120</v>
       </c>
       <c r="C100" t="s">
-        <v>223</v>
-      </c>
-      <c r="D100" t="s">
-        <v>308</v>
+        <v>221</v>
       </c>
       <c r="E100" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G100" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="H100" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="I100" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="J100" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="L100" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="M100" t="s">
-        <v>908</v>
-      </c>
-      <c r="P100" t="s">
-        <v>970</v>
+        <v>923</v>
       </c>
       <c r="R100" t="s">
-        <v>1088</v>
+        <v>1118</v>
       </c>
       <c r="S100" t="s">
-        <v>1189</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -8557,34 +8821,40 @@
         <v>121</v>
       </c>
       <c r="C101" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E101" t="s">
-        <v>405</v>
+        <v>398</v>
+      </c>
+      <c r="F101" t="s">
+        <v>486</v>
       </c>
       <c r="G101" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="H101" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I101" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="J101" t="s">
-        <v>645</v>
+        <v>657</v>
+      </c>
+      <c r="K101" t="s">
+        <v>725</v>
       </c>
       <c r="L101" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="M101" t="s">
-        <v>909</v>
+        <v>924</v>
       </c>
       <c r="R101" t="s">
-        <v>1089</v>
+        <v>1119</v>
       </c>
       <c r="S101" t="s">
-        <v>1190</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -8595,46 +8865,46 @@
         <v>122</v>
       </c>
       <c r="C102" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D102" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E102" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F102" t="s">
-        <v>309</v>
+        <v>487</v>
       </c>
       <c r="G102" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="H102" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="I102" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="J102" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="K102" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="L102" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="M102" t="s">
-        <v>910</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>995</v>
+        <v>925</v>
+      </c>
+      <c r="P102" t="s">
+        <v>993</v>
       </c>
       <c r="R102" t="s">
-        <v>1090</v>
+        <v>1120</v>
       </c>
       <c r="S102" t="s">
-        <v>1191</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -8645,43 +8915,43 @@
         <v>123</v>
       </c>
       <c r="C103" t="s">
-        <v>226</v>
-      </c>
-      <c r="D103" t="s">
-        <v>310</v>
+        <v>224</v>
       </c>
       <c r="E103" t="s">
-        <v>407</v>
+        <v>400</v>
+      </c>
+      <c r="F103" t="s">
+        <v>488</v>
       </c>
       <c r="G103" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="H103" t="s">
+        <v>535</v>
+      </c>
+      <c r="I103" t="s">
         <v>547</v>
       </c>
-      <c r="I103" t="s">
-        <v>553</v>
-      </c>
       <c r="J103" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="K103" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="L103" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
       <c r="M103" t="s">
-        <v>911</v>
-      </c>
-      <c r="P103" t="s">
-        <v>971</v>
+        <v>926</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>1014</v>
       </c>
       <c r="R103" t="s">
-        <v>1091</v>
+        <v>1121</v>
       </c>
       <c r="S103" t="s">
-        <v>1005</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -8692,37 +8962,49 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+      <c r="D104" t="s">
+        <v>304</v>
       </c>
       <c r="E104" t="s">
-        <v>408</v>
+        <v>401</v>
+      </c>
+      <c r="F104" t="s">
+        <v>489</v>
       </c>
       <c r="G104" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="H104" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="I104" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="J104" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="K104" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="L104" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="M104" t="s">
-        <v>912</v>
+        <v>927</v>
+      </c>
+      <c r="N104" t="s">
+        <v>961</v>
+      </c>
+      <c r="P104" t="s">
+        <v>994</v>
       </c>
       <c r="R104" t="s">
-        <v>1092</v>
+        <v>1122</v>
       </c>
       <c r="S104" t="s">
-        <v>1192</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -8733,46 +9015,49 @@
         <v>125</v>
       </c>
       <c r="C105" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D105" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E105" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F105" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="G105" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="H105" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="I105" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="J105" t="s">
-        <v>649</v>
+        <v>580</v>
       </c>
       <c r="K105" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="L105" t="s">
-        <v>814</v>
+        <v>580</v>
       </c>
       <c r="M105" t="s">
-        <v>913</v>
-      </c>
-      <c r="P105" t="s">
-        <v>972</v>
+        <v>928</v>
+      </c>
+      <c r="N105" t="s">
+        <v>962</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>1015</v>
       </c>
       <c r="R105" t="s">
-        <v>1093</v>
+        <v>1123</v>
       </c>
       <c r="S105" t="s">
-        <v>1193</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -8783,49 +9068,49 @@
         <v>126</v>
       </c>
       <c r="C106" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D106" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E106" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="F106" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="G106" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H106" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="I106" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="J106" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="K106" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="L106" t="s">
-        <v>570</v>
+        <v>826</v>
       </c>
       <c r="M106" t="s">
-        <v>914</v>
+        <v>928</v>
       </c>
       <c r="N106" t="s">
-        <v>937</v>
+        <v>962</v>
       </c>
       <c r="Q106" t="s">
-        <v>996</v>
+        <v>1015</v>
       </c>
       <c r="R106" t="s">
-        <v>1094</v>
+        <v>1124</v>
       </c>
       <c r="S106" t="s">
-        <v>1194</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -8836,49 +9121,46 @@
         <v>127</v>
       </c>
       <c r="C107" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D107" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E107" t="s">
-        <v>410</v>
+        <v>338</v>
       </c>
       <c r="F107" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="G107" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="H107" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I107" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="J107" t="s">
-        <v>570</v>
-      </c>
-      <c r="K107" t="s">
-        <v>718</v>
+        <v>661</v>
       </c>
       <c r="L107" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="M107" t="s">
-        <v>914</v>
+        <v>929</v>
       </c>
       <c r="N107" t="s">
-        <v>937</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>997</v>
+        <v>963</v>
+      </c>
+      <c r="P107" t="s">
+        <v>995</v>
       </c>
       <c r="R107" t="s">
-        <v>1095</v>
+        <v>1125</v>
       </c>
       <c r="S107" t="s">
-        <v>1005</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -8889,43 +9171,49 @@
         <v>128</v>
       </c>
       <c r="C108" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D108" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E108" t="s">
-        <v>346</v>
+        <v>403</v>
+      </c>
+      <c r="F108" t="s">
+        <v>492</v>
       </c>
       <c r="G108" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="H108" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="I108" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="J108" t="s">
-        <v>650</v>
+        <v>662</v>
+      </c>
+      <c r="K108" t="s">
+        <v>730</v>
       </c>
       <c r="L108" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="M108" t="s">
-        <v>915</v>
-      </c>
-      <c r="P108" t="s">
-        <v>973</v>
+        <v>930</v>
+      </c>
+      <c r="N108" t="s">
+        <v>964</v>
       </c>
       <c r="Q108" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="R108" t="s">
-        <v>1096</v>
+        <v>1126</v>
       </c>
       <c r="S108" t="s">
-        <v>1195</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -8936,49 +9224,43 @@
         <v>129</v>
       </c>
       <c r="C109" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D109" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E109" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F109" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="G109" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="H109" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="I109" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="J109" t="s">
-        <v>651</v>
-      </c>
-      <c r="K109" t="s">
-        <v>719</v>
+        <v>663</v>
       </c>
       <c r="L109" t="s">
-        <v>817</v>
-      </c>
-      <c r="M109" t="s">
-        <v>916</v>
+        <v>829</v>
       </c>
       <c r="N109" t="s">
-        <v>938</v>
+        <v>964</v>
       </c>
       <c r="Q109" t="s">
-        <v>999</v>
+        <v>1016</v>
       </c>
       <c r="R109" t="s">
-        <v>1097</v>
+        <v>1127</v>
       </c>
       <c r="S109" t="s">
-        <v>1196</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -8989,43 +9271,40 @@
         <v>130</v>
       </c>
       <c r="C110" t="s">
-        <v>231</v>
-      </c>
-      <c r="D110" t="s">
-        <v>316</v>
+        <v>229</v>
       </c>
       <c r="E110" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F110" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="G110" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="H110" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="I110" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="J110" t="s">
-        <v>652</v>
+        <v>664</v>
+      </c>
+      <c r="K110" t="s">
+        <v>731</v>
       </c>
       <c r="L110" t="s">
-        <v>818</v>
-      </c>
-      <c r="N110" t="s">
-        <v>938</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>999</v>
+        <v>830</v>
+      </c>
+      <c r="M110" t="s">
+        <v>931</v>
       </c>
       <c r="R110" t="s">
-        <v>1098</v>
+        <v>1128</v>
       </c>
       <c r="S110" t="s">
-        <v>1197</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -9036,43 +9315,40 @@
         <v>131</v>
       </c>
       <c r="C111" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E111" t="s">
-        <v>412</v>
-      </c>
-      <c r="F111" t="s">
-        <v>487</v>
+        <v>405</v>
       </c>
       <c r="G111" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="H111" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="I111" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="J111" t="s">
-        <v>653</v>
-      </c>
-      <c r="K111" t="s">
-        <v>720</v>
+        <v>665</v>
       </c>
       <c r="L111" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="M111" t="s">
-        <v>917</v>
+        <v>831</v>
       </c>
       <c r="P111" t="s">
-        <v>974</v>
+        <v>996</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>1017</v>
       </c>
       <c r="R111" t="s">
-        <v>1099</v>
+        <v>1129</v>
       </c>
       <c r="S111" t="s">
-        <v>1198</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -9083,40 +9359,40 @@
         <v>132</v>
       </c>
       <c r="C112" t="s">
-        <v>233</v>
+        <v>231</v>
+      </c>
+      <c r="D112" t="s">
+        <v>309</v>
       </c>
       <c r="E112" t="s">
-        <v>413</v>
+        <v>406</v>
+      </c>
+      <c r="F112" t="s">
+        <v>494</v>
       </c>
       <c r="G112" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H112" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="I112" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="J112" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="L112" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="M112" t="s">
-        <v>820</v>
-      </c>
-      <c r="P112" t="s">
-        <v>975</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>1000</v>
+        <v>932</v>
       </c>
       <c r="R112" t="s">
-        <v>1005</v>
+        <v>1130</v>
       </c>
       <c r="S112" t="s">
-        <v>1005</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -9127,40 +9403,49 @@
         <v>133</v>
       </c>
       <c r="C113" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D113" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E113" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="F113" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="G113" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="H113" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="I113" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
       <c r="J113" t="s">
-        <v>655</v>
+        <v>667</v>
+      </c>
+      <c r="K113" t="s">
+        <v>732</v>
       </c>
       <c r="L113" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="M113" t="s">
-        <v>918</v>
+        <v>933</v>
+      </c>
+      <c r="N113" t="s">
+        <v>965</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>1018</v>
       </c>
       <c r="R113" t="s">
-        <v>1100</v>
+        <v>1131</v>
       </c>
       <c r="S113" t="s">
-        <v>1199</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -9171,49 +9456,49 @@
         <v>134</v>
       </c>
       <c r="C114" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D114" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E114" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F114" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="G114" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="H114" t="s">
-        <v>530</v>
+        <v>559</v>
       </c>
       <c r="I114" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="J114" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="K114" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="L114" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="M114" t="s">
-        <v>919</v>
+        <v>934</v>
       </c>
       <c r="N114" t="s">
-        <v>939</v>
+        <v>966</v>
       </c>
       <c r="Q114" t="s">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="R114" t="s">
-        <v>1101</v>
+        <v>1132</v>
       </c>
       <c r="S114" t="s">
-        <v>1200</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="115" spans="1:19">
@@ -9224,49 +9509,46 @@
         <v>135</v>
       </c>
       <c r="C115" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D115" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E115" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F115" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="G115" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="H115" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="I115" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="J115" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="K115" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="L115" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="M115" t="s">
-        <v>920</v>
-      </c>
-      <c r="N115" t="s">
-        <v>940</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>1002</v>
+        <v>935</v>
+      </c>
+      <c r="P115" t="s">
+        <v>997</v>
       </c>
       <c r="R115" t="s">
-        <v>1102</v>
+        <v>1133</v>
       </c>
       <c r="S115" t="s">
-        <v>1201</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -9277,90 +9559,75 @@
         <v>136</v>
       </c>
       <c r="C116" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D116" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E116" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F116" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="G116" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="H116" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="I116" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="J116" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="K116" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="L116" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
       <c r="M116" t="s">
-        <v>921</v>
-      </c>
-      <c r="P116" t="s">
-        <v>976</v>
+        <v>936</v>
+      </c>
+      <c r="N116" t="s">
+        <v>967</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>1020</v>
       </c>
       <c r="R116" t="s">
-        <v>1103</v>
+        <v>1134</v>
       </c>
       <c r="S116" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
-        <v>137</v>
-      </c>
-      <c r="C117" t="s">
-        <v>238</v>
-      </c>
-      <c r="D117" t="s">
-        <v>321</v>
-      </c>
-      <c r="E117" t="s">
-        <v>418</v>
-      </c>
-      <c r="G117" t="s">
-        <v>519</v>
-      </c>
-      <c r="J117" t="s">
-        <v>659</v>
-      </c>
-      <c r="K117" t="s">
-        <v>724</v>
-      </c>
-      <c r="L117" t="s">
-        <v>825</v>
-      </c>
-      <c r="M117" t="s">
-        <v>922</v>
-      </c>
-      <c r="O117" t="s">
-        <v>944</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>1003</v>
-      </c>
-      <c r="R117" t="s">
-        <v>1104</v>
-      </c>
-      <c r="S117" t="s">
-        <v>1203</v>
+        <v>1248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1249</v>
       </c>
     </row>
   </sheetData>
